--- a/web/fmatt.xlsx
+++ b/web/fmatt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="152">
   <si>
     <t>Total Missed Appointments</t>
   </si>
@@ -77,9 +77,6 @@
     <t xml:space="preserve">Introduction </t>
   </si>
   <si>
-    <t>The FMATT  is a  tool  that  helps HCW  longitudinaly followup the missed appointment clients/numbers  daily  and update their follouwup outcomes  aiming at returning them back to Care</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Column  </t>
     </r>
@@ -117,9 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">Update this with the number of clients who retun back after a missed appointment but within the 29+ days. this is updated on a daily basis, filled in horizontally till the last day of the month. </t>
-  </si>
-  <si>
-    <t>08 to 38</t>
   </si>
   <si>
     <t xml:space="preserve">Total Missed appointment </t>
@@ -249,19 +243,7 @@
     </r>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>c</t>
-  </si>
-  <si>
-    <t>d-ah</t>
-  </si>
-  <si>
-    <t>aj</t>
   </si>
   <si>
     <t xml:space="preserve">Total LTFU </t>
@@ -285,16 +267,10 @@
     <t>Cumulative  total IIT on follow-up in the  facility Continue updating the numbers retention  status  along column d (ie  drop follow-up of any client who returns to care ,dies or is confirmed TO)Indicate clients who Return to care out of the cummulative IIT in column (b) above</t>
   </si>
   <si>
-    <t>Gives you the total # of clients who at the end of the month were (IIT-AJ,TO -AK,or Dead- AL)</t>
-  </si>
-  <si>
     <t xml:space="preserve">On each Row,indicate the  updated number  of IIT  from the  column at the end of the month  this  is after  substracting all who return to care ,confirmed TO and dead </t>
   </si>
   <si>
     <t xml:space="preserve">On each Row, indicate total clients who drop from a IIT status  due to an acquired  confirmed status of Transfer out TO </t>
-  </si>
-  <si>
-    <t>The Facility  Interuption In treatment tracking tool ( FIITTT)  is a  tool  that  helps HCW  longitudinaly followup the IIT interruption In Treatment numbers  daily  and update there follouwup outcomes  aiming at returning them back to Care</t>
   </si>
   <si>
     <t xml:space="preserve">On each Row Indicate total clients who drop from a IIT status  due to an acquired  confirmed status of Transfer out TO </t>
@@ -426,9 +402,6 @@
     <t>Missed Appointments</t>
   </si>
   <si>
-    <t>Facility Missed Appointment Tracking Tool (FMATT) Version 1.0.0</t>
-  </si>
-  <si>
     <t>County:</t>
   </si>
   <si>
@@ -439,9 +412,6 @@
   </si>
   <si>
     <t>Nakuru</t>
-  </si>
-  <si>
-    <t>Facility Interruption in treatment Tracking Tool (FIITTT) Version 1.0.0</t>
   </si>
   <si>
     <t xml:space="preserve">LTFU Brought Forward from previous month/ cummulative </t>
@@ -535,6 +505,30 @@
   </si>
   <si>
     <t>FIIIT Instructions</t>
+  </si>
+  <si>
+    <t>The FMATT  is a  tool  that  helps HCW  longitudinally follow-up the missed appointment clients/numbers  daily  and update their follow-up outcomes  aiming at returning them back to Care. The production of this tool was made possible by the generous support of the American People through the USAID Tujenge Jamii Cooperative Agreement Number 72061521CA00006.</t>
+  </si>
+  <si>
+    <t>10 to 40</t>
+  </si>
+  <si>
+    <t>The Facility  Interuption In treatment tracking tool ( FIITTT)  is a  tool  that  helps HCW  longitudinaly followup the IIT interruption In Treatment numbers  daily  and update there follouwup outcomes  aiming at returning them back to Care.The production of this tool was made possible by the generous support of the American People through the USAID Tujenge Jamii Cooperative Agreement Number 72061521CA00006.</t>
+  </si>
+  <si>
+    <t>9-40</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>Gives you the total # of clients who at the end of the month were (IIT-AI,TO -AJ,or Dead- AK)</t>
+  </si>
+  <si>
+    <t>USAID Tujenge Jamii Facility Missed Appointment Tracking Tool (FMATT) Version 1.0.0</t>
+  </si>
+  <si>
+    <t>USAID Tujenge Jamii Facility Interruption in treatment Tracking Tool (FIITTT) Version 1.0.0</t>
   </si>
 </sst>
 </file>
@@ -1929,14 +1923,11 @@
     <xf numFmtId="0" fontId="18" fillId="14" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1944,35 +1935,52 @@
     <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="135"/>
@@ -2010,51 +2018,37 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2961,7 +2955,7 @@
   <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2973,53 +2967,53 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="110" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="B1" s="110"/>
     </row>
-    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>14</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>7</v>
@@ -3035,10 +3029,10 @@
     </row>
     <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3046,85 +3040,85 @@
         <v>10</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="111" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B13" s="111"/>
     </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="64" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="66" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
-        <v>58</v>
+      <c r="A16" s="68">
+        <v>7</v>
       </c>
       <c r="B16" s="69" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
-      <c r="A17" s="68" t="s">
-        <v>59</v>
+      <c r="A17" s="68">
+        <v>8</v>
       </c>
       <c r="B17" s="69" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="68" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B18" s="69" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="68" t="s">
-        <v>61</v>
+        <v>147</v>
       </c>
       <c r="B19" s="69" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="68" t="s">
-        <v>62</v>
+        <v>148</v>
       </c>
       <c r="B20" s="69" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="68" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B21" s="69" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -3132,15 +3126,15 @@
         <v>10</v>
       </c>
       <c r="B22" s="69" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="70" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B23" s="71" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3160,11 +3154,11 @@
   </sheetPr>
   <dimension ref="A1:AQ70"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -3229,152 +3223,152 @@
     </row>
     <row r="3" spans="1:37" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="56"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="143"/>
+      <c r="D3" s="146" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="143" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="120" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="112" t="s">
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="143" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" s="143"/>
+      <c r="U3" s="153">
+        <v>15288</v>
+      </c>
+      <c r="V3" s="153"/>
+      <c r="W3" s="153"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="143" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="153">
+        <v>2021</v>
+      </c>
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="112" t="s">
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="T3" s="112"/>
-      <c r="U3" s="114">
-        <v>15288</v>
-      </c>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="112" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="112"/>
-      <c r="AB3" s="114">
-        <v>2021</v>
-      </c>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="112" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="113" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH3" s="113"/>
+      <c r="AH3" s="152"/>
       <c r="AI3" s="48"/>
       <c r="AJ3" s="48"/>
       <c r="AK3" s="44"/>
     </row>
     <row r="4" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="125" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="126"/>
-      <c r="AH4" s="126"/>
-      <c r="AI4" s="133" t="s">
+      <c r="B4" s="150" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="151"/>
+      <c r="AF4" s="151"/>
+      <c r="AG4" s="151"/>
+      <c r="AH4" s="151"/>
+      <c r="AI4" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="AJ4" s="131" t="s">
+      <c r="AJ4" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="132"/>
+      <c r="AK4" s="136"/>
     </row>
     <row r="5" spans="1:37" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="126"/>
-      <c r="W5" s="126"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="126"/>
-      <c r="AC5" s="126"/>
-      <c r="AD5" s="126"/>
-      <c r="AE5" s="126"/>
-      <c r="AF5" s="126"/>
-      <c r="AG5" s="126"/>
-      <c r="AH5" s="126"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="127" t="s">
+      <c r="B5" s="150"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="151"/>
+      <c r="AC5" s="151"/>
+      <c r="AD5" s="151"/>
+      <c r="AE5" s="151"/>
+      <c r="AF5" s="151"/>
+      <c r="AG5" s="151"/>
+      <c r="AH5" s="151"/>
+      <c r="AI5" s="138"/>
+      <c r="AJ5" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="AK5" s="129" t="s">
+      <c r="AK5" s="133" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B6" s="52" t="s">
         <v>1</v>
@@ -3473,16 +3467,16 @@
       <c r="AH6" s="58">
         <v>31</v>
       </c>
-      <c r="AI6" s="135"/>
-      <c r="AJ6" s="128"/>
-      <c r="AK6" s="130"/>
+      <c r="AI6" s="139"/>
+      <c r="AJ6" s="132"/>
+      <c r="AK6" s="134"/>
     </row>
     <row r="7" spans="1:37" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>1</v>
       </c>
       <c r="B7" s="49" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
@@ -3516,7 +3510,7 @@
       <c r="AF7" s="51"/>
       <c r="AG7" s="29"/>
       <c r="AH7" s="51"/>
-      <c r="AI7" s="136"/>
+      <c r="AI7" s="140"/>
       <c r="AJ7" s="41"/>
       <c r="AK7" s="42"/>
     </row>
@@ -3525,7 +3519,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="63" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="26"/>
@@ -3559,7 +3553,7 @@
       <c r="AF8" s="25"/>
       <c r="AG8" s="25"/>
       <c r="AH8" s="34"/>
-      <c r="AI8" s="137"/>
+      <c r="AI8" s="141"/>
       <c r="AJ8" s="39"/>
       <c r="AK8" s="38"/>
     </row>
@@ -3568,7 +3562,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="24"/>
       <c r="D9" s="31"/>
@@ -3602,7 +3596,7 @@
       <c r="AF9" s="32"/>
       <c r="AG9" s="32"/>
       <c r="AH9" s="35"/>
-      <c r="AI9" s="138"/>
+      <c r="AI9" s="142"/>
       <c r="AJ9" s="59"/>
       <c r="AK9" s="60"/>
     </row>
@@ -3611,11 +3605,11 @@
         <f>"miap"&amp;C10</f>
         <v>miap1st</v>
       </c>
-      <c r="B10" s="122" t="s">
-        <v>116</v>
+      <c r="B10" s="147" t="s">
+        <v>108</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="83"/>
       <c r="E10" s="62"/>
@@ -3660,11 +3654,11 @@
         <f t="shared" ref="A11:A40" si="0">"miap"&amp;C11</f>
         <v>miap2nd</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="117"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="122"/>
       <c r="E11" s="83"/>
       <c r="F11" s="62"/>
       <c r="G11" s="62"/>
@@ -3707,12 +3701,12 @@
         <f t="shared" si="0"/>
         <v>miap3rd</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="115" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="117"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="115"/>
+      <c r="E12" s="122"/>
       <c r="F12" s="83"/>
       <c r="G12" s="109"/>
       <c r="H12" s="62"/>
@@ -3754,13 +3748,13 @@
         <f t="shared" si="0"/>
         <v>miap4th</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="117"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="122"/>
       <c r="G13" s="83"/>
       <c r="H13" s="62"/>
       <c r="I13" s="62"/>
@@ -3801,14 +3795,14 @@
         <f t="shared" si="0"/>
         <v>miap5th</v>
       </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="117"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="122"/>
       <c r="H14" s="83"/>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
@@ -3848,15 +3842,15 @@
         <f t="shared" si="0"/>
         <v>miap6th</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="115" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="117"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="122"/>
       <c r="I15" s="83"/>
       <c r="J15" s="62"/>
       <c r="K15" s="62"/>
@@ -3895,16 +3889,16 @@
         <f t="shared" si="0"/>
         <v>miap7th</v>
       </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="115" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="117"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="122"/>
       <c r="J16" s="83"/>
       <c r="K16" s="62"/>
       <c r="L16" s="62"/>
@@ -3942,17 +3936,17 @@
         <f t="shared" si="0"/>
         <v>miap8th</v>
       </c>
-      <c r="B17" s="123"/>
-      <c r="C17" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="117"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="122"/>
       <c r="K17" s="83"/>
       <c r="L17" s="62"/>
       <c r="M17" s="62"/>
@@ -3989,18 +3983,18 @@
         <f t="shared" si="0"/>
         <v>miap9th</v>
       </c>
-      <c r="B18" s="123"/>
-      <c r="C18" s="115" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="117"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="122"/>
       <c r="L18" s="83"/>
       <c r="M18" s="62"/>
       <c r="N18" s="62"/>
@@ -4036,19 +4030,19 @@
         <f t="shared" si="0"/>
         <v>miap10th</v>
       </c>
-      <c r="B19" s="123"/>
-      <c r="C19" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="122"/>
       <c r="M19" s="83"/>
       <c r="N19" s="62"/>
       <c r="O19" s="62"/>
@@ -4083,20 +4077,20 @@
         <f t="shared" si="0"/>
         <v>miap11th</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="117"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="122"/>
       <c r="N20" s="83"/>
       <c r="O20" s="62"/>
       <c r="P20" s="62"/>
@@ -4130,21 +4124,21 @@
         <f t="shared" si="0"/>
         <v>miap12th</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="121"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="123"/>
       <c r="O21" s="83"/>
       <c r="P21" s="62"/>
       <c r="Q21" s="62"/>
@@ -4177,22 +4171,22 @@
         <f t="shared" si="0"/>
         <v>miap13th</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="139"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="124"/>
       <c r="P22" s="83"/>
       <c r="Q22" s="62"/>
       <c r="R22" s="62"/>
@@ -4224,23 +4218,23 @@
         <f t="shared" si="0"/>
         <v>miap14th</v>
       </c>
-      <c r="B23" s="123"/>
-      <c r="C23" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="121"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="123"/>
       <c r="Q23" s="83"/>
       <c r="R23" s="62"/>
       <c r="S23" s="62"/>
@@ -4271,24 +4265,24 @@
         <f t="shared" si="0"/>
         <v>miap15th</v>
       </c>
-      <c r="B24" s="123"/>
-      <c r="C24" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
       <c r="R24" s="83"/>
       <c r="S24" s="62"/>
       <c r="T24" s="62"/>
@@ -4318,25 +4312,25 @@
         <f t="shared" si="0"/>
         <v>miap16th</v>
       </c>
-      <c r="B25" s="123"/>
-      <c r="C25" s="115" t="s">
-        <v>41</v>
-      </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="116"/>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="116"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="115"/>
       <c r="S25" s="83"/>
       <c r="T25" s="62"/>
       <c r="U25" s="62"/>
@@ -4365,26 +4359,26 @@
         <f t="shared" si="0"/>
         <v>miap17th</v>
       </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="116"/>
-      <c r="R26" s="116"/>
-      <c r="S26" s="116"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="115"/>
       <c r="T26" s="83"/>
       <c r="U26" s="62"/>
       <c r="V26" s="62"/>
@@ -4412,27 +4406,27 @@
         <f t="shared" si="0"/>
         <v>miap18th</v>
       </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="115" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="116"/>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="116"/>
-      <c r="S27" s="116"/>
-      <c r="T27" s="116"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="115"/>
+      <c r="S27" s="115"/>
+      <c r="T27" s="115"/>
       <c r="U27" s="83"/>
       <c r="V27" s="62"/>
       <c r="W27" s="62"/>
@@ -4459,28 +4453,28 @@
         <f t="shared" si="0"/>
         <v>miap19th</v>
       </c>
-      <c r="B28" s="123"/>
-      <c r="C28" s="115" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="116"/>
-      <c r="Q28" s="116"/>
-      <c r="R28" s="116"/>
-      <c r="S28" s="116"/>
-      <c r="T28" s="116"/>
-      <c r="U28" s="116"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="115"/>
+      <c r="T28" s="115"/>
+      <c r="U28" s="115"/>
       <c r="V28" s="83"/>
       <c r="W28" s="62"/>
       <c r="X28" s="62"/>
@@ -4506,29 +4500,29 @@
         <f t="shared" si="0"/>
         <v>miap20th</v>
       </c>
-      <c r="B29" s="123"/>
-      <c r="C29" s="115" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="116"/>
-      <c r="Q29" s="116"/>
-      <c r="R29" s="116"/>
-      <c r="S29" s="116"/>
-      <c r="T29" s="116"/>
-      <c r="U29" s="116"/>
-      <c r="V29" s="116"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="115"/>
+      <c r="P29" s="115"/>
+      <c r="Q29" s="115"/>
+      <c r="R29" s="115"/>
+      <c r="S29" s="115"/>
+      <c r="T29" s="115"/>
+      <c r="U29" s="115"/>
+      <c r="V29" s="115"/>
       <c r="W29" s="83"/>
       <c r="X29" s="62"/>
       <c r="Y29" s="62"/>
@@ -4553,30 +4547,30 @@
         <f t="shared" si="0"/>
         <v>miap21st</v>
       </c>
-      <c r="B30" s="123"/>
-      <c r="C30" s="115" t="s">
-        <v>46</v>
-      </c>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="116"/>
-      <c r="Q30" s="116"/>
-      <c r="R30" s="116"/>
-      <c r="S30" s="116"/>
-      <c r="T30" s="116"/>
-      <c r="U30" s="116"/>
-      <c r="V30" s="116"/>
-      <c r="W30" s="116"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="115"/>
+      <c r="R30" s="115"/>
+      <c r="S30" s="115"/>
+      <c r="T30" s="115"/>
+      <c r="U30" s="115"/>
+      <c r="V30" s="115"/>
+      <c r="W30" s="115"/>
       <c r="X30" s="83"/>
       <c r="Y30" s="62"/>
       <c r="Z30" s="62"/>
@@ -4600,31 +4594,31 @@
         <f t="shared" si="0"/>
         <v>miap22nd</v>
       </c>
-      <c r="B31" s="123"/>
-      <c r="C31" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="116"/>
-      <c r="Q31" s="116"/>
-      <c r="R31" s="116"/>
-      <c r="S31" s="116"/>
-      <c r="T31" s="116"/>
-      <c r="U31" s="116"/>
-      <c r="V31" s="116"/>
-      <c r="W31" s="116"/>
-      <c r="X31" s="116"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="115"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="115"/>
+      <c r="S31" s="115"/>
+      <c r="T31" s="115"/>
+      <c r="U31" s="115"/>
+      <c r="V31" s="115"/>
+      <c r="W31" s="115"/>
+      <c r="X31" s="115"/>
       <c r="Y31" s="83"/>
       <c r="Z31" s="62"/>
       <c r="AA31" s="62"/>
@@ -4647,32 +4641,32 @@
         <f t="shared" si="0"/>
         <v>miap23rd</v>
       </c>
-      <c r="B32" s="123"/>
-      <c r="C32" s="115" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="116"/>
-      <c r="X32" s="116"/>
-      <c r="Y32" s="116"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="115"/>
+      <c r="Q32" s="115"/>
+      <c r="R32" s="115"/>
+      <c r="S32" s="115"/>
+      <c r="T32" s="115"/>
+      <c r="U32" s="115"/>
+      <c r="V32" s="115"/>
+      <c r="W32" s="115"/>
+      <c r="X32" s="115"/>
+      <c r="Y32" s="115"/>
       <c r="Z32" s="83"/>
       <c r="AA32" s="62"/>
       <c r="AB32" s="62"/>
@@ -4694,33 +4688,33 @@
         <f t="shared" si="0"/>
         <v>miap24th</v>
       </c>
-      <c r="B33" s="123"/>
-      <c r="C33" s="115" t="s">
-        <v>49</v>
-      </c>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="116"/>
-      <c r="R33" s="116"/>
-      <c r="S33" s="116"/>
-      <c r="T33" s="116"/>
-      <c r="U33" s="116"/>
-      <c r="V33" s="116"/>
-      <c r="W33" s="116"/>
-      <c r="X33" s="116"/>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="116"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="115"/>
+      <c r="R33" s="115"/>
+      <c r="S33" s="115"/>
+      <c r="T33" s="115"/>
+      <c r="U33" s="115"/>
+      <c r="V33" s="115"/>
+      <c r="W33" s="115"/>
+      <c r="X33" s="115"/>
+      <c r="Y33" s="115"/>
+      <c r="Z33" s="115"/>
       <c r="AA33" s="83"/>
       <c r="AB33" s="62"/>
       <c r="AC33" s="62"/>
@@ -4741,34 +4735,34 @@
         <f t="shared" si="0"/>
         <v>miap25th</v>
       </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="115" t="s">
-        <v>50</v>
-      </c>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
-      <c r="S34" s="116"/>
-      <c r="T34" s="116"/>
-      <c r="U34" s="116"/>
-      <c r="V34" s="116"/>
-      <c r="W34" s="116"/>
-      <c r="X34" s="116"/>
-      <c r="Y34" s="116"/>
-      <c r="Z34" s="116"/>
-      <c r="AA34" s="116"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="115"/>
+      <c r="O34" s="115"/>
+      <c r="P34" s="115"/>
+      <c r="Q34" s="115"/>
+      <c r="R34" s="115"/>
+      <c r="S34" s="115"/>
+      <c r="T34" s="115"/>
+      <c r="U34" s="115"/>
+      <c r="V34" s="115"/>
+      <c r="W34" s="115"/>
+      <c r="X34" s="115"/>
+      <c r="Y34" s="115"/>
+      <c r="Z34" s="115"/>
+      <c r="AA34" s="115"/>
       <c r="AB34" s="83"/>
       <c r="AC34" s="62"/>
       <c r="AD34" s="62"/>
@@ -4788,35 +4782,35 @@
         <f t="shared" si="0"/>
         <v>miap26th</v>
       </c>
-      <c r="B35" s="123"/>
-      <c r="C35" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="116"/>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="116"/>
-      <c r="Q35" s="116"/>
-      <c r="R35" s="116"/>
-      <c r="S35" s="116"/>
-      <c r="T35" s="116"/>
-      <c r="U35" s="116"/>
-      <c r="V35" s="116"/>
-      <c r="W35" s="116"/>
-      <c r="X35" s="116"/>
-      <c r="Y35" s="116"/>
-      <c r="Z35" s="116"/>
-      <c r="AA35" s="116"/>
-      <c r="AB35" s="116"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="115"/>
+      <c r="O35" s="115"/>
+      <c r="P35" s="115"/>
+      <c r="Q35" s="115"/>
+      <c r="R35" s="115"/>
+      <c r="S35" s="115"/>
+      <c r="T35" s="115"/>
+      <c r="U35" s="115"/>
+      <c r="V35" s="115"/>
+      <c r="W35" s="115"/>
+      <c r="X35" s="115"/>
+      <c r="Y35" s="115"/>
+      <c r="Z35" s="115"/>
+      <c r="AA35" s="115"/>
+      <c r="AB35" s="115"/>
       <c r="AC35" s="83"/>
       <c r="AD35" s="62"/>
       <c r="AE35" s="62"/>
@@ -4835,36 +4829,36 @@
         <f t="shared" si="0"/>
         <v>miap27th</v>
       </c>
-      <c r="B36" s="123"/>
-      <c r="C36" s="115" t="s">
-        <v>52</v>
-      </c>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="116"/>
-      <c r="R36" s="116"/>
-      <c r="S36" s="116"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="116"/>
-      <c r="V36" s="116"/>
-      <c r="W36" s="116"/>
-      <c r="X36" s="116"/>
-      <c r="Y36" s="116"/>
-      <c r="Z36" s="116"/>
-      <c r="AA36" s="116"/>
-      <c r="AB36" s="116"/>
-      <c r="AC36" s="116"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="115"/>
+      <c r="O36" s="115"/>
+      <c r="P36" s="115"/>
+      <c r="Q36" s="115"/>
+      <c r="R36" s="115"/>
+      <c r="S36" s="115"/>
+      <c r="T36" s="115"/>
+      <c r="U36" s="115"/>
+      <c r="V36" s="115"/>
+      <c r="W36" s="115"/>
+      <c r="X36" s="115"/>
+      <c r="Y36" s="115"/>
+      <c r="Z36" s="115"/>
+      <c r="AA36" s="115"/>
+      <c r="AB36" s="115"/>
+      <c r="AC36" s="115"/>
       <c r="AD36" s="83"/>
       <c r="AE36" s="62"/>
       <c r="AF36" s="62"/>
@@ -4882,37 +4876,37 @@
         <f t="shared" si="0"/>
         <v>miap28th</v>
       </c>
-      <c r="B37" s="123"/>
-      <c r="C37" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="D37" s="116"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="116"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="116"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="116"/>
-      <c r="M37" s="116"/>
-      <c r="N37" s="116"/>
-      <c r="O37" s="116"/>
-      <c r="P37" s="116"/>
-      <c r="Q37" s="116"/>
-      <c r="R37" s="116"/>
-      <c r="S37" s="116"/>
-      <c r="T37" s="116"/>
-      <c r="U37" s="116"/>
-      <c r="V37" s="116"/>
-      <c r="W37" s="116"/>
-      <c r="X37" s="116"/>
-      <c r="Y37" s="116"/>
-      <c r="Z37" s="116"/>
-      <c r="AA37" s="116"/>
-      <c r="AB37" s="116"/>
-      <c r="AC37" s="116"/>
-      <c r="AD37" s="116"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="D37" s="115"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="G37" s="115"/>
+      <c r="H37" s="115"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="115"/>
+      <c r="K37" s="115"/>
+      <c r="L37" s="115"/>
+      <c r="M37" s="115"/>
+      <c r="N37" s="115"/>
+      <c r="O37" s="115"/>
+      <c r="P37" s="115"/>
+      <c r="Q37" s="115"/>
+      <c r="R37" s="115"/>
+      <c r="S37" s="115"/>
+      <c r="T37" s="115"/>
+      <c r="U37" s="115"/>
+      <c r="V37" s="115"/>
+      <c r="W37" s="115"/>
+      <c r="X37" s="115"/>
+      <c r="Y37" s="115"/>
+      <c r="Z37" s="115"/>
+      <c r="AA37" s="115"/>
+      <c r="AB37" s="115"/>
+      <c r="AC37" s="115"/>
+      <c r="AD37" s="115"/>
       <c r="AE37" s="83"/>
       <c r="AF37" s="62"/>
       <c r="AG37" s="62"/>
@@ -4929,38 +4923,38 @@
         <f t="shared" si="0"/>
         <v>miap29th</v>
       </c>
-      <c r="B38" s="123"/>
-      <c r="C38" s="148" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
-      <c r="N38" s="149"/>
-      <c r="O38" s="149"/>
-      <c r="P38" s="149"/>
-      <c r="Q38" s="149"/>
-      <c r="R38" s="149"/>
-      <c r="S38" s="149"/>
-      <c r="T38" s="149"/>
-      <c r="U38" s="149"/>
-      <c r="V38" s="149"/>
-      <c r="W38" s="149"/>
-      <c r="X38" s="149"/>
-      <c r="Y38" s="149"/>
-      <c r="Z38" s="149"/>
-      <c r="AA38" s="149"/>
-      <c r="AB38" s="149"/>
-      <c r="AC38" s="149"/>
-      <c r="AD38" s="149"/>
-      <c r="AE38" s="149"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="117"/>
+      <c r="Q38" s="117"/>
+      <c r="R38" s="117"/>
+      <c r="S38" s="117"/>
+      <c r="T38" s="117"/>
+      <c r="U38" s="117"/>
+      <c r="V38" s="117"/>
+      <c r="W38" s="117"/>
+      <c r="X38" s="117"/>
+      <c r="Y38" s="117"/>
+      <c r="Z38" s="117"/>
+      <c r="AA38" s="117"/>
+      <c r="AB38" s="117"/>
+      <c r="AC38" s="117"/>
+      <c r="AD38" s="117"/>
+      <c r="AE38" s="117"/>
       <c r="AF38" s="83"/>
       <c r="AG38" s="62"/>
       <c r="AH38" s="62"/>
@@ -4976,39 +4970,39 @@
         <f t="shared" si="0"/>
         <v>miap30th</v>
       </c>
-      <c r="B39" s="123"/>
-      <c r="C39" s="148" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149"/>
-      <c r="F39" s="149"/>
-      <c r="G39" s="149"/>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
-      <c r="N39" s="149"/>
-      <c r="O39" s="149"/>
-      <c r="P39" s="149"/>
-      <c r="Q39" s="149"/>
-      <c r="R39" s="149"/>
-      <c r="S39" s="149"/>
-      <c r="T39" s="149"/>
-      <c r="U39" s="149"/>
-      <c r="V39" s="149"/>
-      <c r="W39" s="149"/>
-      <c r="X39" s="149"/>
-      <c r="Y39" s="149"/>
-      <c r="Z39" s="149"/>
-      <c r="AA39" s="149"/>
-      <c r="AB39" s="149"/>
-      <c r="AC39" s="149"/>
-      <c r="AD39" s="149"/>
-      <c r="AE39" s="149"/>
-      <c r="AF39" s="149"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="117"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="117"/>
+      <c r="S39" s="117"/>
+      <c r="T39" s="117"/>
+      <c r="U39" s="117"/>
+      <c r="V39" s="117"/>
+      <c r="W39" s="117"/>
+      <c r="X39" s="117"/>
+      <c r="Y39" s="117"/>
+      <c r="Z39" s="117"/>
+      <c r="AA39" s="117"/>
+      <c r="AB39" s="117"/>
+      <c r="AC39" s="117"/>
+      <c r="AD39" s="117"/>
+      <c r="AE39" s="117"/>
+      <c r="AF39" s="117"/>
       <c r="AG39" s="83"/>
       <c r="AH39" s="62"/>
       <c r="AI39" s="37" t="str">
@@ -5023,40 +5017,40 @@
         <f t="shared" si="0"/>
         <v>miap31st</v>
       </c>
-      <c r="B40" s="123"/>
-      <c r="C40" s="150" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="151"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="151"/>
-      <c r="G40" s="151"/>
-      <c r="H40" s="151"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="151"/>
-      <c r="K40" s="151"/>
-      <c r="L40" s="151"/>
-      <c r="M40" s="151"/>
-      <c r="N40" s="151"/>
-      <c r="O40" s="151"/>
-      <c r="P40" s="151"/>
-      <c r="Q40" s="151"/>
-      <c r="R40" s="151"/>
-      <c r="S40" s="151"/>
-      <c r="T40" s="151"/>
-      <c r="U40" s="151"/>
-      <c r="V40" s="151"/>
-      <c r="W40" s="151"/>
-      <c r="X40" s="151"/>
-      <c r="Y40" s="151"/>
-      <c r="Z40" s="151"/>
-      <c r="AA40" s="151"/>
-      <c r="AB40" s="151"/>
-      <c r="AC40" s="151"/>
-      <c r="AD40" s="151"/>
-      <c r="AE40" s="151"/>
-      <c r="AF40" s="151"/>
-      <c r="AG40" s="151"/>
+      <c r="B40" s="148"/>
+      <c r="C40" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="D40" s="119"/>
+      <c r="E40" s="119"/>
+      <c r="F40" s="119"/>
+      <c r="G40" s="119"/>
+      <c r="H40" s="119"/>
+      <c r="I40" s="119"/>
+      <c r="J40" s="119"/>
+      <c r="K40" s="119"/>
+      <c r="L40" s="119"/>
+      <c r="M40" s="119"/>
+      <c r="N40" s="119"/>
+      <c r="O40" s="119"/>
+      <c r="P40" s="119"/>
+      <c r="Q40" s="119"/>
+      <c r="R40" s="119"/>
+      <c r="S40" s="119"/>
+      <c r="T40" s="119"/>
+      <c r="U40" s="119"/>
+      <c r="V40" s="119"/>
+      <c r="W40" s="119"/>
+      <c r="X40" s="119"/>
+      <c r="Y40" s="119"/>
+      <c r="Z40" s="119"/>
+      <c r="AA40" s="119"/>
+      <c r="AB40" s="119"/>
+      <c r="AC40" s="119"/>
+      <c r="AD40" s="119"/>
+      <c r="AE40" s="119"/>
+      <c r="AF40" s="119"/>
+      <c r="AG40" s="119"/>
       <c r="AH40" s="83"/>
       <c r="AI40" s="37" t="str">
         <f ca="1">IFERROR(INDIRECT(ADDRESS(ROW(),SUMPRODUCT(MAX((AH40&lt;&gt;"")*COLUMN(AH40))))),"")</f>
@@ -5067,43 +5061,43 @@
     </row>
     <row r="41" spans="1:37" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="55" t="s">
-        <v>132</v>
-      </c>
-      <c r="B41" s="124"/>
-      <c r="C41" s="152" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="149"/>
+      <c r="C41" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="153"/>
-      <c r="E41" s="153"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
-      <c r="K41" s="153"/>
-      <c r="L41" s="153"/>
-      <c r="M41" s="146"/>
-      <c r="N41" s="146"/>
-      <c r="O41" s="146"/>
-      <c r="P41" s="146"/>
-      <c r="Q41" s="146"/>
-      <c r="R41" s="146"/>
-      <c r="S41" s="146"/>
-      <c r="T41" s="146"/>
-      <c r="U41" s="146"/>
-      <c r="V41" s="146"/>
-      <c r="W41" s="146"/>
-      <c r="X41" s="146"/>
-      <c r="Y41" s="146"/>
-      <c r="Z41" s="146"/>
-      <c r="AA41" s="146"/>
-      <c r="AB41" s="146"/>
-      <c r="AC41" s="146"/>
-      <c r="AD41" s="146"/>
-      <c r="AE41" s="146"/>
-      <c r="AF41" s="146"/>
-      <c r="AG41" s="146"/>
-      <c r="AH41" s="147"/>
+      <c r="D41" s="121"/>
+      <c r="E41" s="121"/>
+      <c r="F41" s="121"/>
+      <c r="G41" s="121"/>
+      <c r="H41" s="121"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="121"/>
+      <c r="K41" s="121"/>
+      <c r="L41" s="121"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
+      <c r="O41" s="112"/>
+      <c r="P41" s="112"/>
+      <c r="Q41" s="112"/>
+      <c r="R41" s="112"/>
+      <c r="S41" s="112"/>
+      <c r="T41" s="112"/>
+      <c r="U41" s="112"/>
+      <c r="V41" s="112"/>
+      <c r="W41" s="112"/>
+      <c r="X41" s="112"/>
+      <c r="Y41" s="112"/>
+      <c r="Z41" s="112"/>
+      <c r="AA41" s="112"/>
+      <c r="AB41" s="112"/>
+      <c r="AC41" s="112"/>
+      <c r="AD41" s="112"/>
+      <c r="AE41" s="112"/>
+      <c r="AF41" s="112"/>
+      <c r="AG41" s="112"/>
+      <c r="AH41" s="113"/>
       <c r="AI41" s="61" t="str">
         <f ca="1">IF(SUM(AI10:AI40)=0,"",SUM(AI10:AI40))</f>
         <v/>
@@ -5159,19 +5153,19 @@
     <row r="43" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="57"/>
       <c r="B43" s="16"/>
-      <c r="C43" s="142" t="s">
+      <c r="C43" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="D43" s="142"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="142"/>
-      <c r="I43" s="142"/>
-      <c r="J43" s="143" t="s">
+      <c r="D43" s="127"/>
+      <c r="E43" s="127"/>
+      <c r="F43" s="127"/>
+      <c r="G43" s="127"/>
+      <c r="H43" s="127"/>
+      <c r="I43" s="127"/>
+      <c r="J43" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="K43" s="143"/>
+      <c r="K43" s="128"/>
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
@@ -5202,17 +5196,17 @@
     <row r="44" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
       <c r="B44" s="16"/>
-      <c r="C44" s="140" t="s">
+      <c r="C44" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D44" s="140"/>
-      <c r="E44" s="140"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="141"/>
-      <c r="K44" s="141"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="126"/>
+      <c r="K44" s="126"/>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
@@ -5243,17 +5237,17 @@
     <row r="45" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="57"/>
       <c r="B45" s="16"/>
-      <c r="C45" s="140" t="s">
+      <c r="C45" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
-      <c r="J45" s="144"/>
-      <c r="K45" s="144"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="129"/>
+      <c r="K45" s="129"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -5284,17 +5278,17 @@
     <row r="46" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="57"/>
       <c r="B46" s="16"/>
-      <c r="C46" s="140" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="140"/>
-      <c r="E46" s="140"/>
-      <c r="F46" s="140"/>
-      <c r="G46" s="140"/>
-      <c r="H46" s="140"/>
-      <c r="I46" s="140"/>
-      <c r="J46" s="141"/>
-      <c r="K46" s="141"/>
+      <c r="C46" s="125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="126"/>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
@@ -5324,17 +5318,17 @@
     </row>
     <row r="47" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="57"/>
-      <c r="C47" s="145" t="s">
-        <v>143</v>
-      </c>
-      <c r="D47" s="145"/>
-      <c r="E47" s="145"/>
-      <c r="F47" s="145"/>
-      <c r="G47" s="145"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="141"/>
-      <c r="K47" s="141"/>
+      <c r="C47" s="130" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="130"/>
+      <c r="I47" s="130"/>
+      <c r="J47" s="126"/>
+      <c r="K47" s="126"/>
       <c r="L47" s="19"/>
       <c r="M47" s="19"/>
       <c r="N47" s="19"/>
@@ -5365,17 +5359,17 @@
     <row r="48" spans="1:37" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="57"/>
       <c r="B48" s="16"/>
-      <c r="C48" s="140" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="140"/>
-      <c r="E48" s="140"/>
-      <c r="F48" s="140"/>
-      <c r="G48" s="140"/>
-      <c r="H48" s="140"/>
-      <c r="I48" s="140"/>
-      <c r="J48" s="141"/>
-      <c r="K48" s="141"/>
+      <c r="C48" s="125" t="s">
+        <v>134</v>
+      </c>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="126"/>
+      <c r="K48" s="126"/>
       <c r="L48" s="19"/>
       <c r="M48" s="19"/>
       <c r="N48" s="19"/>
@@ -6242,18 +6236,39 @@
   </sheetData>
   <sheetProtection password="CC71" sheet="1" selectLockedCells="1"/>
   <mergeCells count="61">
-    <mergeCell ref="M41:AH41"/>
-    <mergeCell ref="C30:W30"/>
-    <mergeCell ref="C31:X31"/>
-    <mergeCell ref="C32:Y32"/>
-    <mergeCell ref="C33:Z33"/>
-    <mergeCell ref="C34:AA34"/>
-    <mergeCell ref="C38:AE38"/>
-    <mergeCell ref="C39:AF39"/>
-    <mergeCell ref="C40:AG40"/>
-    <mergeCell ref="C36:AC36"/>
-    <mergeCell ref="C41:L41"/>
-    <mergeCell ref="C37:AD37"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="C29:V29"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C27:T27"/>
+    <mergeCell ref="C28:U28"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="C19:L19"/>
+    <mergeCell ref="C23:P23"/>
+    <mergeCell ref="C24:Q24"/>
+    <mergeCell ref="C25:R25"/>
+    <mergeCell ref="C26:S26"/>
+    <mergeCell ref="B10:B41"/>
+    <mergeCell ref="B4:AH5"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C17:J17"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:I16"/>
+    <mergeCell ref="AI7:AI9"/>
     <mergeCell ref="C20:M20"/>
     <mergeCell ref="C21:N21"/>
     <mergeCell ref="C22:O22"/>
@@ -6270,39 +6285,18 @@
     <mergeCell ref="C47:I47"/>
     <mergeCell ref="J47:K47"/>
     <mergeCell ref="C35:AB35"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C17:J17"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:I16"/>
-    <mergeCell ref="AI7:AI9"/>
-    <mergeCell ref="C29:V29"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C27:T27"/>
-    <mergeCell ref="C28:U28"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="C19:L19"/>
-    <mergeCell ref="C23:P23"/>
-    <mergeCell ref="C24:Q24"/>
-    <mergeCell ref="C25:R25"/>
-    <mergeCell ref="C26:S26"/>
-    <mergeCell ref="B10:B41"/>
-    <mergeCell ref="B4:AH5"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="M41:AH41"/>
+    <mergeCell ref="C30:W30"/>
+    <mergeCell ref="C31:X31"/>
+    <mergeCell ref="C32:Y32"/>
+    <mergeCell ref="C33:Z33"/>
+    <mergeCell ref="C34:AA34"/>
+    <mergeCell ref="C38:AE38"/>
+    <mergeCell ref="C39:AF39"/>
+    <mergeCell ref="C40:AG40"/>
+    <mergeCell ref="C36:AC36"/>
+    <mergeCell ref="C41:L41"/>
+    <mergeCell ref="C37:AD37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG39 AE37 AC35 AA33 Y31 V28 U27 R24 P22 N20 L18 J16 H14 E10:E11 W28:AH29 X30:AH30 G13:AH13 I14:AH15 K16:AH17 M18:AH19 O20:AH21 Q22:AH23 S24:AH25 T26:U26 V26:AH27 D10 Z31:AH32 AB33:AH34 AD35:AH36 AF37:AH38 J44:K48 AH39:AH40 AJ10:AK40 F10:AH12 C7:AH9">
@@ -6324,11 +6318,11 @@
   </sheetPr>
   <dimension ref="A1:AQ68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="W16" sqref="W16"/>
+      <selection pane="bottomRight" activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -6393,152 +6387,152 @@
     </row>
     <row r="3" spans="1:37" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="56"/>
-      <c r="B3" s="119" t="s">
+      <c r="B3" s="145" t="s">
+        <v>109</v>
+      </c>
+      <c r="C3" s="143"/>
+      <c r="D3" s="146" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="143" t="s">
+        <v>110</v>
+      </c>
+      <c r="J3" s="143"/>
+      <c r="K3" s="143"/>
+      <c r="L3" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="112"/>
-      <c r="D3" s="120" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="112" t="s">
+      <c r="M3" s="144"/>
+      <c r="N3" s="144"/>
+      <c r="O3" s="144"/>
+      <c r="P3" s="144"/>
+      <c r="Q3" s="144"/>
+      <c r="R3" s="144"/>
+      <c r="S3" s="143" t="s">
+        <v>111</v>
+      </c>
+      <c r="T3" s="143"/>
+      <c r="U3" s="153">
+        <v>15288</v>
+      </c>
+      <c r="V3" s="153"/>
+      <c r="W3" s="153"/>
+      <c r="X3" s="47"/>
+      <c r="Y3" s="143" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z3" s="143"/>
+      <c r="AA3" s="143"/>
+      <c r="AB3" s="153">
+        <v>2021</v>
+      </c>
+      <c r="AC3" s="153"/>
+      <c r="AD3" s="143" t="s">
         <v>119</v>
       </c>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="118" t="s">
-        <v>128</v>
-      </c>
-      <c r="M3" s="118"/>
-      <c r="N3" s="118"/>
-      <c r="O3" s="118"/>
-      <c r="P3" s="118"/>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="118"/>
-      <c r="S3" s="112" t="s">
+      <c r="AE3" s="143"/>
+      <c r="AF3" s="143"/>
+      <c r="AG3" s="152" t="s">
         <v>120</v>
       </c>
-      <c r="T3" s="112"/>
-      <c r="U3" s="114">
-        <v>15288</v>
-      </c>
-      <c r="V3" s="114"/>
-      <c r="W3" s="114"/>
-      <c r="X3" s="47"/>
-      <c r="Y3" s="112" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z3" s="112"/>
-      <c r="AA3" s="112"/>
-      <c r="AB3" s="114">
-        <v>2021</v>
-      </c>
-      <c r="AC3" s="114"/>
-      <c r="AD3" s="112" t="s">
-        <v>129</v>
-      </c>
-      <c r="AE3" s="112"/>
-      <c r="AF3" s="112"/>
-      <c r="AG3" s="113" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH3" s="113"/>
+      <c r="AH3" s="152"/>
       <c r="AI3" s="48"/>
       <c r="AJ3" s="48"/>
       <c r="AK3" s="44"/>
     </row>
     <row r="4" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="125" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="126"/>
-      <c r="I4" s="126"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="126"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="126"/>
-      <c r="N4" s="126"/>
-      <c r="O4" s="126"/>
-      <c r="P4" s="126"/>
-      <c r="Q4" s="126"/>
-      <c r="R4" s="126"/>
-      <c r="S4" s="126"/>
-      <c r="T4" s="126"/>
-      <c r="U4" s="126"/>
-      <c r="V4" s="126"/>
-      <c r="W4" s="126"/>
-      <c r="X4" s="126"/>
-      <c r="Y4" s="126"/>
-      <c r="Z4" s="126"/>
-      <c r="AA4" s="126"/>
-      <c r="AB4" s="126"/>
-      <c r="AC4" s="126"/>
-      <c r="AD4" s="126"/>
-      <c r="AE4" s="126"/>
-      <c r="AF4" s="126"/>
-      <c r="AG4" s="126"/>
-      <c r="AH4" s="126"/>
-      <c r="AI4" s="133" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ4" s="131" t="s">
+      <c r="B4" s="150" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+      <c r="AA4" s="151"/>
+      <c r="AB4" s="151"/>
+      <c r="AC4" s="151"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="151"/>
+      <c r="AF4" s="151"/>
+      <c r="AG4" s="151"/>
+      <c r="AH4" s="151"/>
+      <c r="AI4" s="137" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ4" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="132"/>
+      <c r="AK4" s="136"/>
     </row>
     <row r="5" spans="1:37" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="125"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="126"/>
-      <c r="I5" s="126"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="126"/>
-      <c r="M5" s="126"/>
-      <c r="N5" s="126"/>
-      <c r="O5" s="126"/>
-      <c r="P5" s="126"/>
-      <c r="Q5" s="126"/>
-      <c r="R5" s="126"/>
-      <c r="S5" s="126"/>
-      <c r="T5" s="126"/>
-      <c r="U5" s="126"/>
-      <c r="V5" s="126"/>
-      <c r="W5" s="126"/>
-      <c r="X5" s="126"/>
-      <c r="Y5" s="126"/>
-      <c r="Z5" s="126"/>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="126"/>
-      <c r="AC5" s="126"/>
-      <c r="AD5" s="126"/>
-      <c r="AE5" s="126"/>
-      <c r="AF5" s="126"/>
-      <c r="AG5" s="126"/>
-      <c r="AH5" s="126"/>
-      <c r="AI5" s="134"/>
-      <c r="AJ5" s="127" t="s">
+      <c r="B5" s="150"/>
+      <c r="C5" s="151"/>
+      <c r="D5" s="151"/>
+      <c r="E5" s="151"/>
+      <c r="F5" s="151"/>
+      <c r="G5" s="151"/>
+      <c r="H5" s="151"/>
+      <c r="I5" s="151"/>
+      <c r="J5" s="151"/>
+      <c r="K5" s="151"/>
+      <c r="L5" s="151"/>
+      <c r="M5" s="151"/>
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="151"/>
+      <c r="S5" s="151"/>
+      <c r="T5" s="151"/>
+      <c r="U5" s="151"/>
+      <c r="V5" s="151"/>
+      <c r="W5" s="151"/>
+      <c r="X5" s="151"/>
+      <c r="Y5" s="151"/>
+      <c r="Z5" s="151"/>
+      <c r="AA5" s="151"/>
+      <c r="AB5" s="151"/>
+      <c r="AC5" s="151"/>
+      <c r="AD5" s="151"/>
+      <c r="AE5" s="151"/>
+      <c r="AF5" s="151"/>
+      <c r="AG5" s="151"/>
+      <c r="AH5" s="151"/>
+      <c r="AI5" s="138"/>
+      <c r="AJ5" s="131" t="s">
         <v>10</v>
       </c>
-      <c r="AK5" s="129" t="s">
+      <c r="AK5" s="133" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="55" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B6" s="74" t="s">
         <v>1</v>
@@ -6637,16 +6631,16 @@
       <c r="AH6" s="58">
         <v>31</v>
       </c>
-      <c r="AI6" s="135"/>
-      <c r="AJ6" s="128"/>
-      <c r="AK6" s="130"/>
+      <c r="AI6" s="139"/>
+      <c r="AJ6" s="132"/>
+      <c r="AK6" s="134"/>
     </row>
     <row r="7" spans="1:37" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="55">
         <v>1</v>
       </c>
       <c r="B7" s="75" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="C7" s="50"/>
       <c r="D7" s="51"/>
@@ -6680,7 +6674,7 @@
       <c r="AF7" s="29"/>
       <c r="AG7" s="29"/>
       <c r="AH7" s="36"/>
-      <c r="AI7" s="136"/>
+      <c r="AI7" s="140"/>
       <c r="AJ7" s="41"/>
       <c r="AK7" s="42"/>
     </row>
@@ -6689,7 +6683,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C8" s="23"/>
       <c r="D8" s="26"/>
@@ -6723,7 +6717,7 @@
       <c r="AF8" s="25"/>
       <c r="AG8" s="25"/>
       <c r="AH8" s="34"/>
-      <c r="AI8" s="137"/>
+      <c r="AI8" s="141"/>
       <c r="AJ8" s="39"/>
       <c r="AK8" s="38"/>
     </row>
@@ -6731,11 +6725,11 @@
       <c r="A9" s="55">
         <v>4</v>
       </c>
-      <c r="B9" s="122" t="s">
-        <v>125</v>
+      <c r="B9" s="147" t="s">
+        <v>115</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="83"/>
       <c r="E9" s="27"/>
@@ -6779,11 +6773,11 @@
       <c r="A10" s="55">
         <v>5</v>
       </c>
-      <c r="B10" s="123"/>
-      <c r="C10" s="115" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="117"/>
+      <c r="B10" s="148"/>
+      <c r="C10" s="114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="122"/>
       <c r="E10" s="83"/>
       <c r="F10" s="28"/>
       <c r="G10" s="62"/>
@@ -6825,12 +6819,12 @@
       <c r="A11" s="55">
         <v>6</v>
       </c>
-      <c r="B11" s="123"/>
-      <c r="C11" s="115" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117"/>
+      <c r="B11" s="148"/>
+      <c r="C11" s="114" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="115"/>
+      <c r="E11" s="122"/>
       <c r="F11" s="83"/>
       <c r="G11" s="109"/>
       <c r="H11" s="62"/>
@@ -6871,13 +6865,13 @@
       <c r="A12" s="55">
         <v>7</v>
       </c>
-      <c r="B12" s="123"/>
-      <c r="C12" s="115" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="116"/>
-      <c r="E12" s="116"/>
-      <c r="F12" s="117"/>
+      <c r="B12" s="148"/>
+      <c r="C12" s="114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="122"/>
       <c r="G12" s="83"/>
       <c r="H12" s="109"/>
       <c r="I12" s="62"/>
@@ -6917,14 +6911,14 @@
       <c r="A13" s="55">
         <v>8</v>
       </c>
-      <c r="B13" s="123"/>
-      <c r="C13" s="115" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="116"/>
-      <c r="E13" s="116"/>
-      <c r="F13" s="116"/>
-      <c r="G13" s="117"/>
+      <c r="B13" s="148"/>
+      <c r="C13" s="114" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="122"/>
       <c r="H13" s="83"/>
       <c r="I13" s="109"/>
       <c r="J13" s="62"/>
@@ -6963,15 +6957,15 @@
       <c r="A14" s="55">
         <v>9</v>
       </c>
-      <c r="B14" s="123"/>
-      <c r="C14" s="115" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117"/>
+      <c r="B14" s="148"/>
+      <c r="C14" s="114" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="122"/>
       <c r="I14" s="83"/>
       <c r="J14" s="109"/>
       <c r="K14" s="62"/>
@@ -7009,16 +7003,16 @@
       <c r="A15" s="55">
         <v>10</v>
       </c>
-      <c r="B15" s="123"/>
-      <c r="C15" s="115" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="116"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="117"/>
+      <c r="B15" s="148"/>
+      <c r="C15" s="114" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="122"/>
       <c r="J15" s="83"/>
       <c r="K15" s="109"/>
       <c r="L15" s="62"/>
@@ -7055,17 +7049,17 @@
       <c r="A16" s="55">
         <v>11</v>
       </c>
-      <c r="B16" s="123"/>
-      <c r="C16" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="116"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="117"/>
+      <c r="B16" s="148"/>
+      <c r="C16" s="114" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="122"/>
       <c r="K16" s="83"/>
       <c r="L16" s="109"/>
       <c r="M16" s="62"/>
@@ -7101,18 +7095,18 @@
       <c r="A17" s="55">
         <v>12</v>
       </c>
-      <c r="B17" s="123"/>
-      <c r="C17" s="115" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="116"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="117"/>
+      <c r="B17" s="148"/>
+      <c r="C17" s="114" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="122"/>
       <c r="L17" s="83"/>
       <c r="M17" s="109"/>
       <c r="N17" s="62"/>
@@ -7147,19 +7141,19 @@
       <c r="A18" s="55">
         <v>13</v>
       </c>
-      <c r="B18" s="123"/>
-      <c r="C18" s="115" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
+      <c r="B18" s="148"/>
+      <c r="C18" s="114" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="122"/>
       <c r="M18" s="83"/>
       <c r="N18" s="109"/>
       <c r="O18" s="62"/>
@@ -7193,20 +7187,20 @@
       <c r="A19" s="55">
         <v>14</v>
       </c>
-      <c r="B19" s="123"/>
-      <c r="C19" s="115" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="116"/>
-      <c r="E19" s="116"/>
-      <c r="F19" s="116"/>
-      <c r="G19" s="116"/>
-      <c r="H19" s="116"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="116"/>
-      <c r="M19" s="117"/>
+      <c r="B19" s="148"/>
+      <c r="C19" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="122"/>
       <c r="N19" s="83"/>
       <c r="O19" s="109"/>
       <c r="P19" s="62"/>
@@ -7239,21 +7233,21 @@
       <c r="A20" s="55">
         <v>15</v>
       </c>
-      <c r="B20" s="123"/>
-      <c r="C20" s="115" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="116"/>
-      <c r="E20" s="116"/>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="116"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="116"/>
-      <c r="M20" s="116"/>
-      <c r="N20" s="121"/>
+      <c r="B20" s="148"/>
+      <c r="C20" s="114" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="123"/>
       <c r="O20" s="83"/>
       <c r="P20" s="109"/>
       <c r="Q20" s="62"/>
@@ -7285,22 +7279,22 @@
       <c r="A21" s="55">
         <v>16</v>
       </c>
-      <c r="B21" s="123"/>
-      <c r="C21" s="115" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="116"/>
-      <c r="E21" s="116"/>
-      <c r="F21" s="116"/>
-      <c r="G21" s="116"/>
-      <c r="H21" s="116"/>
-      <c r="I21" s="116"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="116"/>
-      <c r="M21" s="116"/>
-      <c r="N21" s="116"/>
-      <c r="O21" s="139"/>
+      <c r="B21" s="148"/>
+      <c r="C21" s="114" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
+      <c r="O21" s="124"/>
       <c r="P21" s="83"/>
       <c r="Q21" s="109"/>
       <c r="R21" s="62"/>
@@ -7331,23 +7325,23 @@
       <c r="A22" s="55">
         <v>17</v>
       </c>
-      <c r="B22" s="123"/>
-      <c r="C22" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="116"/>
-      <c r="M22" s="116"/>
-      <c r="N22" s="116"/>
-      <c r="O22" s="116"/>
-      <c r="P22" s="121"/>
+      <c r="B22" s="148"/>
+      <c r="C22" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="123"/>
       <c r="Q22" s="83"/>
       <c r="R22" s="109"/>
       <c r="S22" s="62"/>
@@ -7377,24 +7371,24 @@
       <c r="A23" s="55">
         <v>18</v>
       </c>
-      <c r="B23" s="123"/>
-      <c r="C23" s="115" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="116"/>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="116"/>
-      <c r="M23" s="116"/>
-      <c r="N23" s="116"/>
-      <c r="O23" s="116"/>
-      <c r="P23" s="116"/>
-      <c r="Q23" s="116"/>
+      <c r="B23" s="148"/>
+      <c r="C23" s="114" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="115"/>
+      <c r="Q23" s="115"/>
       <c r="R23" s="83"/>
       <c r="S23" s="109"/>
       <c r="T23" s="62"/>
@@ -7423,25 +7417,25 @@
       <c r="A24" s="55">
         <v>19</v>
       </c>
-      <c r="B24" s="123"/>
-      <c r="C24" s="115" t="s">
-        <v>41</v>
-      </c>
-      <c r="D24" s="116"/>
-      <c r="E24" s="116"/>
-      <c r="F24" s="116"/>
-      <c r="G24" s="116"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="116"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="116"/>
-      <c r="M24" s="116"/>
-      <c r="N24" s="116"/>
-      <c r="O24" s="116"/>
-      <c r="P24" s="116"/>
-      <c r="Q24" s="116"/>
-      <c r="R24" s="116"/>
+      <c r="B24" s="148"/>
+      <c r="C24" s="114" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="115"/>
       <c r="S24" s="83"/>
       <c r="T24" s="109"/>
       <c r="U24" s="62"/>
@@ -7469,26 +7463,26 @@
       <c r="A25" s="55">
         <v>20</v>
       </c>
-      <c r="B25" s="123"/>
-      <c r="C25" s="115" t="s">
-        <v>42</v>
-      </c>
-      <c r="D25" s="116"/>
-      <c r="E25" s="116"/>
-      <c r="F25" s="116"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="116"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="116"/>
-      <c r="M25" s="116"/>
-      <c r="N25" s="116"/>
-      <c r="O25" s="116"/>
-      <c r="P25" s="116"/>
-      <c r="Q25" s="116"/>
-      <c r="R25" s="116"/>
-      <c r="S25" s="116"/>
+      <c r="B25" s="148"/>
+      <c r="C25" s="114" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="115"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="115"/>
+      <c r="Q25" s="115"/>
+      <c r="R25" s="115"/>
+      <c r="S25" s="115"/>
       <c r="T25" s="83"/>
       <c r="U25" s="109"/>
       <c r="V25" s="62"/>
@@ -7515,27 +7509,27 @@
       <c r="A26" s="55">
         <v>21</v>
       </c>
-      <c r="B26" s="123"/>
-      <c r="C26" s="115" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" s="116"/>
-      <c r="E26" s="116"/>
-      <c r="F26" s="116"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="116"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="116"/>
-      <c r="M26" s="116"/>
-      <c r="N26" s="116"/>
-      <c r="O26" s="116"/>
-      <c r="P26" s="116"/>
-      <c r="Q26" s="116"/>
-      <c r="R26" s="116"/>
-      <c r="S26" s="116"/>
-      <c r="T26" s="116"/>
+      <c r="B26" s="148"/>
+      <c r="C26" s="114" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
+      <c r="O26" s="115"/>
+      <c r="P26" s="115"/>
+      <c r="Q26" s="115"/>
+      <c r="R26" s="115"/>
+      <c r="S26" s="115"/>
+      <c r="T26" s="115"/>
       <c r="U26" s="83"/>
       <c r="V26" s="109"/>
       <c r="W26" s="62"/>
@@ -7561,28 +7555,28 @@
       <c r="A27" s="55">
         <v>22</v>
       </c>
-      <c r="B27" s="123"/>
-      <c r="C27" s="115" t="s">
-        <v>44</v>
-      </c>
-      <c r="D27" s="116"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="116"/>
-      <c r="Q27" s="116"/>
-      <c r="R27" s="116"/>
-      <c r="S27" s="116"/>
-      <c r="T27" s="116"/>
-      <c r="U27" s="116"/>
+      <c r="B27" s="148"/>
+      <c r="C27" s="114" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
+      <c r="O27" s="115"/>
+      <c r="P27" s="115"/>
+      <c r="Q27" s="115"/>
+      <c r="R27" s="115"/>
+      <c r="S27" s="115"/>
+      <c r="T27" s="115"/>
+      <c r="U27" s="115"/>
       <c r="V27" s="83"/>
       <c r="W27" s="109"/>
       <c r="X27" s="62"/>
@@ -7607,29 +7601,29 @@
       <c r="A28" s="55">
         <v>23</v>
       </c>
-      <c r="B28" s="123"/>
-      <c r="C28" s="115" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="116"/>
-      <c r="Q28" s="116"/>
-      <c r="R28" s="116"/>
-      <c r="S28" s="116"/>
-      <c r="T28" s="116"/>
-      <c r="U28" s="116"/>
-      <c r="V28" s="116"/>
+      <c r="B28" s="148"/>
+      <c r="C28" s="114" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
+      <c r="O28" s="115"/>
+      <c r="P28" s="115"/>
+      <c r="Q28" s="115"/>
+      <c r="R28" s="115"/>
+      <c r="S28" s="115"/>
+      <c r="T28" s="115"/>
+      <c r="U28" s="115"/>
+      <c r="V28" s="115"/>
       <c r="W28" s="83"/>
       <c r="X28" s="109"/>
       <c r="Y28" s="62"/>
@@ -7653,30 +7647,30 @@
       <c r="A29" s="55">
         <v>24</v>
       </c>
-      <c r="B29" s="123"/>
-      <c r="C29" s="115" t="s">
-        <v>46</v>
-      </c>
-      <c r="D29" s="116"/>
-      <c r="E29" s="116"/>
-      <c r="F29" s="116"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="116"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="116"/>
-      <c r="M29" s="116"/>
-      <c r="N29" s="116"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="116"/>
-      <c r="Q29" s="116"/>
-      <c r="R29" s="116"/>
-      <c r="S29" s="116"/>
-      <c r="T29" s="116"/>
-      <c r="U29" s="116"/>
-      <c r="V29" s="116"/>
-      <c r="W29" s="116"/>
+      <c r="B29" s="148"/>
+      <c r="C29" s="114" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
+      <c r="O29" s="115"/>
+      <c r="P29" s="115"/>
+      <c r="Q29" s="115"/>
+      <c r="R29" s="115"/>
+      <c r="S29" s="115"/>
+      <c r="T29" s="115"/>
+      <c r="U29" s="115"/>
+      <c r="V29" s="115"/>
+      <c r="W29" s="115"/>
       <c r="X29" s="83"/>
       <c r="Y29" s="109"/>
       <c r="Z29" s="62"/>
@@ -7699,31 +7693,31 @@
       <c r="A30" s="55">
         <v>25</v>
       </c>
-      <c r="B30" s="123"/>
-      <c r="C30" s="115" t="s">
-        <v>47</v>
-      </c>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="116"/>
-      <c r="Q30" s="116"/>
-      <c r="R30" s="116"/>
-      <c r="S30" s="116"/>
-      <c r="T30" s="116"/>
-      <c r="U30" s="116"/>
-      <c r="V30" s="116"/>
-      <c r="W30" s="116"/>
-      <c r="X30" s="116"/>
+      <c r="B30" s="148"/>
+      <c r="C30" s="114" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
+      <c r="O30" s="115"/>
+      <c r="P30" s="115"/>
+      <c r="Q30" s="115"/>
+      <c r="R30" s="115"/>
+      <c r="S30" s="115"/>
+      <c r="T30" s="115"/>
+      <c r="U30" s="115"/>
+      <c r="V30" s="115"/>
+      <c r="W30" s="115"/>
+      <c r="X30" s="115"/>
       <c r="Y30" s="83"/>
       <c r="Z30" s="109"/>
       <c r="AA30" s="62"/>
@@ -7745,32 +7739,32 @@
       <c r="A31" s="55">
         <v>26</v>
       </c>
-      <c r="B31" s="123"/>
-      <c r="C31" s="115" t="s">
-        <v>48</v>
-      </c>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="116"/>
-      <c r="Q31" s="116"/>
-      <c r="R31" s="116"/>
-      <c r="S31" s="116"/>
-      <c r="T31" s="116"/>
-      <c r="U31" s="116"/>
-      <c r="V31" s="116"/>
-      <c r="W31" s="116"/>
-      <c r="X31" s="116"/>
-      <c r="Y31" s="116"/>
+      <c r="B31" s="148"/>
+      <c r="C31" s="114" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" s="115"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="115"/>
+      <c r="H31" s="115"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="115"/>
+      <c r="L31" s="115"/>
+      <c r="M31" s="115"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="115"/>
+      <c r="P31" s="115"/>
+      <c r="Q31" s="115"/>
+      <c r="R31" s="115"/>
+      <c r="S31" s="115"/>
+      <c r="T31" s="115"/>
+      <c r="U31" s="115"/>
+      <c r="V31" s="115"/>
+      <c r="W31" s="115"/>
+      <c r="X31" s="115"/>
+      <c r="Y31" s="115"/>
       <c r="Z31" s="83"/>
       <c r="AA31" s="109"/>
       <c r="AB31" s="62"/>
@@ -7791,33 +7785,33 @@
       <c r="A32" s="55">
         <v>27</v>
       </c>
-      <c r="B32" s="123"/>
-      <c r="C32" s="115" t="s">
-        <v>49</v>
-      </c>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="116"/>
-      <c r="Q32" s="116"/>
-      <c r="R32" s="116"/>
-      <c r="S32" s="116"/>
-      <c r="T32" s="116"/>
-      <c r="U32" s="116"/>
-      <c r="V32" s="116"/>
-      <c r="W32" s="116"/>
-      <c r="X32" s="116"/>
-      <c r="Y32" s="116"/>
-      <c r="Z32" s="116"/>
+      <c r="B32" s="148"/>
+      <c r="C32" s="114" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="115"/>
+      <c r="E32" s="115"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="115"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="115"/>
+      <c r="L32" s="115"/>
+      <c r="M32" s="115"/>
+      <c r="N32" s="115"/>
+      <c r="O32" s="115"/>
+      <c r="P32" s="115"/>
+      <c r="Q32" s="115"/>
+      <c r="R32" s="115"/>
+      <c r="S32" s="115"/>
+      <c r="T32" s="115"/>
+      <c r="U32" s="115"/>
+      <c r="V32" s="115"/>
+      <c r="W32" s="115"/>
+      <c r="X32" s="115"/>
+      <c r="Y32" s="115"/>
+      <c r="Z32" s="115"/>
       <c r="AA32" s="83"/>
       <c r="AB32" s="109"/>
       <c r="AC32" s="62"/>
@@ -7837,34 +7831,34 @@
       <c r="A33" s="55">
         <v>28</v>
       </c>
-      <c r="B33" s="123"/>
-      <c r="C33" s="115" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="116"/>
-      <c r="Q33" s="116"/>
-      <c r="R33" s="116"/>
-      <c r="S33" s="116"/>
-      <c r="T33" s="116"/>
-      <c r="U33" s="116"/>
-      <c r="V33" s="116"/>
-      <c r="W33" s="116"/>
-      <c r="X33" s="116"/>
-      <c r="Y33" s="116"/>
-      <c r="Z33" s="116"/>
-      <c r="AA33" s="116"/>
+      <c r="B33" s="148"/>
+      <c r="C33" s="114" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="115"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="115"/>
+      <c r="H33" s="115"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="115"/>
+      <c r="K33" s="115"/>
+      <c r="L33" s="115"/>
+      <c r="M33" s="115"/>
+      <c r="N33" s="115"/>
+      <c r="O33" s="115"/>
+      <c r="P33" s="115"/>
+      <c r="Q33" s="115"/>
+      <c r="R33" s="115"/>
+      <c r="S33" s="115"/>
+      <c r="T33" s="115"/>
+      <c r="U33" s="115"/>
+      <c r="V33" s="115"/>
+      <c r="W33" s="115"/>
+      <c r="X33" s="115"/>
+      <c r="Y33" s="115"/>
+      <c r="Z33" s="115"/>
+      <c r="AA33" s="115"/>
       <c r="AB33" s="83"/>
       <c r="AC33" s="109"/>
       <c r="AD33" s="62"/>
@@ -7883,35 +7877,35 @@
       <c r="A34" s="55">
         <v>29</v>
       </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="115" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="116"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="116"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="116"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="116"/>
-      <c r="K34" s="116"/>
-      <c r="L34" s="116"/>
-      <c r="M34" s="116"/>
-      <c r="N34" s="116"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="116"/>
-      <c r="Q34" s="116"/>
-      <c r="R34" s="116"/>
-      <c r="S34" s="116"/>
-      <c r="T34" s="116"/>
-      <c r="U34" s="116"/>
-      <c r="V34" s="116"/>
-      <c r="W34" s="116"/>
-      <c r="X34" s="116"/>
-      <c r="Y34" s="116"/>
-      <c r="Z34" s="116"/>
-      <c r="AA34" s="116"/>
-      <c r="AB34" s="116"/>
+      <c r="B34" s="148"/>
+      <c r="C34" s="114" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="115"/>
+      <c r="E34" s="115"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="115"/>
+      <c r="J34" s="115"/>
+      <c r="K34" s="115"/>
+      <c r="L34" s="115"/>
+      <c r="M34" s="115"/>
+      <c r="N34" s="115"/>
+      <c r="O34" s="115"/>
+      <c r="P34" s="115"/>
+      <c r="Q34" s="115"/>
+      <c r="R34" s="115"/>
+      <c r="S34" s="115"/>
+      <c r="T34" s="115"/>
+      <c r="U34" s="115"/>
+      <c r="V34" s="115"/>
+      <c r="W34" s="115"/>
+      <c r="X34" s="115"/>
+      <c r="Y34" s="115"/>
+      <c r="Z34" s="115"/>
+      <c r="AA34" s="115"/>
+      <c r="AB34" s="115"/>
       <c r="AC34" s="83"/>
       <c r="AD34" s="109"/>
       <c r="AE34" s="62"/>
@@ -7929,36 +7923,36 @@
       <c r="A35" s="55">
         <v>30</v>
       </c>
-      <c r="B35" s="123"/>
-      <c r="C35" s="115" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="116"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="116"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="116"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="116"/>
-      <c r="M35" s="116"/>
-      <c r="N35" s="116"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="116"/>
-      <c r="Q35" s="116"/>
-      <c r="R35" s="116"/>
-      <c r="S35" s="116"/>
-      <c r="T35" s="116"/>
-      <c r="U35" s="116"/>
-      <c r="V35" s="116"/>
-      <c r="W35" s="116"/>
-      <c r="X35" s="116"/>
-      <c r="Y35" s="116"/>
-      <c r="Z35" s="116"/>
-      <c r="AA35" s="116"/>
-      <c r="AB35" s="116"/>
-      <c r="AC35" s="116"/>
+      <c r="B35" s="148"/>
+      <c r="C35" s="114" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="115"/>
+      <c r="E35" s="115"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="115"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="115"/>
+      <c r="L35" s="115"/>
+      <c r="M35" s="115"/>
+      <c r="N35" s="115"/>
+      <c r="O35" s="115"/>
+      <c r="P35" s="115"/>
+      <c r="Q35" s="115"/>
+      <c r="R35" s="115"/>
+      <c r="S35" s="115"/>
+      <c r="T35" s="115"/>
+      <c r="U35" s="115"/>
+      <c r="V35" s="115"/>
+      <c r="W35" s="115"/>
+      <c r="X35" s="115"/>
+      <c r="Y35" s="115"/>
+      <c r="Z35" s="115"/>
+      <c r="AA35" s="115"/>
+      <c r="AB35" s="115"/>
+      <c r="AC35" s="115"/>
       <c r="AD35" s="83"/>
       <c r="AE35" s="109"/>
       <c r="AF35" s="62"/>
@@ -7975,37 +7969,37 @@
       <c r="A36" s="55">
         <v>31</v>
       </c>
-      <c r="B36" s="123"/>
-      <c r="C36" s="115" t="s">
-        <v>53</v>
-      </c>
-      <c r="D36" s="116"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="116"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="116"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="116"/>
-      <c r="K36" s="116"/>
-      <c r="L36" s="116"/>
-      <c r="M36" s="116"/>
-      <c r="N36" s="116"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="116"/>
-      <c r="Q36" s="116"/>
-      <c r="R36" s="116"/>
-      <c r="S36" s="116"/>
-      <c r="T36" s="116"/>
-      <c r="U36" s="116"/>
-      <c r="V36" s="116"/>
-      <c r="W36" s="116"/>
-      <c r="X36" s="116"/>
-      <c r="Y36" s="116"/>
-      <c r="Z36" s="116"/>
-      <c r="AA36" s="116"/>
-      <c r="AB36" s="116"/>
-      <c r="AC36" s="116"/>
-      <c r="AD36" s="116"/>
+      <c r="B36" s="148"/>
+      <c r="C36" s="114" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="115"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="115"/>
+      <c r="G36" s="115"/>
+      <c r="H36" s="115"/>
+      <c r="I36" s="115"/>
+      <c r="J36" s="115"/>
+      <c r="K36" s="115"/>
+      <c r="L36" s="115"/>
+      <c r="M36" s="115"/>
+      <c r="N36" s="115"/>
+      <c r="O36" s="115"/>
+      <c r="P36" s="115"/>
+      <c r="Q36" s="115"/>
+      <c r="R36" s="115"/>
+      <c r="S36" s="115"/>
+      <c r="T36" s="115"/>
+      <c r="U36" s="115"/>
+      <c r="V36" s="115"/>
+      <c r="W36" s="115"/>
+      <c r="X36" s="115"/>
+      <c r="Y36" s="115"/>
+      <c r="Z36" s="115"/>
+      <c r="AA36" s="115"/>
+      <c r="AB36" s="115"/>
+      <c r="AC36" s="115"/>
+      <c r="AD36" s="115"/>
       <c r="AE36" s="83"/>
       <c r="AF36" s="109"/>
       <c r="AG36" s="62"/>
@@ -8021,38 +8015,38 @@
       <c r="A37" s="55">
         <v>32</v>
       </c>
-      <c r="B37" s="123"/>
-      <c r="C37" s="148" t="s">
-        <v>54</v>
-      </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149"/>
-      <c r="F37" s="149"/>
-      <c r="G37" s="149"/>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-      <c r="N37" s="149"/>
-      <c r="O37" s="149"/>
-      <c r="P37" s="149"/>
-      <c r="Q37" s="149"/>
-      <c r="R37" s="149"/>
-      <c r="S37" s="149"/>
-      <c r="T37" s="149"/>
-      <c r="U37" s="149"/>
-      <c r="V37" s="149"/>
-      <c r="W37" s="149"/>
-      <c r="X37" s="149"/>
-      <c r="Y37" s="149"/>
-      <c r="Z37" s="149"/>
-      <c r="AA37" s="149"/>
-      <c r="AB37" s="149"/>
-      <c r="AC37" s="149"/>
-      <c r="AD37" s="149"/>
-      <c r="AE37" s="149"/>
+      <c r="B37" s="148"/>
+      <c r="C37" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="117"/>
+      <c r="N37" s="117"/>
+      <c r="O37" s="117"/>
+      <c r="P37" s="117"/>
+      <c r="Q37" s="117"/>
+      <c r="R37" s="117"/>
+      <c r="S37" s="117"/>
+      <c r="T37" s="117"/>
+      <c r="U37" s="117"/>
+      <c r="V37" s="117"/>
+      <c r="W37" s="117"/>
+      <c r="X37" s="117"/>
+      <c r="Y37" s="117"/>
+      <c r="Z37" s="117"/>
+      <c r="AA37" s="117"/>
+      <c r="AB37" s="117"/>
+      <c r="AC37" s="117"/>
+      <c r="AD37" s="117"/>
+      <c r="AE37" s="117"/>
       <c r="AF37" s="83"/>
       <c r="AG37" s="109"/>
       <c r="AH37" s="62"/>
@@ -8067,39 +8061,39 @@
       <c r="A38" s="55">
         <v>33</v>
       </c>
-      <c r="B38" s="123"/>
-      <c r="C38" s="148" t="s">
-        <v>55</v>
-      </c>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
-      <c r="N38" s="149"/>
-      <c r="O38" s="149"/>
-      <c r="P38" s="149"/>
-      <c r="Q38" s="149"/>
-      <c r="R38" s="149"/>
-      <c r="S38" s="149"/>
-      <c r="T38" s="149"/>
-      <c r="U38" s="149"/>
-      <c r="V38" s="149"/>
-      <c r="W38" s="149"/>
-      <c r="X38" s="149"/>
-      <c r="Y38" s="149"/>
-      <c r="Z38" s="149"/>
-      <c r="AA38" s="149"/>
-      <c r="AB38" s="149"/>
-      <c r="AC38" s="149"/>
-      <c r="AD38" s="149"/>
-      <c r="AE38" s="149"/>
-      <c r="AF38" s="149"/>
+      <c r="B38" s="148"/>
+      <c r="C38" s="116" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="117"/>
+      <c r="Q38" s="117"/>
+      <c r="R38" s="117"/>
+      <c r="S38" s="117"/>
+      <c r="T38" s="117"/>
+      <c r="U38" s="117"/>
+      <c r="V38" s="117"/>
+      <c r="W38" s="117"/>
+      <c r="X38" s="117"/>
+      <c r="Y38" s="117"/>
+      <c r="Z38" s="117"/>
+      <c r="AA38" s="117"/>
+      <c r="AB38" s="117"/>
+      <c r="AC38" s="117"/>
+      <c r="AD38" s="117"/>
+      <c r="AE38" s="117"/>
+      <c r="AF38" s="117"/>
       <c r="AG38" s="83"/>
       <c r="AH38" s="109"/>
       <c r="AI38" s="37" t="str">
@@ -8113,40 +8107,40 @@
       <c r="A39" s="55">
         <v>34</v>
       </c>
-      <c r="B39" s="123"/>
-      <c r="C39" s="150" t="s">
-        <v>56</v>
-      </c>
-      <c r="D39" s="151"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="151"/>
-      <c r="G39" s="151"/>
-      <c r="H39" s="151"/>
-      <c r="I39" s="151"/>
-      <c r="J39" s="151"/>
-      <c r="K39" s="151"/>
-      <c r="L39" s="151"/>
-      <c r="M39" s="151"/>
-      <c r="N39" s="151"/>
-      <c r="O39" s="151"/>
-      <c r="P39" s="151"/>
-      <c r="Q39" s="151"/>
-      <c r="R39" s="151"/>
-      <c r="S39" s="151"/>
-      <c r="T39" s="151"/>
-      <c r="U39" s="151"/>
-      <c r="V39" s="151"/>
-      <c r="W39" s="151"/>
-      <c r="X39" s="151"/>
-      <c r="Y39" s="151"/>
-      <c r="Z39" s="151"/>
-      <c r="AA39" s="151"/>
-      <c r="AB39" s="151"/>
-      <c r="AC39" s="151"/>
-      <c r="AD39" s="151"/>
-      <c r="AE39" s="151"/>
-      <c r="AF39" s="151"/>
-      <c r="AG39" s="151"/>
+      <c r="B39" s="148"/>
+      <c r="C39" s="118" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="119"/>
+      <c r="E39" s="119"/>
+      <c r="F39" s="119"/>
+      <c r="G39" s="119"/>
+      <c r="H39" s="119"/>
+      <c r="I39" s="119"/>
+      <c r="J39" s="119"/>
+      <c r="K39" s="119"/>
+      <c r="L39" s="119"/>
+      <c r="M39" s="119"/>
+      <c r="N39" s="119"/>
+      <c r="O39" s="119"/>
+      <c r="P39" s="119"/>
+      <c r="Q39" s="119"/>
+      <c r="R39" s="119"/>
+      <c r="S39" s="119"/>
+      <c r="T39" s="119"/>
+      <c r="U39" s="119"/>
+      <c r="V39" s="119"/>
+      <c r="W39" s="119"/>
+      <c r="X39" s="119"/>
+      <c r="Y39" s="119"/>
+      <c r="Z39" s="119"/>
+      <c r="AA39" s="119"/>
+      <c r="AB39" s="119"/>
+      <c r="AC39" s="119"/>
+      <c r="AD39" s="119"/>
+      <c r="AE39" s="119"/>
+      <c r="AF39" s="119"/>
+      <c r="AG39" s="119"/>
       <c r="AH39" s="83"/>
       <c r="AI39" s="37" t="str">
         <f ca="1">IFERROR(INDIRECT(ADDRESS(ROW(),SUMPRODUCT(MAX((AH39&lt;&gt;"")*COLUMN(AH39))))),"")</f>
@@ -8159,41 +8153,41 @@
       <c r="A40" s="55">
         <v>35</v>
       </c>
-      <c r="B40" s="124"/>
-      <c r="C40" s="152" t="s">
+      <c r="B40" s="149"/>
+      <c r="C40" s="120" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="153"/>
-      <c r="E40" s="153"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="153"/>
-      <c r="K40" s="153"/>
-      <c r="L40" s="153"/>
-      <c r="M40" s="146"/>
-      <c r="N40" s="146"/>
-      <c r="O40" s="146"/>
-      <c r="P40" s="146"/>
-      <c r="Q40" s="146"/>
-      <c r="R40" s="146"/>
-      <c r="S40" s="146"/>
-      <c r="T40" s="146"/>
-      <c r="U40" s="146"/>
-      <c r="V40" s="146"/>
-      <c r="W40" s="146"/>
-      <c r="X40" s="146"/>
-      <c r="Y40" s="146"/>
-      <c r="Z40" s="146"/>
-      <c r="AA40" s="146"/>
-      <c r="AB40" s="146"/>
-      <c r="AC40" s="146"/>
-      <c r="AD40" s="146"/>
-      <c r="AE40" s="146"/>
-      <c r="AF40" s="146"/>
-      <c r="AG40" s="146"/>
-      <c r="AH40" s="147"/>
+      <c r="D40" s="121"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
+      <c r="G40" s="121"/>
+      <c r="H40" s="121"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="121"/>
+      <c r="K40" s="121"/>
+      <c r="L40" s="121"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="112"/>
+      <c r="S40" s="112"/>
+      <c r="T40" s="112"/>
+      <c r="U40" s="112"/>
+      <c r="V40" s="112"/>
+      <c r="W40" s="112"/>
+      <c r="X40" s="112"/>
+      <c r="Y40" s="112"/>
+      <c r="Z40" s="112"/>
+      <c r="AA40" s="112"/>
+      <c r="AB40" s="112"/>
+      <c r="AC40" s="112"/>
+      <c r="AD40" s="112"/>
+      <c r="AE40" s="112"/>
+      <c r="AF40" s="112"/>
+      <c r="AG40" s="112"/>
+      <c r="AH40" s="113"/>
       <c r="AI40" s="61" t="str">
         <f ca="1">IF(SUM(AI9:AI39)=0,"",SUM(AI9:AI39))</f>
         <v/>
@@ -8249,19 +8243,19 @@
     <row r="42" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="57"/>
       <c r="B42" s="77"/>
-      <c r="C42" s="142" t="s">
+      <c r="C42" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="142"/>
-      <c r="E42" s="142"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="142"/>
-      <c r="I42" s="142"/>
-      <c r="J42" s="143" t="s">
+      <c r="D42" s="127"/>
+      <c r="E42" s="127"/>
+      <c r="F42" s="127"/>
+      <c r="G42" s="127"/>
+      <c r="H42" s="127"/>
+      <c r="I42" s="127"/>
+      <c r="J42" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="143"/>
+      <c r="K42" s="128"/>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
@@ -8292,17 +8286,17 @@
     <row r="43" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="57"/>
       <c r="B43" s="77"/>
-      <c r="C43" s="140" t="s">
+      <c r="C43" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="140"/>
-      <c r="E43" s="140"/>
-      <c r="F43" s="140"/>
-      <c r="G43" s="140"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="140"/>
-      <c r="J43" s="141"/>
-      <c r="K43" s="141"/>
+      <c r="D43" s="125"/>
+      <c r="E43" s="125"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="125"/>
+      <c r="H43" s="125"/>
+      <c r="I43" s="125"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="126"/>
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
@@ -8333,17 +8327,17 @@
     <row r="44" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="57"/>
       <c r="B44" s="77"/>
-      <c r="C44" s="140" t="s">
+      <c r="C44" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="140"/>
-      <c r="E44" s="140"/>
-      <c r="F44" s="140"/>
-      <c r="G44" s="140"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="140"/>
-      <c r="J44" s="144"/>
-      <c r="K44" s="144"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="129"/>
+      <c r="K44" s="129"/>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
@@ -8374,17 +8368,17 @@
     <row r="45" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="57"/>
       <c r="B45" s="77"/>
-      <c r="C45" s="140" t="s">
-        <v>65</v>
-      </c>
-      <c r="D45" s="140"/>
-      <c r="E45" s="140"/>
-      <c r="F45" s="140"/>
-      <c r="G45" s="140"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="140"/>
-      <c r="J45" s="141"/>
-      <c r="K45" s="141"/>
+      <c r="C45" s="125" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="126"/>
+      <c r="K45" s="126"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -8415,17 +8409,17 @@
     <row r="46" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="57"/>
       <c r="B46" s="78"/>
-      <c r="C46" s="145" t="s">
-        <v>66</v>
-      </c>
-      <c r="D46" s="145"/>
-      <c r="E46" s="145"/>
-      <c r="F46" s="145"/>
-      <c r="G46" s="145"/>
-      <c r="H46" s="145"/>
-      <c r="I46" s="145"/>
-      <c r="J46" s="141"/>
-      <c r="K46" s="141"/>
+      <c r="C46" s="130" t="s">
+        <v>60</v>
+      </c>
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130"/>
+      <c r="J46" s="126"/>
+      <c r="K46" s="126"/>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
@@ -9292,16 +9286,39 @@
   </sheetData>
   <sheetProtection password="CC71" sheet="1" selectLockedCells="1"/>
   <mergeCells count="59">
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="B4:AH5"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="C37:AE37"/>
+    <mergeCell ref="C38:AF38"/>
+    <mergeCell ref="M40:AH40"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="C31:Y31"/>
+    <mergeCell ref="C32:Z32"/>
+    <mergeCell ref="C33:AA33"/>
+    <mergeCell ref="C34:AB34"/>
+    <mergeCell ref="C35:AC35"/>
+    <mergeCell ref="C36:AD36"/>
+    <mergeCell ref="C26:T26"/>
+    <mergeCell ref="C27:U27"/>
+    <mergeCell ref="C28:V28"/>
+    <mergeCell ref="C29:W29"/>
+    <mergeCell ref="C39:AG39"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C22:P22"/>
+    <mergeCell ref="C23:Q23"/>
+    <mergeCell ref="C24:R24"/>
+    <mergeCell ref="C25:S25"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AJ5:AJ6"/>
     <mergeCell ref="AK5:AK6"/>
@@ -9318,39 +9335,16 @@
     <mergeCell ref="C30:X30"/>
     <mergeCell ref="C19:M19"/>
     <mergeCell ref="C20:N20"/>
-    <mergeCell ref="C21:O21"/>
-    <mergeCell ref="C22:P22"/>
-    <mergeCell ref="C23:Q23"/>
-    <mergeCell ref="C24:R24"/>
-    <mergeCell ref="C25:S25"/>
-    <mergeCell ref="C26:T26"/>
-    <mergeCell ref="C27:U27"/>
-    <mergeCell ref="C28:V28"/>
-    <mergeCell ref="C29:W29"/>
-    <mergeCell ref="C39:AG39"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="C31:Y31"/>
-    <mergeCell ref="C32:Z32"/>
-    <mergeCell ref="C33:AA33"/>
-    <mergeCell ref="C34:AB34"/>
-    <mergeCell ref="C35:AC35"/>
-    <mergeCell ref="C36:AD36"/>
-    <mergeCell ref="C46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="C37:AE37"/>
-    <mergeCell ref="C38:AF38"/>
-    <mergeCell ref="M40:AH40"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="B4:AH5"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AG38 AE36 AC34 AA32 Y30 V27 U26 R23 P21 N19 L17 J15 H13 E10 W27:AH28 X29:AH29 G12:AH12 I13:AH14 K15:AH16 M17:AH18 O19:AH20 Q21:AH22 S23:AH24 T25:U25 V25:AH26 C7:AH8 Z30:AH31 AB32:AH33 AD34:AH35 AF36:AH37 J43:K46 AH38:AH39 D9:AH9 F10:AH11 AJ9:AK39">
@@ -9392,121 +9386,121 @@
   <sheetData>
     <row r="1" spans="1:39" s="87" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="86" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="86" t="s">
+        <v>121</v>
+      </c>
+      <c r="G1" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="79" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="J1" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="K1" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="M1" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="E1" s="79" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="86" t="s">
-        <v>131</v>
-      </c>
-      <c r="G1" s="79" t="s">
-        <v>133</v>
-      </c>
-      <c r="H1" s="79" t="s">
+      <c r="N1" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="I1" s="79" t="s">
+      <c r="Q1" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="J1" s="79" t="s">
+      <c r="R1" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="K1" s="79" t="s">
+      <c r="S1" s="79" t="s">
         <v>88</v>
       </c>
-      <c r="L1" s="79" t="s">
+      <c r="T1" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="M1" s="79" t="s">
+      <c r="U1" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="N1" s="79" t="s">
+      <c r="V1" s="79" t="s">
         <v>91</v>
       </c>
-      <c r="O1" s="79" t="s">
+      <c r="W1" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="P1" s="79" t="s">
+      <c r="X1" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="Q1" s="79" t="s">
+      <c r="Y1" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="R1" s="79" t="s">
+      <c r="Z1" s="79" t="s">
         <v>95</v>
       </c>
-      <c r="S1" s="79" t="s">
+      <c r="AA1" s="79" t="s">
         <v>96</v>
       </c>
-      <c r="T1" s="79" t="s">
+      <c r="AB1" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="U1" s="79" t="s">
+      <c r="AC1" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="V1" s="79" t="s">
+      <c r="AD1" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="W1" s="79" t="s">
+      <c r="AE1" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="X1" s="79" t="s">
+      <c r="AF1" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="Y1" s="79" t="s">
+      <c r="AG1" s="79" t="s">
         <v>102</v>
       </c>
-      <c r="Z1" s="79" t="s">
+      <c r="AH1" s="79" t="s">
         <v>103</v>
       </c>
-      <c r="AA1" s="79" t="s">
+      <c r="AI1" s="79" t="s">
         <v>104</v>
       </c>
-      <c r="AB1" s="79" t="s">
+      <c r="AJ1" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="AC1" s="79" t="s">
+      <c r="AK1" s="79" t="s">
         <v>106</v>
       </c>
-      <c r="AD1" s="79" t="s">
+      <c r="AL1" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="AE1" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF1" s="79" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG1" s="79" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH1" s="79" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI1" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ1" s="79" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK1" s="79" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL1" s="79" t="s">
-        <v>115</v>
-      </c>
       <c r="AM1" s="79" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:39" x14ac:dyDescent="0.25">
@@ -9523,10 +9517,10 @@
         <v>202105</v>
       </c>
       <c r="D2" s="85" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E2" s="85" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F2" s="91" t="str">
         <f>CONCATENATE("miap_",E2)</f>
@@ -9676,10 +9670,10 @@
         <v>202105</v>
       </c>
       <c r="D3" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E3" s="80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="88" t="str">
         <f t="shared" ref="F3:F33" si="1">CONCATENATE("miap_",E3)</f>
@@ -9826,10 +9820,10 @@
         <v>202105</v>
       </c>
       <c r="D4" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E4" s="80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F4" s="88" t="str">
         <f t="shared" si="1"/>
@@ -9973,10 +9967,10 @@
         <v>202105</v>
       </c>
       <c r="D5" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E5" s="80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="88" t="str">
         <f t="shared" si="1"/>
@@ -10117,10 +10111,10 @@
         <v>202105</v>
       </c>
       <c r="D6" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E6" s="80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F6" s="88" t="str">
         <f t="shared" si="1"/>
@@ -10258,10 +10252,10 @@
         <v>202105</v>
       </c>
       <c r="D7" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E7" s="82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="88" t="str">
         <f t="shared" si="1"/>
@@ -10396,10 +10390,10 @@
         <v>202105</v>
       </c>
       <c r="D8" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E8" s="80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="88" t="str">
         <f t="shared" si="1"/>
@@ -10531,10 +10525,10 @@
         <v>202105</v>
       </c>
       <c r="D9" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F9" s="88" t="str">
         <f t="shared" si="1"/>
@@ -10663,10 +10657,10 @@
         <v>202105</v>
       </c>
       <c r="D10" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E10" s="80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="88" t="str">
         <f t="shared" si="1"/>
@@ -10792,10 +10786,10 @@
         <v>202105</v>
       </c>
       <c r="D11" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E11" s="82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="88" t="str">
         <f t="shared" si="1"/>
@@ -10918,10 +10912,10 @@
         <v>202105</v>
       </c>
       <c r="D12" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E12" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11041,10 +11035,10 @@
         <v>202105</v>
       </c>
       <c r="D13" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F13" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11161,10 +11155,10 @@
         <v>202105</v>
       </c>
       <c r="D14" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E14" s="80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F14" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11278,10 +11272,10 @@
         <v>202105</v>
       </c>
       <c r="D15" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E15" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F15" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11392,10 +11386,10 @@
         <v>202105</v>
       </c>
       <c r="D16" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E16" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F16" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11503,10 +11497,10 @@
         <v>202105</v>
       </c>
       <c r="D17" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E17" s="82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F17" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11611,10 +11605,10 @@
         <v>202105</v>
       </c>
       <c r="D18" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E18" s="80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F18" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11716,10 +11710,10 @@
         <v>202105</v>
       </c>
       <c r="D19" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E19" s="82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F19" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11818,10 +11812,10 @@
         <v>202105</v>
       </c>
       <c r="D20" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E20" s="80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" s="88" t="str">
         <f t="shared" si="1"/>
@@ -11917,10 +11911,10 @@
         <v>202105</v>
       </c>
       <c r="D21" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E21" s="82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F21" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12013,10 +12007,10 @@
         <v>202105</v>
       </c>
       <c r="D22" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E22" s="80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F22" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12106,10 +12100,10 @@
         <v>202105</v>
       </c>
       <c r="D23" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E23" s="82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F23" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12196,10 +12190,10 @@
         <v>202105</v>
       </c>
       <c r="D24" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E24" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F24" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12283,10 +12277,10 @@
         <v>202105</v>
       </c>
       <c r="D25" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E25" s="82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F25" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12367,10 +12361,10 @@
         <v>202105</v>
       </c>
       <c r="D26" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E26" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F26" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12448,10 +12442,10 @@
         <v>202105</v>
       </c>
       <c r="D27" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E27" s="82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12526,10 +12520,10 @@
         <v>202105</v>
       </c>
       <c r="D28" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E28" s="80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F28" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12601,10 +12595,10 @@
         <v>202105</v>
       </c>
       <c r="D29" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E29" s="82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F29" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12673,10 +12667,10 @@
         <v>202105</v>
       </c>
       <c r="D30" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E30" s="80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F30" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12742,10 +12736,10 @@
         <v>202105</v>
       </c>
       <c r="D31" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E31" s="82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F31" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12808,10 +12802,10 @@
         <v>202105</v>
       </c>
       <c r="D32" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E32" s="80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F32" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12871,10 +12865,10 @@
         <v>202105</v>
       </c>
       <c r="D33" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F33" s="88" t="str">
         <f t="shared" si="1"/>
@@ -12931,13 +12925,13 @@
         <v>202105</v>
       </c>
       <c r="D34" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E34" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F34" s="90" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="G34" s="80" t="str">
         <f>IF(ISBLANK(FMATT!C7),"",FMATT!C7)</f>
@@ -13086,13 +13080,13 @@
         <v>202105</v>
       </c>
       <c r="D35" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E35" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F35" s="90" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="G35" s="80" t="str">
         <f>IF(ISBLANK(FMATT!C8),"",FMATT!C8)</f>
@@ -13241,13 +13235,13 @@
         <v>202105</v>
       </c>
       <c r="D36" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E36" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F36" s="88" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G36" s="80" t="str">
         <f>IF(ISBLANK(FMATT!C9),"",FMATT!C9)</f>
@@ -13396,13 +13390,13 @@
         <v>202105</v>
       </c>
       <c r="D37" s="85" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E37" s="85" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F37" s="91" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="G37" s="85"/>
       <c r="H37" s="85"/>
@@ -13455,13 +13449,13 @@
         <v>202105</v>
       </c>
       <c r="D38" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E38" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F38" s="90" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="G38" s="80"/>
       <c r="H38" s="80"/>
@@ -13514,13 +13508,13 @@
         <v>202105</v>
       </c>
       <c r="D39" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E39" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F39" s="90" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="G39" s="80"/>
       <c r="H39" s="80"/>
@@ -13573,10 +13567,10 @@
         <v>202105</v>
       </c>
       <c r="D40" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E40" s="80" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F40" s="88" t="str">
         <f>CONCATENATE("to_fmatt_",E40)</f>
@@ -13633,10 +13627,10 @@
         <v>202105</v>
       </c>
       <c r="D41" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E41" s="80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F41" s="88" t="str">
         <f t="shared" ref="F41:F71" si="2">CONCATENATE("to_fmatt_",E41)</f>
@@ -13693,10 +13687,10 @@
         <v>202105</v>
       </c>
       <c r="D42" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E42" s="80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F42" s="88" t="str">
         <f t="shared" si="2"/>
@@ -13753,10 +13747,10 @@
         <v>202105</v>
       </c>
       <c r="D43" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E43" s="80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F43" s="88" t="str">
         <f t="shared" si="2"/>
@@ -13813,10 +13807,10 @@
         <v>202105</v>
       </c>
       <c r="D44" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E44" s="80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F44" s="88" t="str">
         <f t="shared" si="2"/>
@@ -13873,10 +13867,10 @@
         <v>202105</v>
       </c>
       <c r="D45" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E45" s="82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F45" s="88" t="str">
         <f t="shared" si="2"/>
@@ -13933,10 +13927,10 @@
         <v>202105</v>
       </c>
       <c r="D46" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E46" s="80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F46" s="88" t="str">
         <f t="shared" si="2"/>
@@ -13993,10 +13987,10 @@
         <v>202105</v>
       </c>
       <c r="D47" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E47" s="82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F47" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14053,10 +14047,10 @@
         <v>202105</v>
       </c>
       <c r="D48" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E48" s="80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F48" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14113,10 +14107,10 @@
         <v>202105</v>
       </c>
       <c r="D49" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E49" s="82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F49" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14173,10 +14167,10 @@
         <v>202105</v>
       </c>
       <c r="D50" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E50" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F50" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14233,10 +14227,10 @@
         <v>202105</v>
       </c>
       <c r="D51" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E51" s="82" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F51" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14293,10 +14287,10 @@
         <v>202105</v>
       </c>
       <c r="D52" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E52" s="80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F52" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14353,10 +14347,10 @@
         <v>202105</v>
       </c>
       <c r="D53" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E53" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F53" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14413,10 +14407,10 @@
         <v>202105</v>
       </c>
       <c r="D54" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E54" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F54" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14473,10 +14467,10 @@
         <v>202105</v>
       </c>
       <c r="D55" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E55" s="82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F55" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14533,10 +14527,10 @@
         <v>202105</v>
       </c>
       <c r="D56" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E56" s="80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F56" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14593,10 +14587,10 @@
         <v>202105</v>
       </c>
       <c r="D57" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E57" s="82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F57" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14653,10 +14647,10 @@
         <v>202105</v>
       </c>
       <c r="D58" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E58" s="80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F58" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14713,10 +14707,10 @@
         <v>202105</v>
       </c>
       <c r="D59" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E59" s="82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F59" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14773,10 +14767,10 @@
         <v>202105</v>
       </c>
       <c r="D60" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E60" s="80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F60" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14833,10 +14827,10 @@
         <v>202105</v>
       </c>
       <c r="D61" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E61" s="82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F61" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14893,10 +14887,10 @@
         <v>202105</v>
       </c>
       <c r="D62" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E62" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F62" s="88" t="str">
         <f t="shared" si="2"/>
@@ -14953,10 +14947,10 @@
         <v>202105</v>
       </c>
       <c r="D63" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E63" s="82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F63" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15013,10 +15007,10 @@
         <v>202105</v>
       </c>
       <c r="D64" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E64" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F64" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15073,10 +15067,10 @@
         <v>202105</v>
       </c>
       <c r="D65" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E65" s="82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F65" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15133,10 +15127,10 @@
         <v>202105</v>
       </c>
       <c r="D66" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E66" s="80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F66" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15193,10 +15187,10 @@
         <v>202105</v>
       </c>
       <c r="D67" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E67" s="82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F67" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15253,10 +15247,10 @@
         <v>202105</v>
       </c>
       <c r="D68" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E68" s="80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F68" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15313,10 +15307,10 @@
         <v>202105</v>
       </c>
       <c r="D69" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E69" s="82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F69" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15373,10 +15367,10 @@
         <v>202105</v>
       </c>
       <c r="D70" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E70" s="80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F70" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15433,10 +15427,10 @@
         <v>202105</v>
       </c>
       <c r="D71" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E71" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F71" s="88" t="str">
         <f t="shared" si="2"/>
@@ -15493,13 +15487,13 @@
         <v>202105</v>
       </c>
       <c r="D72" s="85" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E72" s="85" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F72" s="91" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G72" s="85"/>
       <c r="H72" s="85"/>
@@ -15552,13 +15546,13 @@
         <v>202105</v>
       </c>
       <c r="D73" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E73" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F73" s="90" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G73" s="80"/>
       <c r="H73" s="80"/>
@@ -15611,13 +15605,13 @@
         <v>202105</v>
       </c>
       <c r="D74" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E74" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F74" s="90" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G74" s="80"/>
       <c r="H74" s="80"/>
@@ -15670,10 +15664,10 @@
         <v>202105</v>
       </c>
       <c r="D75" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E75" s="80" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F75" s="88" t="str">
         <f>CONCATENATE("died_fmatt_",E75)</f>
@@ -15730,10 +15724,10 @@
         <v>202105</v>
       </c>
       <c r="D76" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E76" s="80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F76" s="88" t="str">
         <f t="shared" ref="F76:F106" si="5">CONCATENATE("died_fmatt_",E76)</f>
@@ -15790,10 +15784,10 @@
         <v>202105</v>
       </c>
       <c r="D77" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E77" s="80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F77" s="88" t="str">
         <f t="shared" si="5"/>
@@ -15850,10 +15844,10 @@
         <v>202105</v>
       </c>
       <c r="D78" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E78" s="80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F78" s="88" t="str">
         <f t="shared" si="5"/>
@@ -15910,10 +15904,10 @@
         <v>202105</v>
       </c>
       <c r="D79" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E79" s="80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F79" s="88" t="str">
         <f t="shared" si="5"/>
@@ -15970,10 +15964,10 @@
         <v>202105</v>
       </c>
       <c r="D80" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E80" s="82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F80" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16030,10 +16024,10 @@
         <v>202105</v>
       </c>
       <c r="D81" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E81" s="80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F81" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16090,10 +16084,10 @@
         <v>202105</v>
       </c>
       <c r="D82" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E82" s="82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F82" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16150,10 +16144,10 @@
         <v>202105</v>
       </c>
       <c r="D83" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E83" s="80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F83" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16210,10 +16204,10 @@
         <v>202105</v>
       </c>
       <c r="D84" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E84" s="82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F84" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16270,10 +16264,10 @@
         <v>202105</v>
       </c>
       <c r="D85" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E85" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F85" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16330,10 +16324,10 @@
         <v>202105</v>
       </c>
       <c r="D86" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E86" s="82" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F86" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16390,10 +16384,10 @@
         <v>202105</v>
       </c>
       <c r="D87" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E87" s="80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F87" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16450,10 +16444,10 @@
         <v>202105</v>
       </c>
       <c r="D88" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E88" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F88" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16510,10 +16504,10 @@
         <v>202105</v>
       </c>
       <c r="D89" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E89" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F89" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16570,10 +16564,10 @@
         <v>202105</v>
       </c>
       <c r="D90" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E90" s="82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F90" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16630,10 +16624,10 @@
         <v>202105</v>
       </c>
       <c r="D91" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E91" s="80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F91" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16690,10 +16684,10 @@
         <v>202105</v>
       </c>
       <c r="D92" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E92" s="82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F92" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16750,10 +16744,10 @@
         <v>202105</v>
       </c>
       <c r="D93" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E93" s="80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F93" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16810,10 +16804,10 @@
         <v>202105</v>
       </c>
       <c r="D94" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E94" s="82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F94" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16870,10 +16864,10 @@
         <v>202105</v>
       </c>
       <c r="D95" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E95" s="80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F95" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16930,10 +16924,10 @@
         <v>202105</v>
       </c>
       <c r="D96" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E96" s="82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F96" s="88" t="str">
         <f t="shared" si="5"/>
@@ -16990,10 +16984,10 @@
         <v>202105</v>
       </c>
       <c r="D97" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E97" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F97" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17050,10 +17044,10 @@
         <v>202105</v>
       </c>
       <c r="D98" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E98" s="82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F98" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17110,10 +17104,10 @@
         <v>202105</v>
       </c>
       <c r="D99" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E99" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F99" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17170,10 +17164,10 @@
         <v>202105</v>
       </c>
       <c r="D100" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E100" s="82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F100" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17230,10 +17224,10 @@
         <v>202105</v>
       </c>
       <c r="D101" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E101" s="80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F101" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17290,10 +17284,10 @@
         <v>202105</v>
       </c>
       <c r="D102" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E102" s="82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F102" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17350,10 +17344,10 @@
         <v>202105</v>
       </c>
       <c r="D103" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E103" s="80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F103" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17410,10 +17404,10 @@
         <v>202105</v>
       </c>
       <c r="D104" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E104" s="82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F104" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17470,10 +17464,10 @@
         <v>202105</v>
       </c>
       <c r="D105" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E105" s="80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F105" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17530,10 +17524,10 @@
         <v>202105</v>
       </c>
       <c r="D106" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E106" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F106" s="88" t="str">
         <f t="shared" si="5"/>
@@ -17590,10 +17584,10 @@
         <v>202105</v>
       </c>
       <c r="D107" s="85" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E107" s="85" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F107" s="91" t="str">
         <f>CONCATENATE("to_fmatt_sum_",E107)</f>
@@ -17650,10 +17644,10 @@
         <v>202105</v>
       </c>
       <c r="D108" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E108" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F108" s="90" t="str">
         <f>CONCATENATE("died_fmatt_sum_",E108)</f>
@@ -17710,10 +17704,10 @@
         <v>202105</v>
       </c>
       <c r="D109" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E109" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F109" s="90" t="str">
         <f>CONCATENATE("miap_def_btc_sum_",E109)</f>
@@ -17770,10 +17764,10 @@
         <v>202105</v>
       </c>
       <c r="D110" s="80" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E110" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F110" s="90" t="str">
         <f>CONCATENATE("miap_grad_ltfu_sum_",E110)</f>
@@ -17830,10 +17824,10 @@
         <v>202105</v>
       </c>
       <c r="D111" s="100" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E111" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F111" s="90" t="str">
         <f>CONCATENATE("miap_def_sum_",E111)</f>
@@ -17890,10 +17884,10 @@
         <v>202105</v>
       </c>
       <c r="D112" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E112" s="97" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F112" s="91" t="str">
         <f>CONCATENATE("iit_",E112)</f>
@@ -18043,10 +18037,10 @@
         <v>202105</v>
       </c>
       <c r="D113" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E113" s="98" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F113" s="90" t="str">
         <f t="shared" ref="F113:F143" si="6">CONCATENATE("iit_",E113)</f>
@@ -18193,10 +18187,10 @@
         <v>202105</v>
       </c>
       <c r="D114" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E114" s="98" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F114" s="90" t="str">
         <f t="shared" si="6"/>
@@ -18340,10 +18334,10 @@
         <v>202105</v>
       </c>
       <c r="D115" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E115" s="98" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F115" s="90" t="str">
         <f t="shared" si="6"/>
@@ -18484,10 +18478,10 @@
         <v>202105</v>
       </c>
       <c r="D116" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E116" s="98" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F116" s="90" t="str">
         <f t="shared" si="6"/>
@@ -18625,10 +18619,10 @@
         <v>202105</v>
       </c>
       <c r="D117" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E117" s="99" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F117" s="90" t="str">
         <f t="shared" si="6"/>
@@ -18763,10 +18757,10 @@
         <v>202105</v>
       </c>
       <c r="D118" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E118" s="98" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F118" s="90" t="str">
         <f t="shared" si="6"/>
@@ -18898,10 +18892,10 @@
         <v>202105</v>
       </c>
       <c r="D119" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E119" s="99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F119" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19030,10 +19024,10 @@
         <v>202105</v>
       </c>
       <c r="D120" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E120" s="98" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F120" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19159,10 +19153,10 @@
         <v>202105</v>
       </c>
       <c r="D121" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E121" s="99" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F121" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19285,10 +19279,10 @@
         <v>202105</v>
       </c>
       <c r="D122" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E122" s="98" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F122" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19408,10 +19402,10 @@
         <v>202105</v>
       </c>
       <c r="D123" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E123" s="99" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F123" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19528,10 +19522,10 @@
         <v>202105</v>
       </c>
       <c r="D124" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E124" s="98" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F124" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19645,10 +19639,10 @@
         <v>202105</v>
       </c>
       <c r="D125" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E125" s="99" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F125" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19759,10 +19753,10 @@
         <v>202105</v>
       </c>
       <c r="D126" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E126" s="98" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F126" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19870,10 +19864,10 @@
         <v>202105</v>
       </c>
       <c r="D127" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E127" s="99" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F127" s="90" t="str">
         <f t="shared" si="6"/>
@@ -19978,10 +19972,10 @@
         <v>202105</v>
       </c>
       <c r="D128" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E128" s="98" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F128" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20083,10 +20077,10 @@
         <v>202105</v>
       </c>
       <c r="D129" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E129" s="99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F129" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20185,10 +20179,10 @@
         <v>202105</v>
       </c>
       <c r="D130" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E130" s="98" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F130" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20284,10 +20278,10 @@
         <v>202105</v>
       </c>
       <c r="D131" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E131" s="99" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F131" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20380,10 +20374,10 @@
         <v>202105</v>
       </c>
       <c r="D132" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E132" s="98" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F132" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20473,10 +20467,10 @@
         <v>202105</v>
       </c>
       <c r="D133" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E133" s="99" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F133" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20563,10 +20557,10 @@
         <v>202105</v>
       </c>
       <c r="D134" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E134" s="98" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F134" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20650,10 +20644,10 @@
         <v>202105</v>
       </c>
       <c r="D135" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E135" s="99" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F135" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20734,10 +20728,10 @@
         <v>202105</v>
       </c>
       <c r="D136" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E136" s="98" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F136" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20815,10 +20809,10 @@
         <v>202105</v>
       </c>
       <c r="D137" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E137" s="99" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F137" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20893,10 +20887,10 @@
         <v>202105</v>
       </c>
       <c r="D138" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E138" s="98" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F138" s="90" t="str">
         <f t="shared" si="6"/>
@@ -20968,10 +20962,10 @@
         <v>202105</v>
       </c>
       <c r="D139" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E139" s="99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F139" s="90" t="str">
         <f t="shared" si="6"/>
@@ -21040,10 +21034,10 @@
         <v>202105</v>
       </c>
       <c r="D140" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E140" s="98" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F140" s="90" t="str">
         <f t="shared" si="6"/>
@@ -21109,10 +21103,10 @@
         <v>202105</v>
       </c>
       <c r="D141" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E141" s="99" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F141" s="90" t="str">
         <f t="shared" si="6"/>
@@ -21175,10 +21169,10 @@
         <v>202105</v>
       </c>
       <c r="D142" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E142" s="98" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F142" s="90" t="str">
         <f t="shared" si="6"/>
@@ -21238,10 +21232,10 @@
         <v>202105</v>
       </c>
       <c r="D143" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E143" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F143" s="90" t="str">
         <f t="shared" si="6"/>
@@ -21297,13 +21291,13 @@
         <v>202105</v>
       </c>
       <c r="D144" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E144" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F144" s="90" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G144" s="80" t="str">
         <f>IF(ISBLANK(FIIITT!C7),"",FIIITT!C7)</f>
@@ -21452,13 +21446,13 @@
         <v>202105</v>
       </c>
       <c r="D145" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E145" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F145" s="90" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G145" s="80" t="str">
         <f>IF(ISBLANK(FIIITT!C8),"",FIIITT!C8)</f>
@@ -21607,13 +21601,13 @@
         <v>202105</v>
       </c>
       <c r="D146" s="107" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E146" s="107" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F146" s="106" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G146" s="107"/>
       <c r="H146" s="107"/>
@@ -21666,13 +21660,13 @@
         <v>202105</v>
       </c>
       <c r="D147" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E147" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F147" s="90" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G147" s="80"/>
       <c r="H147" s="80"/>
@@ -21725,10 +21719,10 @@
         <v>202105</v>
       </c>
       <c r="D148" s="105" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E148" s="105" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F148" s="104" t="str">
         <f>CONCATENATE("to_fiiit_",E148)</f>
@@ -21785,10 +21779,10 @@
         <v>202105</v>
       </c>
       <c r="D149" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E149" s="80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F149" s="104" t="str">
         <f t="shared" ref="F149:F179" si="8">CONCATENATE("to_fiiit_",E149)</f>
@@ -21845,10 +21839,10 @@
         <v>202105</v>
       </c>
       <c r="D150" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E150" s="80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F150" s="104" t="str">
         <f t="shared" si="8"/>
@@ -21905,10 +21899,10 @@
         <v>202105</v>
       </c>
       <c r="D151" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E151" s="80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F151" s="104" t="str">
         <f t="shared" si="8"/>
@@ -21965,10 +21959,10 @@
         <v>202105</v>
       </c>
       <c r="D152" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E152" s="80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F152" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22025,10 +22019,10 @@
         <v>202105</v>
       </c>
       <c r="D153" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E153" s="82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F153" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22085,10 +22079,10 @@
         <v>202105</v>
       </c>
       <c r="D154" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E154" s="80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F154" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22145,10 +22139,10 @@
         <v>202105</v>
       </c>
       <c r="D155" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E155" s="82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F155" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22205,10 +22199,10 @@
         <v>202105</v>
       </c>
       <c r="D156" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E156" s="80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F156" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22265,10 +22259,10 @@
         <v>202105</v>
       </c>
       <c r="D157" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E157" s="82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F157" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22325,10 +22319,10 @@
         <v>202105</v>
       </c>
       <c r="D158" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E158" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F158" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22385,10 +22379,10 @@
         <v>202105</v>
       </c>
       <c r="D159" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E159" s="82" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F159" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22445,10 +22439,10 @@
         <v>202105</v>
       </c>
       <c r="D160" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E160" s="80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F160" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22505,10 +22499,10 @@
         <v>202105</v>
       </c>
       <c r="D161" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E161" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F161" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22565,10 +22559,10 @@
         <v>202105</v>
       </c>
       <c r="D162" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E162" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F162" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22625,10 +22619,10 @@
         <v>202105</v>
       </c>
       <c r="D163" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E163" s="82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F163" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22685,10 +22679,10 @@
         <v>202105</v>
       </c>
       <c r="D164" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E164" s="80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F164" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22745,10 +22739,10 @@
         <v>202105</v>
       </c>
       <c r="D165" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E165" s="82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F165" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22805,10 +22799,10 @@
         <v>202105</v>
       </c>
       <c r="D166" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E166" s="80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F166" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22865,10 +22859,10 @@
         <v>202105</v>
       </c>
       <c r="D167" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E167" s="82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F167" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22925,10 +22919,10 @@
         <v>202105</v>
       </c>
       <c r="D168" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E168" s="80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F168" s="104" t="str">
         <f t="shared" si="8"/>
@@ -22985,10 +22979,10 @@
         <v>202105</v>
       </c>
       <c r="D169" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E169" s="82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F169" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23045,10 +23039,10 @@
         <v>202105</v>
       </c>
       <c r="D170" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E170" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F170" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23105,10 +23099,10 @@
         <v>202105</v>
       </c>
       <c r="D171" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E171" s="82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F171" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23165,10 +23159,10 @@
         <v>202105</v>
       </c>
       <c r="D172" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E172" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F172" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23225,10 +23219,10 @@
         <v>202105</v>
       </c>
       <c r="D173" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E173" s="82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F173" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23285,10 +23279,10 @@
         <v>202105</v>
       </c>
       <c r="D174" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E174" s="80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F174" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23345,10 +23339,10 @@
         <v>202105</v>
       </c>
       <c r="D175" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E175" s="82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F175" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23405,10 +23399,10 @@
         <v>202105</v>
       </c>
       <c r="D176" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E176" s="80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F176" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23465,10 +23459,10 @@
         <v>202105</v>
       </c>
       <c r="D177" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E177" s="82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F177" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23525,10 +23519,10 @@
         <v>202105</v>
       </c>
       <c r="D178" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E178" s="80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F178" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23585,10 +23579,10 @@
         <v>202105</v>
       </c>
       <c r="D179" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E179" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F179" s="104" t="str">
         <f t="shared" si="8"/>
@@ -23645,13 +23639,13 @@
         <v>202105</v>
       </c>
       <c r="D180" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E180" s="107" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F180" s="106" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G180" s="80"/>
       <c r="H180" s="80"/>
@@ -23704,13 +23698,13 @@
         <v>202105</v>
       </c>
       <c r="D181" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E181" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F181" s="90" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G181" s="80"/>
       <c r="H181" s="80"/>
@@ -23763,10 +23757,10 @@
         <v>202105</v>
       </c>
       <c r="D182" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E182" s="105" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F182" s="104" t="str">
         <f>CONCATENATE("died_fiiit_",E182)</f>
@@ -23823,10 +23817,10 @@
         <v>202105</v>
       </c>
       <c r="D183" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E183" s="80" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F183" s="104" t="str">
         <f t="shared" ref="F183:F213" si="9">CONCATENATE("died_fiiit_",E183)</f>
@@ -23883,10 +23877,10 @@
         <v>202105</v>
       </c>
       <c r="D184" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E184" s="80" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F184" s="104" t="str">
         <f t="shared" si="9"/>
@@ -23943,10 +23937,10 @@
         <v>202105</v>
       </c>
       <c r="D185" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E185" s="80" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F185" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24003,10 +23997,10 @@
         <v>202105</v>
       </c>
       <c r="D186" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E186" s="80" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F186" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24063,10 +24057,10 @@
         <v>202105</v>
       </c>
       <c r="D187" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E187" s="82" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F187" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24123,10 +24117,10 @@
         <v>202105</v>
       </c>
       <c r="D188" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E188" s="80" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F188" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24183,10 +24177,10 @@
         <v>202105</v>
       </c>
       <c r="D189" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E189" s="82" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F189" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24243,10 +24237,10 @@
         <v>202105</v>
       </c>
       <c r="D190" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E190" s="80" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F190" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24303,10 +24297,10 @@
         <v>202105</v>
       </c>
       <c r="D191" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E191" s="82" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F191" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24363,10 +24357,10 @@
         <v>202105</v>
       </c>
       <c r="D192" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E192" s="80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F192" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24423,10 +24417,10 @@
         <v>202105</v>
       </c>
       <c r="D193" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E193" s="82" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="F193" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24483,10 +24477,10 @@
         <v>202105</v>
       </c>
       <c r="D194" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E194" s="80" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F194" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24543,10 +24537,10 @@
         <v>202105</v>
       </c>
       <c r="D195" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E195" s="82" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F195" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24603,10 +24597,10 @@
         <v>202105</v>
       </c>
       <c r="D196" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E196" s="80" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F196" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24663,10 +24657,10 @@
         <v>202105</v>
       </c>
       <c r="D197" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E197" s="82" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F197" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24723,10 +24717,10 @@
         <v>202105</v>
       </c>
       <c r="D198" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E198" s="80" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F198" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24783,10 +24777,10 @@
         <v>202105</v>
       </c>
       <c r="D199" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E199" s="82" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F199" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24843,10 +24837,10 @@
         <v>202105</v>
       </c>
       <c r="D200" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E200" s="80" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F200" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24903,10 +24897,10 @@
         <v>202105</v>
       </c>
       <c r="D201" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E201" s="82" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F201" s="104" t="str">
         <f t="shared" si="9"/>
@@ -24963,10 +24957,10 @@
         <v>202105</v>
       </c>
       <c r="D202" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E202" s="80" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F202" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25023,10 +25017,10 @@
         <v>202105</v>
       </c>
       <c r="D203" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E203" s="82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F203" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25083,10 +25077,10 @@
         <v>202105</v>
       </c>
       <c r="D204" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E204" s="80" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F204" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25143,10 +25137,10 @@
         <v>202105</v>
       </c>
       <c r="D205" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E205" s="82" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F205" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25203,10 +25197,10 @@
         <v>202105</v>
       </c>
       <c r="D206" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E206" s="80" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F206" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25263,10 +25257,10 @@
         <v>202105</v>
       </c>
       <c r="D207" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E207" s="82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F207" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25323,10 +25317,10 @@
         <v>202105</v>
       </c>
       <c r="D208" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E208" s="80" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F208" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25383,10 +25377,10 @@
         <v>202105</v>
       </c>
       <c r="D209" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E209" s="82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F209" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25443,10 +25437,10 @@
         <v>202105</v>
       </c>
       <c r="D210" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E210" s="80" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F210" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25503,10 +25497,10 @@
         <v>202105</v>
       </c>
       <c r="D211" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E211" s="82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F211" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25563,10 +25557,10 @@
         <v>202105</v>
       </c>
       <c r="D212" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E212" s="80" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F212" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25623,10 +25617,10 @@
         <v>202105</v>
       </c>
       <c r="D213" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E213" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F213" s="104" t="str">
         <f t="shared" si="9"/>
@@ -25683,10 +25677,10 @@
         <v>202105</v>
       </c>
       <c r="D214" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E214" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F214" s="91" t="str">
         <f>CONCATENATE("to_fiiit_sum_",E214)</f>
@@ -25743,10 +25737,10 @@
         <v>202105</v>
       </c>
       <c r="D215" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E215" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F215" s="90" t="str">
         <f>CONCATENATE("died_fiiit_sum_",E215)</f>
@@ -25803,10 +25797,10 @@
         <v>202105</v>
       </c>
       <c r="D216" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E216" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F216" s="90" t="str">
         <f>CONCATENATE("btc_fiiit_sum_",E216)</f>
@@ -25863,10 +25857,10 @@
         <v>202105</v>
       </c>
       <c r="D217" s="80" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E217" s="80" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="F217" s="90" t="str">
         <f>CONCATENATE("ltfu_fiiit_ofu_sum_",E217)</f>

--- a/web/fmatt.xlsx
+++ b/web/fmatt.xlsx
@@ -5,10 +5,9 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\InternalSystem\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\InternalSystem\web\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <workbookProtection workbookPassword="CC71" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="1"/>
   </bookViews>
@@ -555,12 +554,6 @@
     <t>Number  of patients Self Transferred  Out</t>
   </si>
   <si>
-    <t>USAID Tujenge Jamii Facility Missed Appointment Tracking Tool (FMATT) Version 2.0.0</t>
-  </si>
-  <si>
-    <t>USAID Tujenge Jamii Facility Interruption in treatment Tracking Tool (FIITTT) Version 2.0.0</t>
-  </si>
-  <si>
     <t>Previous Month Missed 29+ days</t>
   </si>
   <si>
@@ -601,6 +594,12 @@
   </si>
   <si>
     <t>Daily Deaths</t>
+  </si>
+  <si>
+    <t>USAID Tujenge Jamii Facility Missed Appointment Tracking Tool (FMATT) Version 2.1.0</t>
+  </si>
+  <si>
+    <t>USAID Tujenge Jamii Facility Interruption in treatment Tracking Tool (FIITTT) Version 2.1.0</t>
   </si>
 </sst>
 </file>
@@ -2564,6 +2563,15 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2587,15 +2595,6 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="135"/>
@@ -5457,20 +5456,20 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.73046875" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" style="2" customWidth="1"/>
     <col min="2" max="2" width="56" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.73046875" style="1"/>
+    <col min="3" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="159" t="s">
         <v>139</v>
       </c>
       <c r="B1" s="159"/>
     </row>
-    <row r="2" spans="1:2" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -5478,7 +5477,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
@@ -5486,7 +5485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>7</v>
       </c>
@@ -5494,7 +5493,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>8</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>9</v>
       </c>
@@ -5510,7 +5509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>142</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>39</v>
       </c>
@@ -5526,7 +5525,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>18</v>
       </c>
@@ -5534,7 +5533,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -5542,7 +5541,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
@@ -5550,13 +5549,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="160" t="s">
         <v>140</v>
       </c>
       <c r="B13" s="160"/>
     </row>
-    <row r="14" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>12</v>
       </c>
@@ -5564,7 +5563,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="55" t="s">
         <v>55</v>
       </c>
@@ -5572,7 +5571,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="57">
         <v>7</v>
       </c>
@@ -5580,7 +5579,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="57">
         <v>8</v>
       </c>
@@ -5588,7 +5587,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="57" t="s">
         <v>56</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="57" t="s">
         <v>144</v>
       </c>
@@ -5604,7 +5603,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="57" t="s">
         <v>145</v>
       </c>
@@ -5612,7 +5611,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="57" t="s">
         <v>57</v>
       </c>
@@ -5620,7 +5619,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="57" t="s">
         <v>10</v>
       </c>
@@ -5628,7 +5627,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="59" t="s">
         <v>21</v>
       </c>
@@ -5653,35 +5652,35 @@
   </sheetPr>
   <dimension ref="A1:AQ76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="60" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="AF12" sqref="AF12"/>
+      <selection pane="bottomRight" activeCell="J50" sqref="J50:K50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="23.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" style="46" customWidth="1"/>
-    <col min="2" max="2" width="44.59765625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="12.1328125" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.265625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="7.73046875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="6.86328125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="6.73046875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="8.86328125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="46" customWidth="1"/>
+    <col min="2" max="2" width="44.5703125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="20" customWidth="1"/>
     <col min="9" max="9" width="8" style="20" customWidth="1"/>
-    <col min="10" max="33" width="9.1328125" style="20"/>
-    <col min="34" max="34" width="8.3984375" style="20" customWidth="1"/>
-    <col min="35" max="35" width="22.265625" style="20" customWidth="1"/>
+    <col min="10" max="33" width="9.140625" style="20"/>
+    <col min="34" max="34" width="8.42578125" style="20" customWidth="1"/>
+    <col min="35" max="35" width="22.28515625" style="20" customWidth="1"/>
     <col min="36" max="36" width="10" style="18" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="12.59765625" style="18" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="7.73046875" style="13" customWidth="1"/>
-    <col min="39" max="43" width="9.1328125" style="13"/>
-    <col min="44" max="16384" width="9.1328125" style="14"/>
+    <col min="37" max="37" width="12.5703125" style="18" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="7.7109375" style="13" customWidth="1"/>
+    <col min="39" max="43" width="9.140625" style="13"/>
+    <col min="44" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:37" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="163" t="str">
         <f>IF(COUNTIF(D7:AH7,"&lt;0")&gt;0,"Form has Validation Errors, Please correct before uploading","")</f>
         <v/>
@@ -5718,7 +5717,7 @@
       <c r="AF1" s="163"/>
       <c r="AG1" s="163"/>
     </row>
-    <row r="2" spans="1:37" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:37" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="37"/>
       <c r="C2" s="38"/>
       <c r="D2" s="39"/>
@@ -5756,33 +5755,33 @@
       <c r="AJ2" s="35"/>
       <c r="AK2" s="36"/>
     </row>
-    <row r="3" spans="1:37" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:37" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="47"/>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="168" t="s">
         <v>108</v>
       </c>
       <c r="C3" s="164"/>
-      <c r="D3" s="177" t="s">
+      <c r="D3" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
       <c r="I3" s="164" t="s">
         <v>109</v>
       </c>
       <c r="J3" s="164"/>
       <c r="K3" s="164"/>
-      <c r="L3" s="175" t="s">
+      <c r="L3" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
       <c r="S3" s="164" t="s">
         <v>110</v>
       </c>
@@ -5815,42 +5814,42 @@
       <c r="AJ3" s="40"/>
       <c r="AK3" s="36"/>
     </row>
-    <row r="4" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="169" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="170"/>
-      <c r="U4" s="170"/>
-      <c r="V4" s="170"/>
-      <c r="W4" s="170"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="170"/>
-      <c r="AA4" s="170"/>
-      <c r="AB4" s="170"/>
-      <c r="AC4" s="170"/>
-      <c r="AD4" s="170"/>
-      <c r="AE4" s="170"/>
-      <c r="AF4" s="170"/>
-      <c r="AG4" s="170"/>
-      <c r="AH4" s="170"/>
+    <row r="4" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="172" t="s">
+        <v>169</v>
+      </c>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="173"/>
+      <c r="T4" s="173"/>
+      <c r="U4" s="173"/>
+      <c r="V4" s="173"/>
+      <c r="W4" s="173"/>
+      <c r="X4" s="173"/>
+      <c r="Y4" s="173"/>
+      <c r="Z4" s="173"/>
+      <c r="AA4" s="173"/>
+      <c r="AB4" s="173"/>
+      <c r="AC4" s="173"/>
+      <c r="AD4" s="173"/>
+      <c r="AE4" s="173"/>
+      <c r="AF4" s="173"/>
+      <c r="AG4" s="173"/>
+      <c r="AH4" s="173"/>
       <c r="AI4" s="185" t="s">
         <v>0</v>
       </c>
@@ -5859,40 +5858,40 @@
       </c>
       <c r="AK4" s="183"/>
     </row>
-    <row r="5" spans="1:37" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="169"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="170"/>
-      <c r="Q5" s="170"/>
-      <c r="R5" s="170"/>
-      <c r="S5" s="170"/>
-      <c r="T5" s="170"/>
-      <c r="U5" s="170"/>
-      <c r="V5" s="170"/>
-      <c r="W5" s="170"/>
-      <c r="X5" s="170"/>
-      <c r="Y5" s="170"/>
-      <c r="Z5" s="170"/>
-      <c r="AA5" s="170"/>
-      <c r="AB5" s="170"/>
-      <c r="AC5" s="170"/>
-      <c r="AD5" s="170"/>
-      <c r="AE5" s="170"/>
-      <c r="AF5" s="170"/>
-      <c r="AG5" s="170"/>
-      <c r="AH5" s="170"/>
+    <row r="5" spans="1:37" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="172"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="173"/>
+      <c r="Z5" s="173"/>
+      <c r="AA5" s="173"/>
+      <c r="AB5" s="173"/>
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="173"/>
+      <c r="AE5" s="173"/>
+      <c r="AF5" s="173"/>
+      <c r="AG5" s="173"/>
+      <c r="AH5" s="173"/>
       <c r="AI5" s="186"/>
       <c r="AJ5" s="178" t="s">
         <v>10</v>
@@ -5901,7 +5900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>70</v>
       </c>
@@ -6006,7 +6005,7 @@
       <c r="AJ6" s="179"/>
       <c r="AK6" s="181"/>
     </row>
-    <row r="7" spans="1:37" ht="54.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:37" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="161" t="s">
         <v>153</v>
       </c>
@@ -6142,7 +6141,7 @@
       <c r="AJ7" s="33"/>
       <c r="AK7" s="34"/>
     </row>
-    <row r="8" spans="1:37" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:37" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="162"/>
       <c r="B8" s="126" t="s">
         <v>23</v>
@@ -6183,7 +6182,7 @@
       <c r="AJ8" s="31"/>
       <c r="AK8" s="30"/>
     </row>
-    <row r="9" spans="1:37" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:37" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="162"/>
       <c r="B9" s="127" t="s">
         <v>24</v>
@@ -6224,7 +6223,7 @@
       <c r="AJ9" s="50"/>
       <c r="AK9" s="51"/>
     </row>
-    <row r="10" spans="1:37" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:37" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="162"/>
       <c r="B10" s="127" t="s">
         <v>151</v>
@@ -6265,7 +6264,7 @@
       <c r="AJ10" s="99"/>
       <c r="AK10" s="100"/>
     </row>
-    <row r="11" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="162"/>
       <c r="B11" s="128" t="s">
         <v>147</v>
@@ -6306,7 +6305,7 @@
       <c r="AJ11" s="99"/>
       <c r="AK11" s="100"/>
     </row>
-    <row r="12" spans="1:37" ht="41.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:37" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="199" t="s">
         <v>152</v>
       </c>
@@ -6349,7 +6348,7 @@
       <c r="AJ12" s="31"/>
       <c r="AK12" s="30"/>
     </row>
-    <row r="13" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="200"/>
       <c r="B13" s="118" t="s">
         <v>24</v>
@@ -6390,7 +6389,7 @@
       <c r="AJ13" s="50"/>
       <c r="AK13" s="51"/>
     </row>
-    <row r="14" spans="1:37" ht="36.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:37" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="200"/>
       <c r="B14" s="118" t="s">
         <v>151</v>
@@ -6431,7 +6430,7 @@
       <c r="AJ14" s="99"/>
       <c r="AK14" s="100"/>
     </row>
-    <row r="15" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="201"/>
       <c r="B15" s="119" t="s">
         <v>147</v>
@@ -6472,12 +6471,12 @@
       <c r="AJ15" s="99"/>
       <c r="AK15" s="100"/>
     </row>
-    <row r="16" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="46" t="str">
         <f>"miap"&amp;C16</f>
         <v>miap1st</v>
       </c>
-      <c r="B16" s="167" t="s">
+      <c r="B16" s="170" t="s">
         <v>150</v>
       </c>
       <c r="C16" s="104" t="s">
@@ -6521,16 +6520,16 @@
       <c r="AJ16" s="33"/>
       <c r="AK16" s="34"/>
     </row>
-    <row r="17" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="46" t="str">
         <f t="shared" ref="A17:A46" si="0">"miap"&amp;C17</f>
         <v>miap2nd</v>
       </c>
-      <c r="B17" s="167"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="184" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="173"/>
+      <c r="D17" s="176"/>
       <c r="E17" s="72"/>
       <c r="F17" s="98"/>
       <c r="G17" s="98"/>
@@ -6568,17 +6567,17 @@
       <c r="AJ17" s="31"/>
       <c r="AK17" s="30"/>
     </row>
-    <row r="18" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap3rd</v>
       </c>
-      <c r="B18" s="167"/>
-      <c r="C18" s="171" t="s">
+      <c r="B18" s="170"/>
+      <c r="C18" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="172"/>
-      <c r="E18" s="173"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="176"/>
       <c r="F18" s="72"/>
       <c r="G18" s="98"/>
       <c r="H18" s="98"/>
@@ -6615,18 +6614,18 @@
       <c r="AJ18" s="31"/>
       <c r="AK18" s="30"/>
     </row>
-    <row r="19" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap4th</v>
       </c>
-      <c r="B19" s="167"/>
-      <c r="C19" s="171" t="s">
+      <c r="B19" s="170"/>
+      <c r="C19" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="173"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="176"/>
       <c r="G19" s="72"/>
       <c r="H19" s="98"/>
       <c r="I19" s="98"/>
@@ -6662,19 +6661,19 @@
       <c r="AJ19" s="31"/>
       <c r="AK19" s="30"/>
     </row>
-    <row r="20" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap5th</v>
       </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="171" t="s">
+      <c r="B20" s="170"/>
+      <c r="C20" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="173"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="176"/>
       <c r="H20" s="72"/>
       <c r="I20" s="98"/>
       <c r="J20" s="98"/>
@@ -6709,20 +6708,20 @@
       <c r="AJ20" s="31"/>
       <c r="AK20" s="30"/>
     </row>
-    <row r="21" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap6th</v>
       </c>
-      <c r="B21" s="167"/>
-      <c r="C21" s="171" t="s">
+      <c r="B21" s="170"/>
+      <c r="C21" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="173"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="176"/>
       <c r="I21" s="72"/>
       <c r="J21" s="98"/>
       <c r="K21" s="98"/>
@@ -6756,21 +6755,21 @@
       <c r="AJ21" s="31"/>
       <c r="AK21" s="30"/>
     </row>
-    <row r="22" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap7th</v>
       </c>
-      <c r="B22" s="167"/>
-      <c r="C22" s="171" t="s">
+      <c r="B22" s="170"/>
+      <c r="C22" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="173"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="176"/>
       <c r="J22" s="72"/>
       <c r="K22" s="98"/>
       <c r="L22" s="98"/>
@@ -6803,22 +6802,22 @@
       <c r="AJ22" s="31"/>
       <c r="AK22" s="30"/>
     </row>
-    <row r="23" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap8th</v>
       </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="171" t="s">
+      <c r="B23" s="170"/>
+      <c r="C23" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="173"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="176"/>
       <c r="K23" s="72"/>
       <c r="L23" s="98"/>
       <c r="M23" s="98"/>
@@ -6850,23 +6849,23 @@
       <c r="AJ23" s="31"/>
       <c r="AK23" s="30"/>
     </row>
-    <row r="24" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap9th</v>
       </c>
-      <c r="B24" s="167"/>
-      <c r="C24" s="171" t="s">
+      <c r="B24" s="170"/>
+      <c r="C24" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="173"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="176"/>
       <c r="L24" s="72"/>
       <c r="M24" s="98"/>
       <c r="N24" s="98"/>
@@ -6897,24 +6896,24 @@
       <c r="AJ24" s="31"/>
       <c r="AK24" s="30"/>
     </row>
-    <row r="25" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap10th</v>
       </c>
-      <c r="B25" s="167"/>
-      <c r="C25" s="171" t="s">
+      <c r="B25" s="170"/>
+      <c r="C25" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="172"/>
-      <c r="L25" s="173"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="176"/>
       <c r="M25" s="72"/>
       <c r="N25" s="98"/>
       <c r="O25" s="98"/>
@@ -6944,25 +6943,25 @@
       <c r="AJ25" s="31"/>
       <c r="AK25" s="30"/>
     </row>
-    <row r="26" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap11th</v>
       </c>
-      <c r="B26" s="167"/>
-      <c r="C26" s="171" t="s">
+      <c r="B26" s="170"/>
+      <c r="C26" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="172"/>
-      <c r="L26" s="172"/>
-      <c r="M26" s="173"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
+      <c r="M26" s="176"/>
       <c r="N26" s="72"/>
       <c r="O26" s="98"/>
       <c r="P26" s="98"/>
@@ -6991,26 +6990,26 @@
       <c r="AJ26" s="31"/>
       <c r="AK26" s="30"/>
     </row>
-    <row r="27" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap12th</v>
       </c>
-      <c r="B27" s="167"/>
-      <c r="C27" s="171" t="s">
+      <c r="B27" s="170"/>
+      <c r="C27" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
-      <c r="K27" s="172"/>
-      <c r="L27" s="172"/>
-      <c r="M27" s="172"/>
-      <c r="N27" s="174"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="175"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="177"/>
       <c r="O27" s="72"/>
       <c r="P27" s="98"/>
       <c r="Q27" s="98"/>
@@ -7038,26 +7037,26 @@
       <c r="AJ27" s="31"/>
       <c r="AK27" s="30"/>
     </row>
-    <row r="28" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap13th</v>
       </c>
-      <c r="B28" s="167"/>
-      <c r="C28" s="171" t="s">
+      <c r="B28" s="170"/>
+      <c r="C28" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="172"/>
-      <c r="L28" s="172"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="172"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="175"/>
       <c r="O28" s="210"/>
       <c r="P28" s="72"/>
       <c r="Q28" s="98"/>
@@ -7085,28 +7084,28 @@
       <c r="AJ28" s="31"/>
       <c r="AK28" s="30"/>
     </row>
-    <row r="29" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap14th</v>
       </c>
-      <c r="B29" s="167"/>
-      <c r="C29" s="171" t="s">
+      <c r="B29" s="170"/>
+      <c r="C29" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="172"/>
-      <c r="M29" s="172"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="172"/>
-      <c r="P29" s="174"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="175"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="177"/>
       <c r="Q29" s="72"/>
       <c r="R29" s="98"/>
       <c r="S29" s="98"/>
@@ -7132,29 +7131,29 @@
       <c r="AJ29" s="31"/>
       <c r="AK29" s="30"/>
     </row>
-    <row r="30" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap15th</v>
       </c>
-      <c r="B30" s="167"/>
-      <c r="C30" s="171" t="s">
+      <c r="B30" s="170"/>
+      <c r="C30" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
-      <c r="K30" s="172"/>
-      <c r="L30" s="172"/>
-      <c r="M30" s="172"/>
-      <c r="N30" s="172"/>
-      <c r="O30" s="172"/>
-      <c r="P30" s="172"/>
-      <c r="Q30" s="172"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="175"/>
+      <c r="M30" s="175"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="175"/>
+      <c r="Q30" s="175"/>
       <c r="R30" s="72"/>
       <c r="S30" s="98"/>
       <c r="T30" s="98"/>
@@ -7179,30 +7178,30 @@
       <c r="AJ30" s="31"/>
       <c r="AK30" s="30"/>
     </row>
-    <row r="31" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap16th</v>
       </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="171" t="s">
+      <c r="B31" s="170"/>
+      <c r="C31" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
-      <c r="K31" s="172"/>
-      <c r="L31" s="172"/>
-      <c r="M31" s="172"/>
-      <c r="N31" s="172"/>
-      <c r="O31" s="172"/>
-      <c r="P31" s="172"/>
-      <c r="Q31" s="172"/>
-      <c r="R31" s="172"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="175"/>
+      <c r="M31" s="175"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="175"/>
+      <c r="R31" s="175"/>
       <c r="S31" s="72"/>
       <c r="T31" s="98"/>
       <c r="U31" s="98"/>
@@ -7226,31 +7225,31 @@
       <c r="AJ31" s="31"/>
       <c r="AK31" s="30"/>
     </row>
-    <row r="32" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap17th</v>
       </c>
-      <c r="B32" s="167"/>
-      <c r="C32" s="171" t="s">
+      <c r="B32" s="170"/>
+      <c r="C32" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
-      <c r="K32" s="172"/>
-      <c r="L32" s="172"/>
-      <c r="M32" s="172"/>
-      <c r="N32" s="172"/>
-      <c r="O32" s="172"/>
-      <c r="P32" s="172"/>
-      <c r="Q32" s="172"/>
-      <c r="R32" s="172"/>
-      <c r="S32" s="172"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="175"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="175"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="175"/>
       <c r="T32" s="72"/>
       <c r="U32" s="98"/>
       <c r="V32" s="98"/>
@@ -7273,32 +7272,32 @@
       <c r="AJ32" s="31"/>
       <c r="AK32" s="30"/>
     </row>
-    <row r="33" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap18th</v>
       </c>
-      <c r="B33" s="167"/>
-      <c r="C33" s="171" t="s">
+      <c r="B33" s="170"/>
+      <c r="C33" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="172"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
-      <c r="K33" s="172"/>
-      <c r="L33" s="172"/>
-      <c r="M33" s="172"/>
-      <c r="N33" s="172"/>
-      <c r="O33" s="172"/>
-      <c r="P33" s="172"/>
-      <c r="Q33" s="172"/>
-      <c r="R33" s="172"/>
-      <c r="S33" s="172"/>
-      <c r="T33" s="172"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="175"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="175"/>
+      <c r="M33" s="175"/>
+      <c r="N33" s="175"/>
+      <c r="O33" s="175"/>
+      <c r="P33" s="175"/>
+      <c r="Q33" s="175"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="175"/>
       <c r="U33" s="72"/>
       <c r="V33" s="98"/>
       <c r="W33" s="98"/>
@@ -7320,33 +7319,33 @@
       <c r="AJ33" s="31"/>
       <c r="AK33" s="30"/>
     </row>
-    <row r="34" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap19th</v>
       </c>
-      <c r="B34" s="167"/>
-      <c r="C34" s="171" t="s">
+      <c r="B34" s="170"/>
+      <c r="C34" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="172"/>
-      <c r="L34" s="172"/>
-      <c r="M34" s="172"/>
-      <c r="N34" s="172"/>
-      <c r="O34" s="172"/>
-      <c r="P34" s="172"/>
-      <c r="Q34" s="172"/>
-      <c r="R34" s="172"/>
-      <c r="S34" s="172"/>
-      <c r="T34" s="172"/>
-      <c r="U34" s="172"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="175"/>
+      <c r="L34" s="175"/>
+      <c r="M34" s="175"/>
+      <c r="N34" s="175"/>
+      <c r="O34" s="175"/>
+      <c r="P34" s="175"/>
+      <c r="Q34" s="175"/>
+      <c r="R34" s="175"/>
+      <c r="S34" s="175"/>
+      <c r="T34" s="175"/>
+      <c r="U34" s="175"/>
       <c r="V34" s="72"/>
       <c r="W34" s="98"/>
       <c r="X34" s="98"/>
@@ -7367,34 +7366,34 @@
       <c r="AJ34" s="31"/>
       <c r="AK34" s="30"/>
     </row>
-    <row r="35" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap20th</v>
       </c>
-      <c r="B35" s="167"/>
-      <c r="C35" s="171" t="s">
+      <c r="B35" s="170"/>
+      <c r="C35" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="172"/>
-      <c r="L35" s="172"/>
-      <c r="M35" s="172"/>
-      <c r="N35" s="172"/>
-      <c r="O35" s="172"/>
-      <c r="P35" s="172"/>
-      <c r="Q35" s="172"/>
-      <c r="R35" s="172"/>
-      <c r="S35" s="172"/>
-      <c r="T35" s="172"/>
-      <c r="U35" s="172"/>
-      <c r="V35" s="172"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="175"/>
+      <c r="L35" s="175"/>
+      <c r="M35" s="175"/>
+      <c r="N35" s="175"/>
+      <c r="O35" s="175"/>
+      <c r="P35" s="175"/>
+      <c r="Q35" s="175"/>
+      <c r="R35" s="175"/>
+      <c r="S35" s="175"/>
+      <c r="T35" s="175"/>
+      <c r="U35" s="175"/>
+      <c r="V35" s="175"/>
       <c r="W35" s="72"/>
       <c r="X35" s="98"/>
       <c r="Y35" s="98"/>
@@ -7414,35 +7413,35 @@
       <c r="AJ35" s="31"/>
       <c r="AK35" s="30"/>
     </row>
-    <row r="36" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap21st</v>
       </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="171" t="s">
+      <c r="B36" s="170"/>
+      <c r="C36" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="172"/>
-      <c r="L36" s="172"/>
-      <c r="M36" s="172"/>
-      <c r="N36" s="172"/>
-      <c r="O36" s="172"/>
-      <c r="P36" s="172"/>
-      <c r="Q36" s="172"/>
-      <c r="R36" s="172"/>
-      <c r="S36" s="172"/>
-      <c r="T36" s="172"/>
-      <c r="U36" s="172"/>
-      <c r="V36" s="172"/>
-      <c r="W36" s="172"/>
+      <c r="D36" s="175"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="175"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="175"/>
+      <c r="K36" s="175"/>
+      <c r="L36" s="175"/>
+      <c r="M36" s="175"/>
+      <c r="N36" s="175"/>
+      <c r="O36" s="175"/>
+      <c r="P36" s="175"/>
+      <c r="Q36" s="175"/>
+      <c r="R36" s="175"/>
+      <c r="S36" s="175"/>
+      <c r="T36" s="175"/>
+      <c r="U36" s="175"/>
+      <c r="V36" s="175"/>
+      <c r="W36" s="175"/>
       <c r="X36" s="72"/>
       <c r="Y36" s="98"/>
       <c r="Z36" s="98"/>
@@ -7461,36 +7460,36 @@
       <c r="AJ36" s="31"/>
       <c r="AK36" s="30"/>
     </row>
-    <row r="37" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap22nd</v>
       </c>
-      <c r="B37" s="167"/>
-      <c r="C37" s="171" t="s">
+      <c r="B37" s="170"/>
+      <c r="C37" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="172"/>
-      <c r="E37" s="172"/>
-      <c r="F37" s="172"/>
-      <c r="G37" s="172"/>
-      <c r="H37" s="172"/>
-      <c r="I37" s="172"/>
-      <c r="J37" s="172"/>
-      <c r="K37" s="172"/>
-      <c r="L37" s="172"/>
-      <c r="M37" s="172"/>
-      <c r="N37" s="172"/>
-      <c r="O37" s="172"/>
-      <c r="P37" s="172"/>
-      <c r="Q37" s="172"/>
-      <c r="R37" s="172"/>
-      <c r="S37" s="172"/>
-      <c r="T37" s="172"/>
-      <c r="U37" s="172"/>
-      <c r="V37" s="172"/>
-      <c r="W37" s="172"/>
-      <c r="X37" s="172"/>
+      <c r="D37" s="175"/>
+      <c r="E37" s="175"/>
+      <c r="F37" s="175"/>
+      <c r="G37" s="175"/>
+      <c r="H37" s="175"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="175"/>
+      <c r="K37" s="175"/>
+      <c r="L37" s="175"/>
+      <c r="M37" s="175"/>
+      <c r="N37" s="175"/>
+      <c r="O37" s="175"/>
+      <c r="P37" s="175"/>
+      <c r="Q37" s="175"/>
+      <c r="R37" s="175"/>
+      <c r="S37" s="175"/>
+      <c r="T37" s="175"/>
+      <c r="U37" s="175"/>
+      <c r="V37" s="175"/>
+      <c r="W37" s="175"/>
+      <c r="X37" s="175"/>
       <c r="Y37" s="72"/>
       <c r="Z37" s="98"/>
       <c r="AA37" s="98"/>
@@ -7508,37 +7507,37 @@
       <c r="AJ37" s="31"/>
       <c r="AK37" s="30"/>
     </row>
-    <row r="38" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap23rd</v>
       </c>
-      <c r="B38" s="167"/>
-      <c r="C38" s="171" t="s">
+      <c r="B38" s="170"/>
+      <c r="C38" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="172"/>
-      <c r="E38" s="172"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="172"/>
-      <c r="H38" s="172"/>
-      <c r="I38" s="172"/>
-      <c r="J38" s="172"/>
-      <c r="K38" s="172"/>
-      <c r="L38" s="172"/>
-      <c r="M38" s="172"/>
-      <c r="N38" s="172"/>
-      <c r="O38" s="172"/>
-      <c r="P38" s="172"/>
-      <c r="Q38" s="172"/>
-      <c r="R38" s="172"/>
-      <c r="S38" s="172"/>
-      <c r="T38" s="172"/>
-      <c r="U38" s="172"/>
-      <c r="V38" s="172"/>
-      <c r="W38" s="172"/>
-      <c r="X38" s="172"/>
-      <c r="Y38" s="172"/>
+      <c r="D38" s="175"/>
+      <c r="E38" s="175"/>
+      <c r="F38" s="175"/>
+      <c r="G38" s="175"/>
+      <c r="H38" s="175"/>
+      <c r="I38" s="175"/>
+      <c r="J38" s="175"/>
+      <c r="K38" s="175"/>
+      <c r="L38" s="175"/>
+      <c r="M38" s="175"/>
+      <c r="N38" s="175"/>
+      <c r="O38" s="175"/>
+      <c r="P38" s="175"/>
+      <c r="Q38" s="175"/>
+      <c r="R38" s="175"/>
+      <c r="S38" s="175"/>
+      <c r="T38" s="175"/>
+      <c r="U38" s="175"/>
+      <c r="V38" s="175"/>
+      <c r="W38" s="175"/>
+      <c r="X38" s="175"/>
+      <c r="Y38" s="175"/>
       <c r="Z38" s="72"/>
       <c r="AA38" s="98"/>
       <c r="AB38" s="98"/>
@@ -7555,38 +7554,38 @@
       <c r="AJ38" s="31"/>
       <c r="AK38" s="30"/>
     </row>
-    <row r="39" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap24th</v>
       </c>
-      <c r="B39" s="167"/>
-      <c r="C39" s="171" t="s">
+      <c r="B39" s="170"/>
+      <c r="C39" s="174" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="172"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
-      <c r="K39" s="172"/>
-      <c r="L39" s="172"/>
-      <c r="M39" s="172"/>
-      <c r="N39" s="172"/>
-      <c r="O39" s="172"/>
-      <c r="P39" s="172"/>
-      <c r="Q39" s="172"/>
-      <c r="R39" s="172"/>
-      <c r="S39" s="172"/>
-      <c r="T39" s="172"/>
-      <c r="U39" s="172"/>
-      <c r="V39" s="172"/>
-      <c r="W39" s="172"/>
-      <c r="X39" s="172"/>
-      <c r="Y39" s="172"/>
-      <c r="Z39" s="172"/>
+      <c r="D39" s="175"/>
+      <c r="E39" s="175"/>
+      <c r="F39" s="175"/>
+      <c r="G39" s="175"/>
+      <c r="H39" s="175"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="175"/>
+      <c r="K39" s="175"/>
+      <c r="L39" s="175"/>
+      <c r="M39" s="175"/>
+      <c r="N39" s="175"/>
+      <c r="O39" s="175"/>
+      <c r="P39" s="175"/>
+      <c r="Q39" s="175"/>
+      <c r="R39" s="175"/>
+      <c r="S39" s="175"/>
+      <c r="T39" s="175"/>
+      <c r="U39" s="175"/>
+      <c r="V39" s="175"/>
+      <c r="W39" s="175"/>
+      <c r="X39" s="175"/>
+      <c r="Y39" s="175"/>
+      <c r="Z39" s="175"/>
       <c r="AA39" s="72"/>
       <c r="AB39" s="98"/>
       <c r="AC39" s="98"/>
@@ -7602,39 +7601,39 @@
       <c r="AJ39" s="31"/>
       <c r="AK39" s="30"/>
     </row>
-    <row r="40" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap25th</v>
       </c>
-      <c r="B40" s="167"/>
-      <c r="C40" s="171" t="s">
+      <c r="B40" s="170"/>
+      <c r="C40" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="172"/>
-      <c r="E40" s="172"/>
-      <c r="F40" s="172"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="172"/>
-      <c r="K40" s="172"/>
-      <c r="L40" s="172"/>
-      <c r="M40" s="172"/>
-      <c r="N40" s="172"/>
-      <c r="O40" s="172"/>
-      <c r="P40" s="172"/>
-      <c r="Q40" s="172"/>
-      <c r="R40" s="172"/>
-      <c r="S40" s="172"/>
-      <c r="T40" s="172"/>
-      <c r="U40" s="172"/>
-      <c r="V40" s="172"/>
-      <c r="W40" s="172"/>
-      <c r="X40" s="172"/>
-      <c r="Y40" s="172"/>
-      <c r="Z40" s="172"/>
-      <c r="AA40" s="172"/>
+      <c r="D40" s="175"/>
+      <c r="E40" s="175"/>
+      <c r="F40" s="175"/>
+      <c r="G40" s="175"/>
+      <c r="H40" s="175"/>
+      <c r="I40" s="175"/>
+      <c r="J40" s="175"/>
+      <c r="K40" s="175"/>
+      <c r="L40" s="175"/>
+      <c r="M40" s="175"/>
+      <c r="N40" s="175"/>
+      <c r="O40" s="175"/>
+      <c r="P40" s="175"/>
+      <c r="Q40" s="175"/>
+      <c r="R40" s="175"/>
+      <c r="S40" s="175"/>
+      <c r="T40" s="175"/>
+      <c r="U40" s="175"/>
+      <c r="V40" s="175"/>
+      <c r="W40" s="175"/>
+      <c r="X40" s="175"/>
+      <c r="Y40" s="175"/>
+      <c r="Z40" s="175"/>
+      <c r="AA40" s="175"/>
       <c r="AB40" s="72"/>
       <c r="AC40" s="98"/>
       <c r="AD40" s="98"/>
@@ -7649,40 +7648,40 @@
       <c r="AJ40" s="31"/>
       <c r="AK40" s="30"/>
     </row>
-    <row r="41" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap26th</v>
       </c>
-      <c r="B41" s="167"/>
-      <c r="C41" s="171" t="s">
+      <c r="B41" s="170"/>
+      <c r="C41" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="172"/>
-      <c r="E41" s="172"/>
-      <c r="F41" s="172"/>
-      <c r="G41" s="172"/>
-      <c r="H41" s="172"/>
-      <c r="I41" s="172"/>
-      <c r="J41" s="172"/>
-      <c r="K41" s="172"/>
-      <c r="L41" s="172"/>
-      <c r="M41" s="172"/>
-      <c r="N41" s="172"/>
-      <c r="O41" s="172"/>
-      <c r="P41" s="172"/>
-      <c r="Q41" s="172"/>
-      <c r="R41" s="172"/>
-      <c r="S41" s="172"/>
-      <c r="T41" s="172"/>
-      <c r="U41" s="172"/>
-      <c r="V41" s="172"/>
-      <c r="W41" s="172"/>
-      <c r="X41" s="172"/>
-      <c r="Y41" s="172"/>
-      <c r="Z41" s="172"/>
-      <c r="AA41" s="172"/>
-      <c r="AB41" s="172"/>
+      <c r="D41" s="175"/>
+      <c r="E41" s="175"/>
+      <c r="F41" s="175"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="175"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="175"/>
+      <c r="K41" s="175"/>
+      <c r="L41" s="175"/>
+      <c r="M41" s="175"/>
+      <c r="N41" s="175"/>
+      <c r="O41" s="175"/>
+      <c r="P41" s="175"/>
+      <c r="Q41" s="175"/>
+      <c r="R41" s="175"/>
+      <c r="S41" s="175"/>
+      <c r="T41" s="175"/>
+      <c r="U41" s="175"/>
+      <c r="V41" s="175"/>
+      <c r="W41" s="175"/>
+      <c r="X41" s="175"/>
+      <c r="Y41" s="175"/>
+      <c r="Z41" s="175"/>
+      <c r="AA41" s="175"/>
+      <c r="AB41" s="175"/>
       <c r="AC41" s="72"/>
       <c r="AD41" s="98"/>
       <c r="AE41" s="98"/>
@@ -7696,41 +7695,41 @@
       <c r="AJ41" s="31"/>
       <c r="AK41" s="30"/>
     </row>
-    <row r="42" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap27th</v>
       </c>
-      <c r="B42" s="167"/>
-      <c r="C42" s="171" t="s">
+      <c r="B42" s="170"/>
+      <c r="C42" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="172"/>
-      <c r="E42" s="172"/>
-      <c r="F42" s="172"/>
-      <c r="G42" s="172"/>
-      <c r="H42" s="172"/>
-      <c r="I42" s="172"/>
-      <c r="J42" s="172"/>
-      <c r="K42" s="172"/>
-      <c r="L42" s="172"/>
-      <c r="M42" s="172"/>
-      <c r="N42" s="172"/>
-      <c r="O42" s="172"/>
-      <c r="P42" s="172"/>
-      <c r="Q42" s="172"/>
-      <c r="R42" s="172"/>
-      <c r="S42" s="172"/>
-      <c r="T42" s="172"/>
-      <c r="U42" s="172"/>
-      <c r="V42" s="172"/>
-      <c r="W42" s="172"/>
-      <c r="X42" s="172"/>
-      <c r="Y42" s="172"/>
-      <c r="Z42" s="172"/>
-      <c r="AA42" s="172"/>
-      <c r="AB42" s="172"/>
-      <c r="AC42" s="172"/>
+      <c r="D42" s="175"/>
+      <c r="E42" s="175"/>
+      <c r="F42" s="175"/>
+      <c r="G42" s="175"/>
+      <c r="H42" s="175"/>
+      <c r="I42" s="175"/>
+      <c r="J42" s="175"/>
+      <c r="K42" s="175"/>
+      <c r="L42" s="175"/>
+      <c r="M42" s="175"/>
+      <c r="N42" s="175"/>
+      <c r="O42" s="175"/>
+      <c r="P42" s="175"/>
+      <c r="Q42" s="175"/>
+      <c r="R42" s="175"/>
+      <c r="S42" s="175"/>
+      <c r="T42" s="175"/>
+      <c r="U42" s="175"/>
+      <c r="V42" s="175"/>
+      <c r="W42" s="175"/>
+      <c r="X42" s="175"/>
+      <c r="Y42" s="175"/>
+      <c r="Z42" s="175"/>
+      <c r="AA42" s="175"/>
+      <c r="AB42" s="175"/>
+      <c r="AC42" s="175"/>
       <c r="AD42" s="72"/>
       <c r="AE42" s="98"/>
       <c r="AF42" s="98"/>
@@ -7743,42 +7742,42 @@
       <c r="AJ42" s="31"/>
       <c r="AK42" s="30"/>
     </row>
-    <row r="43" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap28th</v>
       </c>
-      <c r="B43" s="167"/>
-      <c r="C43" s="171" t="s">
+      <c r="B43" s="170"/>
+      <c r="C43" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="172"/>
-      <c r="E43" s="172"/>
-      <c r="F43" s="172"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="172"/>
-      <c r="I43" s="172"/>
-      <c r="J43" s="172"/>
-      <c r="K43" s="172"/>
-      <c r="L43" s="172"/>
-      <c r="M43" s="172"/>
-      <c r="N43" s="172"/>
-      <c r="O43" s="172"/>
-      <c r="P43" s="172"/>
-      <c r="Q43" s="172"/>
-      <c r="R43" s="172"/>
-      <c r="S43" s="172"/>
-      <c r="T43" s="172"/>
-      <c r="U43" s="172"/>
-      <c r="V43" s="172"/>
-      <c r="W43" s="172"/>
-      <c r="X43" s="172"/>
-      <c r="Y43" s="172"/>
-      <c r="Z43" s="172"/>
-      <c r="AA43" s="172"/>
-      <c r="AB43" s="172"/>
-      <c r="AC43" s="172"/>
-      <c r="AD43" s="172"/>
+      <c r="D43" s="175"/>
+      <c r="E43" s="175"/>
+      <c r="F43" s="175"/>
+      <c r="G43" s="175"/>
+      <c r="H43" s="175"/>
+      <c r="I43" s="175"/>
+      <c r="J43" s="175"/>
+      <c r="K43" s="175"/>
+      <c r="L43" s="175"/>
+      <c r="M43" s="175"/>
+      <c r="N43" s="175"/>
+      <c r="O43" s="175"/>
+      <c r="P43" s="175"/>
+      <c r="Q43" s="175"/>
+      <c r="R43" s="175"/>
+      <c r="S43" s="175"/>
+      <c r="T43" s="175"/>
+      <c r="U43" s="175"/>
+      <c r="V43" s="175"/>
+      <c r="W43" s="175"/>
+      <c r="X43" s="175"/>
+      <c r="Y43" s="175"/>
+      <c r="Z43" s="175"/>
+      <c r="AA43" s="175"/>
+      <c r="AB43" s="175"/>
+      <c r="AC43" s="175"/>
+      <c r="AD43" s="175"/>
       <c r="AE43" s="72"/>
       <c r="AF43" s="98"/>
       <c r="AG43" s="98"/>
@@ -7790,12 +7789,12 @@
       <c r="AJ43" s="31"/>
       <c r="AK43" s="30"/>
     </row>
-    <row r="44" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap29th</v>
       </c>
-      <c r="B44" s="167"/>
+      <c r="B44" s="170"/>
       <c r="C44" s="204" t="s">
         <v>52</v>
       </c>
@@ -7837,12 +7836,12 @@
       <c r="AJ44" s="31"/>
       <c r="AK44" s="30"/>
     </row>
-    <row r="45" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap30th</v>
       </c>
-      <c r="B45" s="167"/>
+      <c r="B45" s="170"/>
       <c r="C45" s="204" t="s">
         <v>53</v>
       </c>
@@ -7884,12 +7883,12 @@
       <c r="AJ45" s="31"/>
       <c r="AK45" s="30"/>
     </row>
-    <row r="46" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:37" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="46" t="str">
         <f t="shared" si="0"/>
         <v>miap31st</v>
       </c>
-      <c r="B46" s="167"/>
+      <c r="B46" s="170"/>
       <c r="C46" s="206" t="s">
         <v>54</v>
       </c>
@@ -7931,11 +7930,11 @@
       <c r="AJ46" s="31"/>
       <c r="AK46" s="30"/>
     </row>
-    <row r="47" spans="1:37" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:37" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="168"/>
+      <c r="B47" s="171"/>
       <c r="C47" s="208" t="s">
         <v>2</v>
       </c>
@@ -7983,7 +7982,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48"/>
       <c r="B48" s="16"/>
       <c r="C48" s="21"/>
@@ -8022,7 +8021,7 @@
       <c r="AJ48" s="19"/>
       <c r="AK48" s="19"/>
     </row>
-    <row r="49" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="B49" s="16"/>
       <c r="C49" s="194" t="s">
@@ -8065,7 +8064,7 @@
       <c r="AJ49" s="19"/>
       <c r="AK49" s="19"/>
     </row>
-    <row r="50" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48"/>
       <c r="B50" s="16"/>
       <c r="C50" s="191" t="s">
@@ -8109,7 +8108,7 @@
       <c r="AJ50" s="19"/>
       <c r="AK50" s="19"/>
     </row>
-    <row r="51" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48"/>
       <c r="B51" s="16"/>
       <c r="C51" s="191" t="s">
@@ -8153,7 +8152,7 @@
       <c r="AJ51" s="19"/>
       <c r="AK51" s="19"/>
     </row>
-    <row r="52" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48"/>
       <c r="B52" s="16"/>
       <c r="C52" s="191" t="s">
@@ -8197,7 +8196,7 @@
       <c r="AJ52" s="19"/>
       <c r="AK52" s="19"/>
     </row>
-    <row r="53" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
       <c r="C53" s="198" t="s">
         <v>130</v>
@@ -8240,7 +8239,7 @@
       <c r="AJ53" s="19"/>
       <c r="AK53" s="19"/>
     </row>
-    <row r="54" spans="1:37" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:37" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
       <c r="B54" s="16"/>
       <c r="C54" s="191" t="s">
@@ -8284,7 +8283,7 @@
       <c r="AJ54" s="19"/>
       <c r="AK54" s="19"/>
     </row>
-    <row r="55" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
       <c r="B55" s="16"/>
       <c r="D55" s="19"/>
@@ -8322,7 +8321,7 @@
       <c r="AJ55" s="19"/>
       <c r="AK55" s="19"/>
     </row>
-    <row r="56" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="16"/>
       <c r="D56" s="19"/>
@@ -8360,7 +8359,7 @@
       <c r="AJ56" s="19"/>
       <c r="AK56" s="19"/>
     </row>
-    <row r="57" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
       <c r="B57" s="16"/>
       <c r="D57" s="19"/>
@@ -8398,7 +8397,7 @@
       <c r="AJ57" s="19"/>
       <c r="AK57" s="19"/>
     </row>
-    <row r="58" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48"/>
       <c r="B58" s="16"/>
       <c r="D58" s="19"/>
@@ -8436,7 +8435,7 @@
       <c r="AJ58" s="19"/>
       <c r="AK58" s="19"/>
     </row>
-    <row r="59" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48"/>
       <c r="B59" s="16"/>
       <c r="D59" s="19"/>
@@ -8474,7 +8473,7 @@
       <c r="AJ59" s="19"/>
       <c r="AK59" s="19"/>
     </row>
-    <row r="60" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
       <c r="B60" s="16"/>
       <c r="D60" s="19"/>
@@ -8512,7 +8511,7 @@
       <c r="AJ60" s="19"/>
       <c r="AK60" s="19"/>
     </row>
-    <row r="61" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
       <c r="B61" s="16"/>
       <c r="D61" s="19"/>
@@ -8550,7 +8549,7 @@
       <c r="AJ61" s="19"/>
       <c r="AK61" s="19"/>
     </row>
-    <row r="62" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" s="16"/>
       <c r="D62" s="19"/>
@@ -8588,7 +8587,7 @@
       <c r="AJ62" s="19"/>
       <c r="AK62" s="19"/>
     </row>
-    <row r="63" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48"/>
       <c r="B63" s="16"/>
       <c r="D63" s="19"/>
@@ -8626,7 +8625,7 @@
       <c r="AJ63" s="19"/>
       <c r="AK63" s="19"/>
     </row>
-    <row r="64" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48"/>
       <c r="B64" s="16"/>
       <c r="D64" s="19"/>
@@ -8664,7 +8663,7 @@
       <c r="AJ64" s="19"/>
       <c r="AK64" s="19"/>
     </row>
-    <row r="65" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48"/>
       <c r="B65" s="16"/>
       <c r="D65" s="19"/>
@@ -8702,7 +8701,7 @@
       <c r="AJ65" s="19"/>
       <c r="AK65" s="19"/>
     </row>
-    <row r="66" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48"/>
       <c r="B66" s="16"/>
       <c r="D66" s="19"/>
@@ -8740,7 +8739,7 @@
       <c r="AJ66" s="19"/>
       <c r="AK66" s="19"/>
     </row>
-    <row r="67" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48"/>
       <c r="B67" s="16"/>
       <c r="D67" s="19"/>
@@ -8778,7 +8777,7 @@
       <c r="AJ67" s="19"/>
       <c r="AK67" s="19"/>
     </row>
-    <row r="68" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48"/>
       <c r="B68" s="16"/>
       <c r="D68" s="19"/>
@@ -8816,7 +8815,7 @@
       <c r="AJ68" s="19"/>
       <c r="AK68" s="19"/>
     </row>
-    <row r="69" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="48"/>
       <c r="B69" s="16"/>
       <c r="D69" s="19"/>
@@ -8854,7 +8853,7 @@
       <c r="AJ69" s="19"/>
       <c r="AK69" s="19"/>
     </row>
-    <row r="70" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="48"/>
       <c r="B70" s="16"/>
       <c r="D70" s="19"/>
@@ -8892,7 +8891,7 @@
       <c r="AJ70" s="19"/>
       <c r="AK70" s="19"/>
     </row>
-    <row r="71" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="48"/>
       <c r="B71" s="16"/>
       <c r="D71" s="19"/>
@@ -8930,7 +8929,7 @@
       <c r="AJ71" s="19"/>
       <c r="AK71" s="19"/>
     </row>
-    <row r="72" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="48"/>
       <c r="B72" s="16"/>
       <c r="D72" s="19"/>
@@ -8968,7 +8967,7 @@
       <c r="AJ72" s="19"/>
       <c r="AK72" s="19"/>
     </row>
-    <row r="73" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="48"/>
       <c r="B73" s="16"/>
       <c r="D73" s="19"/>
@@ -9006,7 +9005,7 @@
       <c r="AJ73" s="19"/>
       <c r="AK73" s="19"/>
     </row>
-    <row r="74" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="48"/>
       <c r="B74" s="16"/>
       <c r="D74" s="19"/>
@@ -9044,7 +9043,7 @@
       <c r="AJ74" s="19"/>
       <c r="AK74" s="19"/>
     </row>
-    <row r="75" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="48"/>
       <c r="B75" s="16"/>
       <c r="D75" s="19"/>
@@ -9082,7 +9081,7 @@
       <c r="AJ75" s="19"/>
       <c r="AK75" s="19"/>
     </row>
-    <row r="76" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="48"/>
       <c r="B76" s="16"/>
       <c r="D76" s="19"/>
@@ -9121,7 +9120,7 @@
       <c r="AK76" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection password="CC71" sheet="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <mergeCells count="64">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="M47:AH47"/>
@@ -9628,32 +9627,32 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="23.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" style="46" customWidth="1"/>
-    <col min="2" max="2" width="39.3984375" style="61" customWidth="1"/>
-    <col min="3" max="3" width="9.59765625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="8.265625" style="20" customWidth="1"/>
-    <col min="5" max="5" width="7.73046875" style="20" customWidth="1"/>
-    <col min="6" max="6" width="6.86328125" style="20" customWidth="1"/>
-    <col min="7" max="7" width="6.73046875" style="20" customWidth="1"/>
-    <col min="8" max="8" width="8.86328125" style="20" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="46" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="61" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" style="14" customWidth="1"/>
+    <col min="4" max="4" width="8.28515625" style="20" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="20" customWidth="1"/>
+    <col min="6" max="6" width="6.85546875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="6.7109375" style="20" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="20" customWidth="1"/>
     <col min="9" max="9" width="8" style="20" customWidth="1"/>
-    <col min="10" max="33" width="9.1328125" style="20"/>
-    <col min="34" max="34" width="8.3984375" style="20" customWidth="1"/>
-    <col min="35" max="35" width="22.265625" style="20" customWidth="1"/>
+    <col min="10" max="33" width="9.140625" style="20"/>
+    <col min="34" max="34" width="8.42578125" style="20" customWidth="1"/>
+    <col min="35" max="35" width="22.28515625" style="20" customWidth="1"/>
     <col min="36" max="36" width="10" style="18" customWidth="1"/>
-    <col min="37" max="37" width="12.59765625" style="18" customWidth="1"/>
-    <col min="38" max="38" width="7.73046875" style="13" customWidth="1"/>
-    <col min="39" max="43" width="9.1328125" style="13"/>
-    <col min="44" max="16384" width="9.1328125" style="14"/>
+    <col min="37" max="37" width="12.5703125" style="18" customWidth="1"/>
+    <col min="38" max="38" width="7.7109375" style="13" customWidth="1"/>
+    <col min="39" max="43" width="9.140625" style="13"/>
+    <col min="44" max="16384" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="1:37" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:37" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:37" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="62"/>
       <c r="C2" s="38"/>
       <c r="D2" s="39"/>
@@ -9691,33 +9690,33 @@
       <c r="AJ2" s="35"/>
       <c r="AK2" s="36"/>
     </row>
-    <row r="3" spans="1:37" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:37" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="47"/>
-      <c r="B3" s="176" t="s">
+      <c r="B3" s="168" t="s">
         <v>108</v>
       </c>
       <c r="C3" s="164"/>
-      <c r="D3" s="177" t="s">
+      <c r="D3" s="169" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="177"/>
-      <c r="F3" s="177"/>
-      <c r="G3" s="177"/>
-      <c r="H3" s="177"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
       <c r="I3" s="164" t="s">
         <v>109</v>
       </c>
       <c r="J3" s="164"/>
       <c r="K3" s="164"/>
-      <c r="L3" s="175" t="s">
+      <c r="L3" s="167" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="175"/>
-      <c r="N3" s="175"/>
-      <c r="O3" s="175"/>
-      <c r="P3" s="175"/>
-      <c r="Q3" s="175"/>
-      <c r="R3" s="175"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
       <c r="S3" s="164" t="s">
         <v>110</v>
       </c>
@@ -9750,42 +9749,42 @@
       <c r="AJ3" s="40"/>
       <c r="AK3" s="36"/>
     </row>
-    <row r="4" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="169" t="s">
-        <v>156</v>
-      </c>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="170"/>
-      <c r="U4" s="170"/>
-      <c r="V4" s="170"/>
-      <c r="W4" s="170"/>
-      <c r="X4" s="170"/>
-      <c r="Y4" s="170"/>
-      <c r="Z4" s="170"/>
-      <c r="AA4" s="170"/>
-      <c r="AB4" s="170"/>
-      <c r="AC4" s="170"/>
-      <c r="AD4" s="170"/>
-      <c r="AE4" s="170"/>
-      <c r="AF4" s="170"/>
-      <c r="AG4" s="170"/>
-      <c r="AH4" s="170"/>
+    <row r="4" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="172" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="173"/>
+      <c r="D4" s="173"/>
+      <c r="E4" s="173"/>
+      <c r="F4" s="173"/>
+      <c r="G4" s="173"/>
+      <c r="H4" s="173"/>
+      <c r="I4" s="173"/>
+      <c r="J4" s="173"/>
+      <c r="K4" s="173"/>
+      <c r="L4" s="173"/>
+      <c r="M4" s="173"/>
+      <c r="N4" s="173"/>
+      <c r="O4" s="173"/>
+      <c r="P4" s="173"/>
+      <c r="Q4" s="173"/>
+      <c r="R4" s="173"/>
+      <c r="S4" s="173"/>
+      <c r="T4" s="173"/>
+      <c r="U4" s="173"/>
+      <c r="V4" s="173"/>
+      <c r="W4" s="173"/>
+      <c r="X4" s="173"/>
+      <c r="Y4" s="173"/>
+      <c r="Z4" s="173"/>
+      <c r="AA4" s="173"/>
+      <c r="AB4" s="173"/>
+      <c r="AC4" s="173"/>
+      <c r="AD4" s="173"/>
+      <c r="AE4" s="173"/>
+      <c r="AF4" s="173"/>
+      <c r="AG4" s="173"/>
+      <c r="AH4" s="173"/>
       <c r="AI4" s="185" t="s">
         <v>115</v>
       </c>
@@ -9794,40 +9793,40 @@
       </c>
       <c r="AK4" s="183"/>
     </row>
-    <row r="5" spans="1:37" ht="23.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B5" s="169"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="170"/>
-      <c r="Q5" s="170"/>
-      <c r="R5" s="170"/>
-      <c r="S5" s="170"/>
-      <c r="T5" s="170"/>
-      <c r="U5" s="170"/>
-      <c r="V5" s="170"/>
-      <c r="W5" s="170"/>
-      <c r="X5" s="170"/>
-      <c r="Y5" s="170"/>
-      <c r="Z5" s="170"/>
-      <c r="AA5" s="170"/>
-      <c r="AB5" s="170"/>
-      <c r="AC5" s="170"/>
-      <c r="AD5" s="170"/>
-      <c r="AE5" s="170"/>
-      <c r="AF5" s="170"/>
-      <c r="AG5" s="170"/>
-      <c r="AH5" s="170"/>
+    <row r="5" spans="1:37" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="172"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
+      <c r="E5" s="173"/>
+      <c r="F5" s="173"/>
+      <c r="G5" s="173"/>
+      <c r="H5" s="173"/>
+      <c r="I5" s="173"/>
+      <c r="J5" s="173"/>
+      <c r="K5" s="173"/>
+      <c r="L5" s="173"/>
+      <c r="M5" s="173"/>
+      <c r="N5" s="173"/>
+      <c r="O5" s="173"/>
+      <c r="P5" s="173"/>
+      <c r="Q5" s="173"/>
+      <c r="R5" s="173"/>
+      <c r="S5" s="173"/>
+      <c r="T5" s="173"/>
+      <c r="U5" s="173"/>
+      <c r="V5" s="173"/>
+      <c r="W5" s="173"/>
+      <c r="X5" s="173"/>
+      <c r="Y5" s="173"/>
+      <c r="Z5" s="173"/>
+      <c r="AA5" s="173"/>
+      <c r="AB5" s="173"/>
+      <c r="AC5" s="173"/>
+      <c r="AD5" s="173"/>
+      <c r="AE5" s="173"/>
+      <c r="AF5" s="173"/>
+      <c r="AG5" s="173"/>
+      <c r="AH5" s="173"/>
       <c r="AI5" s="186"/>
       <c r="AJ5" s="178" t="s">
         <v>10</v>
@@ -9836,7 +9835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="46" t="s">
         <v>70</v>
       </c>
@@ -9941,7 +9940,7 @@
       <c r="AJ6" s="179"/>
       <c r="AK6" s="181"/>
     </row>
-    <row r="7" spans="1:37" ht="36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:37" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
         <v>1</v>
       </c>
@@ -9984,7 +9983,7 @@
       <c r="AJ7" s="33"/>
       <c r="AK7" s="34"/>
     </row>
-    <row r="8" spans="1:37" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:37" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="46">
         <v>2</v>
       </c>
@@ -10027,7 +10026,7 @@
       <c r="AJ8" s="31"/>
       <c r="AK8" s="30"/>
     </row>
-    <row r="9" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46">
         <v>4</v>
       </c>
@@ -10075,15 +10074,15 @@
       <c r="AJ9" s="33"/>
       <c r="AK9" s="34"/>
     </row>
-    <row r="10" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46">
         <v>5</v>
       </c>
-      <c r="B10" s="167"/>
-      <c r="C10" s="171" t="s">
+      <c r="B10" s="170"/>
+      <c r="C10" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="173"/>
+      <c r="D10" s="176"/>
       <c r="E10" s="72"/>
       <c r="F10" s="98"/>
       <c r="G10" s="98"/>
@@ -10121,16 +10120,16 @@
       <c r="AJ10" s="31"/>
       <c r="AK10" s="30"/>
     </row>
-    <row r="11" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46">
         <v>6</v>
       </c>
-      <c r="B11" s="167"/>
-      <c r="C11" s="171" t="s">
+      <c r="B11" s="170"/>
+      <c r="C11" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="172"/>
-      <c r="E11" s="173"/>
+      <c r="D11" s="175"/>
+      <c r="E11" s="176"/>
       <c r="F11" s="72"/>
       <c r="G11" s="98"/>
       <c r="H11" s="98"/>
@@ -10167,17 +10166,17 @@
       <c r="AJ11" s="31"/>
       <c r="AK11" s="34"/>
     </row>
-    <row r="12" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="46">
         <v>7</v>
       </c>
-      <c r="B12" s="167"/>
-      <c r="C12" s="171" t="s">
+      <c r="B12" s="170"/>
+      <c r="C12" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="173"/>
+      <c r="D12" s="175"/>
+      <c r="E12" s="175"/>
+      <c r="F12" s="176"/>
       <c r="G12" s="72"/>
       <c r="H12" s="98"/>
       <c r="I12" s="98"/>
@@ -10213,18 +10212,18 @@
       <c r="AJ12" s="31"/>
       <c r="AK12" s="30"/>
     </row>
-    <row r="13" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46">
         <v>8</v>
       </c>
-      <c r="B13" s="167"/>
-      <c r="C13" s="171" t="s">
+      <c r="B13" s="170"/>
+      <c r="C13" s="174" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="173"/>
+      <c r="D13" s="175"/>
+      <c r="E13" s="175"/>
+      <c r="F13" s="175"/>
+      <c r="G13" s="176"/>
       <c r="H13" s="72"/>
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
@@ -10259,19 +10258,19 @@
       <c r="AJ13" s="31"/>
       <c r="AK13" s="30"/>
     </row>
-    <row r="14" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="46">
         <v>9</v>
       </c>
-      <c r="B14" s="167"/>
-      <c r="C14" s="171" t="s">
+      <c r="B14" s="170"/>
+      <c r="C14" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="173"/>
+      <c r="D14" s="175"/>
+      <c r="E14" s="175"/>
+      <c r="F14" s="175"/>
+      <c r="G14" s="175"/>
+      <c r="H14" s="176"/>
       <c r="I14" s="72"/>
       <c r="J14" s="98"/>
       <c r="K14" s="98"/>
@@ -10305,20 +10304,20 @@
       <c r="AJ14" s="31"/>
       <c r="AK14" s="30"/>
     </row>
-    <row r="15" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="46">
         <v>10</v>
       </c>
-      <c r="B15" s="167"/>
-      <c r="C15" s="171" t="s">
+      <c r="B15" s="170"/>
+      <c r="C15" s="174" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="173"/>
+      <c r="D15" s="175"/>
+      <c r="E15" s="175"/>
+      <c r="F15" s="175"/>
+      <c r="G15" s="175"/>
+      <c r="H15" s="175"/>
+      <c r="I15" s="176"/>
       <c r="J15" s="72"/>
       <c r="K15" s="98"/>
       <c r="L15" s="98"/>
@@ -10351,21 +10350,21 @@
       <c r="AJ15" s="31"/>
       <c r="AK15" s="30"/>
     </row>
-    <row r="16" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="46">
         <v>11</v>
       </c>
-      <c r="B16" s="167"/>
-      <c r="C16" s="171" t="s">
+      <c r="B16" s="170"/>
+      <c r="C16" s="174" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="172"/>
-      <c r="G16" s="172"/>
-      <c r="H16" s="172"/>
-      <c r="I16" s="172"/>
-      <c r="J16" s="173"/>
+      <c r="D16" s="175"/>
+      <c r="E16" s="175"/>
+      <c r="F16" s="175"/>
+      <c r="G16" s="175"/>
+      <c r="H16" s="175"/>
+      <c r="I16" s="175"/>
+      <c r="J16" s="176"/>
       <c r="K16" s="72"/>
       <c r="L16" s="98"/>
       <c r="M16" s="98"/>
@@ -10397,22 +10396,22 @@
       <c r="AJ16" s="31"/>
       <c r="AK16" s="30"/>
     </row>
-    <row r="17" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="46">
         <v>12</v>
       </c>
-      <c r="B17" s="167"/>
-      <c r="C17" s="171" t="s">
+      <c r="B17" s="170"/>
+      <c r="C17" s="174" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="172"/>
-      <c r="E17" s="172"/>
-      <c r="F17" s="172"/>
-      <c r="G17" s="172"/>
-      <c r="H17" s="172"/>
-      <c r="I17" s="172"/>
-      <c r="J17" s="172"/>
-      <c r="K17" s="173"/>
+      <c r="D17" s="175"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="175"/>
+      <c r="G17" s="175"/>
+      <c r="H17" s="175"/>
+      <c r="I17" s="175"/>
+      <c r="J17" s="175"/>
+      <c r="K17" s="176"/>
       <c r="L17" s="72"/>
       <c r="M17" s="98"/>
       <c r="N17" s="98"/>
@@ -10443,23 +10442,23 @@
       <c r="AJ17" s="31"/>
       <c r="AK17" s="30"/>
     </row>
-    <row r="18" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="46">
         <v>13</v>
       </c>
-      <c r="B18" s="167"/>
-      <c r="C18" s="171" t="s">
+      <c r="B18" s="170"/>
+      <c r="C18" s="174" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="173"/>
+      <c r="D18" s="175"/>
+      <c r="E18" s="175"/>
+      <c r="F18" s="175"/>
+      <c r="G18" s="175"/>
+      <c r="H18" s="175"/>
+      <c r="I18" s="175"/>
+      <c r="J18" s="175"/>
+      <c r="K18" s="175"/>
+      <c r="L18" s="176"/>
       <c r="M18" s="72"/>
       <c r="N18" s="98"/>
       <c r="O18" s="98"/>
@@ -10489,24 +10488,24 @@
       <c r="AJ18" s="31"/>
       <c r="AK18" s="30"/>
     </row>
-    <row r="19" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="46">
         <v>14</v>
       </c>
-      <c r="B19" s="167"/>
-      <c r="C19" s="171" t="s">
+      <c r="B19" s="170"/>
+      <c r="C19" s="174" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="172"/>
-      <c r="E19" s="172"/>
-      <c r="F19" s="172"/>
-      <c r="G19" s="172"/>
-      <c r="H19" s="172"/>
-      <c r="I19" s="172"/>
-      <c r="J19" s="172"/>
-      <c r="K19" s="172"/>
-      <c r="L19" s="172"/>
-      <c r="M19" s="173"/>
+      <c r="D19" s="175"/>
+      <c r="E19" s="175"/>
+      <c r="F19" s="175"/>
+      <c r="G19" s="175"/>
+      <c r="H19" s="175"/>
+      <c r="I19" s="175"/>
+      <c r="J19" s="175"/>
+      <c r="K19" s="175"/>
+      <c r="L19" s="175"/>
+      <c r="M19" s="176"/>
       <c r="N19" s="72"/>
       <c r="O19" s="98"/>
       <c r="P19" s="98"/>
@@ -10535,25 +10534,25 @@
       <c r="AJ19" s="31"/>
       <c r="AK19" s="30"/>
     </row>
-    <row r="20" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="46">
         <v>15</v>
       </c>
-      <c r="B20" s="167"/>
-      <c r="C20" s="171" t="s">
+      <c r="B20" s="170"/>
+      <c r="C20" s="174" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="172"/>
-      <c r="E20" s="172"/>
-      <c r="F20" s="172"/>
-      <c r="G20" s="172"/>
-      <c r="H20" s="172"/>
-      <c r="I20" s="172"/>
-      <c r="J20" s="172"/>
-      <c r="K20" s="172"/>
-      <c r="L20" s="172"/>
-      <c r="M20" s="172"/>
-      <c r="N20" s="174"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="175"/>
+      <c r="J20" s="175"/>
+      <c r="K20" s="175"/>
+      <c r="L20" s="175"/>
+      <c r="M20" s="175"/>
+      <c r="N20" s="177"/>
       <c r="O20" s="72"/>
       <c r="P20" s="98"/>
       <c r="Q20" s="98"/>
@@ -10581,25 +10580,25 @@
       <c r="AJ20" s="31"/>
       <c r="AK20" s="30"/>
     </row>
-    <row r="21" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="46">
         <v>16</v>
       </c>
-      <c r="B21" s="167"/>
-      <c r="C21" s="171" t="s">
+      <c r="B21" s="170"/>
+      <c r="C21" s="174" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="172"/>
-      <c r="E21" s="172"/>
-      <c r="F21" s="172"/>
-      <c r="G21" s="172"/>
-      <c r="H21" s="172"/>
-      <c r="I21" s="172"/>
-      <c r="J21" s="172"/>
-      <c r="K21" s="172"/>
-      <c r="L21" s="172"/>
-      <c r="M21" s="172"/>
-      <c r="N21" s="172"/>
+      <c r="D21" s="175"/>
+      <c r="E21" s="175"/>
+      <c r="F21" s="175"/>
+      <c r="G21" s="175"/>
+      <c r="H21" s="175"/>
+      <c r="I21" s="175"/>
+      <c r="J21" s="175"/>
+      <c r="K21" s="175"/>
+      <c r="L21" s="175"/>
+      <c r="M21" s="175"/>
+      <c r="N21" s="175"/>
       <c r="O21" s="210"/>
       <c r="P21" s="72"/>
       <c r="Q21" s="98"/>
@@ -10627,27 +10626,27 @@
       <c r="AJ21" s="31"/>
       <c r="AK21" s="30"/>
     </row>
-    <row r="22" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="46">
         <v>17</v>
       </c>
-      <c r="B22" s="167"/>
-      <c r="C22" s="171" t="s">
+      <c r="B22" s="170"/>
+      <c r="C22" s="174" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="172"/>
-      <c r="E22" s="172"/>
-      <c r="F22" s="172"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="172"/>
-      <c r="I22" s="172"/>
-      <c r="J22" s="172"/>
-      <c r="K22" s="172"/>
-      <c r="L22" s="172"/>
-      <c r="M22" s="172"/>
-      <c r="N22" s="172"/>
-      <c r="O22" s="172"/>
-      <c r="P22" s="174"/>
+      <c r="D22" s="175"/>
+      <c r="E22" s="175"/>
+      <c r="F22" s="175"/>
+      <c r="G22" s="175"/>
+      <c r="H22" s="175"/>
+      <c r="I22" s="175"/>
+      <c r="J22" s="175"/>
+      <c r="K22" s="175"/>
+      <c r="L22" s="175"/>
+      <c r="M22" s="175"/>
+      <c r="N22" s="175"/>
+      <c r="O22" s="175"/>
+      <c r="P22" s="177"/>
       <c r="Q22" s="72"/>
       <c r="R22" s="98"/>
       <c r="S22" s="98"/>
@@ -10673,28 +10672,28 @@
       <c r="AJ22" s="31"/>
       <c r="AK22" s="30"/>
     </row>
-    <row r="23" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="46">
         <v>18</v>
       </c>
-      <c r="B23" s="167"/>
-      <c r="C23" s="171" t="s">
+      <c r="B23" s="170"/>
+      <c r="C23" s="174" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="172"/>
-      <c r="E23" s="172"/>
-      <c r="F23" s="172"/>
-      <c r="G23" s="172"/>
-      <c r="H23" s="172"/>
-      <c r="I23" s="172"/>
-      <c r="J23" s="172"/>
-      <c r="K23" s="172"/>
-      <c r="L23" s="172"/>
-      <c r="M23" s="172"/>
-      <c r="N23" s="172"/>
-      <c r="O23" s="172"/>
-      <c r="P23" s="172"/>
-      <c r="Q23" s="172"/>
+      <c r="D23" s="175"/>
+      <c r="E23" s="175"/>
+      <c r="F23" s="175"/>
+      <c r="G23" s="175"/>
+      <c r="H23" s="175"/>
+      <c r="I23" s="175"/>
+      <c r="J23" s="175"/>
+      <c r="K23" s="175"/>
+      <c r="L23" s="175"/>
+      <c r="M23" s="175"/>
+      <c r="N23" s="175"/>
+      <c r="O23" s="175"/>
+      <c r="P23" s="175"/>
+      <c r="Q23" s="175"/>
       <c r="R23" s="72"/>
       <c r="S23" s="98"/>
       <c r="T23" s="98"/>
@@ -10719,29 +10718,29 @@
       <c r="AJ23" s="31"/>
       <c r="AK23" s="30"/>
     </row>
-    <row r="24" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="46">
         <v>19</v>
       </c>
-      <c r="B24" s="167"/>
-      <c r="C24" s="171" t="s">
+      <c r="B24" s="170"/>
+      <c r="C24" s="174" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="172"/>
-      <c r="E24" s="172"/>
-      <c r="F24" s="172"/>
-      <c r="G24" s="172"/>
-      <c r="H24" s="172"/>
-      <c r="I24" s="172"/>
-      <c r="J24" s="172"/>
-      <c r="K24" s="172"/>
-      <c r="L24" s="172"/>
-      <c r="M24" s="172"/>
-      <c r="N24" s="172"/>
-      <c r="O24" s="172"/>
-      <c r="P24" s="172"/>
-      <c r="Q24" s="172"/>
-      <c r="R24" s="172"/>
+      <c r="D24" s="175"/>
+      <c r="E24" s="175"/>
+      <c r="F24" s="175"/>
+      <c r="G24" s="175"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175"/>
+      <c r="K24" s="175"/>
+      <c r="L24" s="175"/>
+      <c r="M24" s="175"/>
+      <c r="N24" s="175"/>
+      <c r="O24" s="175"/>
+      <c r="P24" s="175"/>
+      <c r="Q24" s="175"/>
+      <c r="R24" s="175"/>
       <c r="S24" s="72"/>
       <c r="T24" s="98"/>
       <c r="U24" s="98"/>
@@ -10765,30 +10764,30 @@
       <c r="AJ24" s="31"/>
       <c r="AK24" s="30"/>
     </row>
-    <row r="25" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="46">
         <v>20</v>
       </c>
-      <c r="B25" s="167"/>
-      <c r="C25" s="171" t="s">
+      <c r="B25" s="170"/>
+      <c r="C25" s="174" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
-      <c r="F25" s="172"/>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="172"/>
-      <c r="J25" s="172"/>
-      <c r="K25" s="172"/>
-      <c r="L25" s="172"/>
-      <c r="M25" s="172"/>
-      <c r="N25" s="172"/>
-      <c r="O25" s="172"/>
-      <c r="P25" s="172"/>
-      <c r="Q25" s="172"/>
-      <c r="R25" s="172"/>
-      <c r="S25" s="172"/>
+      <c r="D25" s="175"/>
+      <c r="E25" s="175"/>
+      <c r="F25" s="175"/>
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="175"/>
+      <c r="J25" s="175"/>
+      <c r="K25" s="175"/>
+      <c r="L25" s="175"/>
+      <c r="M25" s="175"/>
+      <c r="N25" s="175"/>
+      <c r="O25" s="175"/>
+      <c r="P25" s="175"/>
+      <c r="Q25" s="175"/>
+      <c r="R25" s="175"/>
+      <c r="S25" s="175"/>
       <c r="T25" s="72"/>
       <c r="U25" s="98"/>
       <c r="V25" s="98"/>
@@ -10811,31 +10810,31 @@
       <c r="AJ25" s="31"/>
       <c r="AK25" s="30"/>
     </row>
-    <row r="26" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="46">
         <v>21</v>
       </c>
-      <c r="B26" s="167"/>
-      <c r="C26" s="171" t="s">
+      <c r="B26" s="170"/>
+      <c r="C26" s="174" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="172"/>
-      <c r="L26" s="172"/>
-      <c r="M26" s="172"/>
-      <c r="N26" s="172"/>
-      <c r="O26" s="172"/>
-      <c r="P26" s="172"/>
-      <c r="Q26" s="172"/>
-      <c r="R26" s="172"/>
-      <c r="S26" s="172"/>
-      <c r="T26" s="172"/>
+      <c r="D26" s="175"/>
+      <c r="E26" s="175"/>
+      <c r="F26" s="175"/>
+      <c r="G26" s="175"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175"/>
+      <c r="K26" s="175"/>
+      <c r="L26" s="175"/>
+      <c r="M26" s="175"/>
+      <c r="N26" s="175"/>
+      <c r="O26" s="175"/>
+      <c r="P26" s="175"/>
+      <c r="Q26" s="175"/>
+      <c r="R26" s="175"/>
+      <c r="S26" s="175"/>
+      <c r="T26" s="175"/>
       <c r="U26" s="72"/>
       <c r="V26" s="98"/>
       <c r="W26" s="98"/>
@@ -10857,32 +10856,32 @@
       <c r="AJ26" s="31"/>
       <c r="AK26" s="30"/>
     </row>
-    <row r="27" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="46">
         <v>22</v>
       </c>
-      <c r="B27" s="167"/>
-      <c r="C27" s="171" t="s">
+      <c r="B27" s="170"/>
+      <c r="C27" s="174" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
-      <c r="F27" s="172"/>
-      <c r="G27" s="172"/>
-      <c r="H27" s="172"/>
-      <c r="I27" s="172"/>
-      <c r="J27" s="172"/>
-      <c r="K27" s="172"/>
-      <c r="L27" s="172"/>
-      <c r="M27" s="172"/>
-      <c r="N27" s="172"/>
-      <c r="O27" s="172"/>
-      <c r="P27" s="172"/>
-      <c r="Q27" s="172"/>
-      <c r="R27" s="172"/>
-      <c r="S27" s="172"/>
-      <c r="T27" s="172"/>
-      <c r="U27" s="172"/>
+      <c r="D27" s="175"/>
+      <c r="E27" s="175"/>
+      <c r="F27" s="175"/>
+      <c r="G27" s="175"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="175"/>
+      <c r="K27" s="175"/>
+      <c r="L27" s="175"/>
+      <c r="M27" s="175"/>
+      <c r="N27" s="175"/>
+      <c r="O27" s="175"/>
+      <c r="P27" s="175"/>
+      <c r="Q27" s="175"/>
+      <c r="R27" s="175"/>
+      <c r="S27" s="175"/>
+      <c r="T27" s="175"/>
+      <c r="U27" s="175"/>
       <c r="V27" s="72"/>
       <c r="W27" s="98"/>
       <c r="X27" s="98"/>
@@ -10903,33 +10902,33 @@
       <c r="AJ27" s="31"/>
       <c r="AK27" s="30"/>
     </row>
-    <row r="28" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="46">
         <v>23</v>
       </c>
-      <c r="B28" s="167"/>
-      <c r="C28" s="171" t="s">
+      <c r="B28" s="170"/>
+      <c r="C28" s="174" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="172"/>
-      <c r="E28" s="172"/>
-      <c r="F28" s="172"/>
-      <c r="G28" s="172"/>
-      <c r="H28" s="172"/>
-      <c r="I28" s="172"/>
-      <c r="J28" s="172"/>
-      <c r="K28" s="172"/>
-      <c r="L28" s="172"/>
-      <c r="M28" s="172"/>
-      <c r="N28" s="172"/>
-      <c r="O28" s="172"/>
-      <c r="P28" s="172"/>
-      <c r="Q28" s="172"/>
-      <c r="R28" s="172"/>
-      <c r="S28" s="172"/>
-      <c r="T28" s="172"/>
-      <c r="U28" s="172"/>
-      <c r="V28" s="172"/>
+      <c r="D28" s="175"/>
+      <c r="E28" s="175"/>
+      <c r="F28" s="175"/>
+      <c r="G28" s="175"/>
+      <c r="H28" s="175"/>
+      <c r="I28" s="175"/>
+      <c r="J28" s="175"/>
+      <c r="K28" s="175"/>
+      <c r="L28" s="175"/>
+      <c r="M28" s="175"/>
+      <c r="N28" s="175"/>
+      <c r="O28" s="175"/>
+      <c r="P28" s="175"/>
+      <c r="Q28" s="175"/>
+      <c r="R28" s="175"/>
+      <c r="S28" s="175"/>
+      <c r="T28" s="175"/>
+      <c r="U28" s="175"/>
+      <c r="V28" s="175"/>
       <c r="W28" s="72"/>
       <c r="X28" s="98"/>
       <c r="Y28" s="98"/>
@@ -10949,34 +10948,34 @@
       <c r="AJ28" s="31"/>
       <c r="AK28" s="30"/>
     </row>
-    <row r="29" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="46">
         <v>24</v>
       </c>
-      <c r="B29" s="167"/>
-      <c r="C29" s="171" t="s">
+      <c r="B29" s="170"/>
+      <c r="C29" s="174" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
-      <c r="F29" s="172"/>
-      <c r="G29" s="172"/>
-      <c r="H29" s="172"/>
-      <c r="I29" s="172"/>
-      <c r="J29" s="172"/>
-      <c r="K29" s="172"/>
-      <c r="L29" s="172"/>
-      <c r="M29" s="172"/>
-      <c r="N29" s="172"/>
-      <c r="O29" s="172"/>
-      <c r="P29" s="172"/>
-      <c r="Q29" s="172"/>
-      <c r="R29" s="172"/>
-      <c r="S29" s="172"/>
-      <c r="T29" s="172"/>
-      <c r="U29" s="172"/>
-      <c r="V29" s="172"/>
-      <c r="W29" s="172"/>
+      <c r="D29" s="175"/>
+      <c r="E29" s="175"/>
+      <c r="F29" s="175"/>
+      <c r="G29" s="175"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175"/>
+      <c r="K29" s="175"/>
+      <c r="L29" s="175"/>
+      <c r="M29" s="175"/>
+      <c r="N29" s="175"/>
+      <c r="O29" s="175"/>
+      <c r="P29" s="175"/>
+      <c r="Q29" s="175"/>
+      <c r="R29" s="175"/>
+      <c r="S29" s="175"/>
+      <c r="T29" s="175"/>
+      <c r="U29" s="175"/>
+      <c r="V29" s="175"/>
+      <c r="W29" s="175"/>
       <c r="X29" s="72"/>
       <c r="Y29" s="98"/>
       <c r="Z29" s="98"/>
@@ -10995,35 +10994,35 @@
       <c r="AJ29" s="31"/>
       <c r="AK29" s="30"/>
     </row>
-    <row r="30" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="46">
         <v>25</v>
       </c>
-      <c r="B30" s="167"/>
-      <c r="C30" s="171" t="s">
+      <c r="B30" s="170"/>
+      <c r="C30" s="174" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="172"/>
-      <c r="E30" s="172"/>
-      <c r="F30" s="172"/>
-      <c r="G30" s="172"/>
-      <c r="H30" s="172"/>
-      <c r="I30" s="172"/>
-      <c r="J30" s="172"/>
-      <c r="K30" s="172"/>
-      <c r="L30" s="172"/>
-      <c r="M30" s="172"/>
-      <c r="N30" s="172"/>
-      <c r="O30" s="172"/>
-      <c r="P30" s="172"/>
-      <c r="Q30" s="172"/>
-      <c r="R30" s="172"/>
-      <c r="S30" s="172"/>
-      <c r="T30" s="172"/>
-      <c r="U30" s="172"/>
-      <c r="V30" s="172"/>
-      <c r="W30" s="172"/>
-      <c r="X30" s="172"/>
+      <c r="D30" s="175"/>
+      <c r="E30" s="175"/>
+      <c r="F30" s="175"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="175"/>
+      <c r="I30" s="175"/>
+      <c r="J30" s="175"/>
+      <c r="K30" s="175"/>
+      <c r="L30" s="175"/>
+      <c r="M30" s="175"/>
+      <c r="N30" s="175"/>
+      <c r="O30" s="175"/>
+      <c r="P30" s="175"/>
+      <c r="Q30" s="175"/>
+      <c r="R30" s="175"/>
+      <c r="S30" s="175"/>
+      <c r="T30" s="175"/>
+      <c r="U30" s="175"/>
+      <c r="V30" s="175"/>
+      <c r="W30" s="175"/>
+      <c r="X30" s="175"/>
       <c r="Y30" s="72"/>
       <c r="Z30" s="98"/>
       <c r="AA30" s="98"/>
@@ -11041,36 +11040,36 @@
       <c r="AJ30" s="31"/>
       <c r="AK30" s="30"/>
     </row>
-    <row r="31" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="46">
         <v>26</v>
       </c>
-      <c r="B31" s="167"/>
-      <c r="C31" s="171" t="s">
+      <c r="B31" s="170"/>
+      <c r="C31" s="174" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="172"/>
-      <c r="E31" s="172"/>
-      <c r="F31" s="172"/>
-      <c r="G31" s="172"/>
-      <c r="H31" s="172"/>
-      <c r="I31" s="172"/>
-      <c r="J31" s="172"/>
-      <c r="K31" s="172"/>
-      <c r="L31" s="172"/>
-      <c r="M31" s="172"/>
-      <c r="N31" s="172"/>
-      <c r="O31" s="172"/>
-      <c r="P31" s="172"/>
-      <c r="Q31" s="172"/>
-      <c r="R31" s="172"/>
-      <c r="S31" s="172"/>
-      <c r="T31" s="172"/>
-      <c r="U31" s="172"/>
-      <c r="V31" s="172"/>
-      <c r="W31" s="172"/>
-      <c r="X31" s="172"/>
-      <c r="Y31" s="172"/>
+      <c r="D31" s="175"/>
+      <c r="E31" s="175"/>
+      <c r="F31" s="175"/>
+      <c r="G31" s="175"/>
+      <c r="H31" s="175"/>
+      <c r="I31" s="175"/>
+      <c r="J31" s="175"/>
+      <c r="K31" s="175"/>
+      <c r="L31" s="175"/>
+      <c r="M31" s="175"/>
+      <c r="N31" s="175"/>
+      <c r="O31" s="175"/>
+      <c r="P31" s="175"/>
+      <c r="Q31" s="175"/>
+      <c r="R31" s="175"/>
+      <c r="S31" s="175"/>
+      <c r="T31" s="175"/>
+      <c r="U31" s="175"/>
+      <c r="V31" s="175"/>
+      <c r="W31" s="175"/>
+      <c r="X31" s="175"/>
+      <c r="Y31" s="175"/>
       <c r="Z31" s="72"/>
       <c r="AA31" s="98"/>
       <c r="AB31" s="98"/>
@@ -11087,37 +11086,37 @@
       <c r="AJ31" s="31"/>
       <c r="AK31" s="30"/>
     </row>
-    <row r="32" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="46">
         <v>27</v>
       </c>
-      <c r="B32" s="167"/>
-      <c r="C32" s="171" t="s">
+      <c r="B32" s="170"/>
+      <c r="C32" s="174" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="172"/>
-      <c r="E32" s="172"/>
-      <c r="F32" s="172"/>
-      <c r="G32" s="172"/>
-      <c r="H32" s="172"/>
-      <c r="I32" s="172"/>
-      <c r="J32" s="172"/>
-      <c r="K32" s="172"/>
-      <c r="L32" s="172"/>
-      <c r="M32" s="172"/>
-      <c r="N32" s="172"/>
-      <c r="O32" s="172"/>
-      <c r="P32" s="172"/>
-      <c r="Q32" s="172"/>
-      <c r="R32" s="172"/>
-      <c r="S32" s="172"/>
-      <c r="T32" s="172"/>
-      <c r="U32" s="172"/>
-      <c r="V32" s="172"/>
-      <c r="W32" s="172"/>
-      <c r="X32" s="172"/>
-      <c r="Y32" s="172"/>
-      <c r="Z32" s="172"/>
+      <c r="D32" s="175"/>
+      <c r="E32" s="175"/>
+      <c r="F32" s="175"/>
+      <c r="G32" s="175"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="175"/>
+      <c r="J32" s="175"/>
+      <c r="K32" s="175"/>
+      <c r="L32" s="175"/>
+      <c r="M32" s="175"/>
+      <c r="N32" s="175"/>
+      <c r="O32" s="175"/>
+      <c r="P32" s="175"/>
+      <c r="Q32" s="175"/>
+      <c r="R32" s="175"/>
+      <c r="S32" s="175"/>
+      <c r="T32" s="175"/>
+      <c r="U32" s="175"/>
+      <c r="V32" s="175"/>
+      <c r="W32" s="175"/>
+      <c r="X32" s="175"/>
+      <c r="Y32" s="175"/>
+      <c r="Z32" s="175"/>
       <c r="AA32" s="72"/>
       <c r="AB32" s="98"/>
       <c r="AC32" s="98"/>
@@ -11133,38 +11132,38 @@
       <c r="AJ32" s="31"/>
       <c r="AK32" s="30"/>
     </row>
-    <row r="33" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="46">
         <v>28</v>
       </c>
-      <c r="B33" s="167"/>
-      <c r="C33" s="171" t="s">
+      <c r="B33" s="170"/>
+      <c r="C33" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="172"/>
-      <c r="E33" s="172"/>
-      <c r="F33" s="172"/>
-      <c r="G33" s="172"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="172"/>
-      <c r="K33" s="172"/>
-      <c r="L33" s="172"/>
-      <c r="M33" s="172"/>
-      <c r="N33" s="172"/>
-      <c r="O33" s="172"/>
-      <c r="P33" s="172"/>
-      <c r="Q33" s="172"/>
-      <c r="R33" s="172"/>
-      <c r="S33" s="172"/>
-      <c r="T33" s="172"/>
-      <c r="U33" s="172"/>
-      <c r="V33" s="172"/>
-      <c r="W33" s="172"/>
-      <c r="X33" s="172"/>
-      <c r="Y33" s="172"/>
-      <c r="Z33" s="172"/>
-      <c r="AA33" s="172"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="175"/>
+      <c r="F33" s="175"/>
+      <c r="G33" s="175"/>
+      <c r="H33" s="175"/>
+      <c r="I33" s="175"/>
+      <c r="J33" s="175"/>
+      <c r="K33" s="175"/>
+      <c r="L33" s="175"/>
+      <c r="M33" s="175"/>
+      <c r="N33" s="175"/>
+      <c r="O33" s="175"/>
+      <c r="P33" s="175"/>
+      <c r="Q33" s="175"/>
+      <c r="R33" s="175"/>
+      <c r="S33" s="175"/>
+      <c r="T33" s="175"/>
+      <c r="U33" s="175"/>
+      <c r="V33" s="175"/>
+      <c r="W33" s="175"/>
+      <c r="X33" s="175"/>
+      <c r="Y33" s="175"/>
+      <c r="Z33" s="175"/>
+      <c r="AA33" s="175"/>
       <c r="AB33" s="72"/>
       <c r="AC33" s="98"/>
       <c r="AD33" s="98"/>
@@ -11179,39 +11178,39 @@
       <c r="AJ33" s="31"/>
       <c r="AK33" s="30"/>
     </row>
-    <row r="34" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="46">
         <v>29</v>
       </c>
-      <c r="B34" s="167"/>
-      <c r="C34" s="171" t="s">
+      <c r="B34" s="170"/>
+      <c r="C34" s="174" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="172"/>
-      <c r="E34" s="172"/>
-      <c r="F34" s="172"/>
-      <c r="G34" s="172"/>
-      <c r="H34" s="172"/>
-      <c r="I34" s="172"/>
-      <c r="J34" s="172"/>
-      <c r="K34" s="172"/>
-      <c r="L34" s="172"/>
-      <c r="M34" s="172"/>
-      <c r="N34" s="172"/>
-      <c r="O34" s="172"/>
-      <c r="P34" s="172"/>
-      <c r="Q34" s="172"/>
-      <c r="R34" s="172"/>
-      <c r="S34" s="172"/>
-      <c r="T34" s="172"/>
-      <c r="U34" s="172"/>
-      <c r="V34" s="172"/>
-      <c r="W34" s="172"/>
-      <c r="X34" s="172"/>
-      <c r="Y34" s="172"/>
-      <c r="Z34" s="172"/>
-      <c r="AA34" s="172"/>
-      <c r="AB34" s="172"/>
+      <c r="D34" s="175"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="175"/>
+      <c r="J34" s="175"/>
+      <c r="K34" s="175"/>
+      <c r="L34" s="175"/>
+      <c r="M34" s="175"/>
+      <c r="N34" s="175"/>
+      <c r="O34" s="175"/>
+      <c r="P34" s="175"/>
+      <c r="Q34" s="175"/>
+      <c r="R34" s="175"/>
+      <c r="S34" s="175"/>
+      <c r="T34" s="175"/>
+      <c r="U34" s="175"/>
+      <c r="V34" s="175"/>
+      <c r="W34" s="175"/>
+      <c r="X34" s="175"/>
+      <c r="Y34" s="175"/>
+      <c r="Z34" s="175"/>
+      <c r="AA34" s="175"/>
+      <c r="AB34" s="175"/>
       <c r="AC34" s="72"/>
       <c r="AD34" s="98"/>
       <c r="AE34" s="98"/>
@@ -11225,40 +11224,40 @@
       <c r="AJ34" s="31"/>
       <c r="AK34" s="30"/>
     </row>
-    <row r="35" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="46">
         <v>30</v>
       </c>
-      <c r="B35" s="167"/>
-      <c r="C35" s="171" t="s">
+      <c r="B35" s="170"/>
+      <c r="C35" s="174" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="172"/>
-      <c r="E35" s="172"/>
-      <c r="F35" s="172"/>
-      <c r="G35" s="172"/>
-      <c r="H35" s="172"/>
-      <c r="I35" s="172"/>
-      <c r="J35" s="172"/>
-      <c r="K35" s="172"/>
-      <c r="L35" s="172"/>
-      <c r="M35" s="172"/>
-      <c r="N35" s="172"/>
-      <c r="O35" s="172"/>
-      <c r="P35" s="172"/>
-      <c r="Q35" s="172"/>
-      <c r="R35" s="172"/>
-      <c r="S35" s="172"/>
-      <c r="T35" s="172"/>
-      <c r="U35" s="172"/>
-      <c r="V35" s="172"/>
-      <c r="W35" s="172"/>
-      <c r="X35" s="172"/>
-      <c r="Y35" s="172"/>
-      <c r="Z35" s="172"/>
-      <c r="AA35" s="172"/>
-      <c r="AB35" s="172"/>
-      <c r="AC35" s="172"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="175"/>
+      <c r="L35" s="175"/>
+      <c r="M35" s="175"/>
+      <c r="N35" s="175"/>
+      <c r="O35" s="175"/>
+      <c r="P35" s="175"/>
+      <c r="Q35" s="175"/>
+      <c r="R35" s="175"/>
+      <c r="S35" s="175"/>
+      <c r="T35" s="175"/>
+      <c r="U35" s="175"/>
+      <c r="V35" s="175"/>
+      <c r="W35" s="175"/>
+      <c r="X35" s="175"/>
+      <c r="Y35" s="175"/>
+      <c r="Z35" s="175"/>
+      <c r="AA35" s="175"/>
+      <c r="AB35" s="175"/>
+      <c r="AC35" s="175"/>
       <c r="AD35" s="72"/>
       <c r="AE35" s="98"/>
       <c r="AF35" s="98"/>
@@ -11271,41 +11270,41 @@
       <c r="AJ35" s="31"/>
       <c r="AK35" s="30"/>
     </row>
-    <row r="36" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="46">
         <v>31</v>
       </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="171" t="s">
+      <c r="B36" s="170"/>
+      <c r="C36" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="172"/>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="172"/>
-      <c r="L36" s="172"/>
-      <c r="M36" s="172"/>
-      <c r="N36" s="172"/>
-      <c r="O36" s="172"/>
-      <c r="P36" s="172"/>
-      <c r="Q36" s="172"/>
-      <c r="R36" s="172"/>
-      <c r="S36" s="172"/>
-      <c r="T36" s="172"/>
-      <c r="U36" s="172"/>
-      <c r="V36" s="172"/>
-      <c r="W36" s="172"/>
-      <c r="X36" s="172"/>
-      <c r="Y36" s="172"/>
-      <c r="Z36" s="172"/>
-      <c r="AA36" s="172"/>
-      <c r="AB36" s="172"/>
-      <c r="AC36" s="172"/>
-      <c r="AD36" s="172"/>
+      <c r="D36" s="175"/>
+      <c r="E36" s="175"/>
+      <c r="F36" s="175"/>
+      <c r="G36" s="175"/>
+      <c r="H36" s="175"/>
+      <c r="I36" s="175"/>
+      <c r="J36" s="175"/>
+      <c r="K36" s="175"/>
+      <c r="L36" s="175"/>
+      <c r="M36" s="175"/>
+      <c r="N36" s="175"/>
+      <c r="O36" s="175"/>
+      <c r="P36" s="175"/>
+      <c r="Q36" s="175"/>
+      <c r="R36" s="175"/>
+      <c r="S36" s="175"/>
+      <c r="T36" s="175"/>
+      <c r="U36" s="175"/>
+      <c r="V36" s="175"/>
+      <c r="W36" s="175"/>
+      <c r="X36" s="175"/>
+      <c r="Y36" s="175"/>
+      <c r="Z36" s="175"/>
+      <c r="AA36" s="175"/>
+      <c r="AB36" s="175"/>
+      <c r="AC36" s="175"/>
+      <c r="AD36" s="175"/>
       <c r="AE36" s="72"/>
       <c r="AF36" s="98"/>
       <c r="AG36" s="98"/>
@@ -11317,11 +11316,11 @@
       <c r="AJ36" s="31"/>
       <c r="AK36" s="30"/>
     </row>
-    <row r="37" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="46">
         <v>32</v>
       </c>
-      <c r="B37" s="167"/>
+      <c r="B37" s="170"/>
       <c r="C37" s="204" t="s">
         <v>52</v>
       </c>
@@ -11363,11 +11362,11 @@
       <c r="AJ37" s="31"/>
       <c r="AK37" s="30"/>
     </row>
-    <row r="38" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="46">
         <v>33</v>
       </c>
-      <c r="B38" s="167"/>
+      <c r="B38" s="170"/>
       <c r="C38" s="204" t="s">
         <v>53</v>
       </c>
@@ -11409,11 +11408,11 @@
       <c r="AJ38" s="31"/>
       <c r="AK38" s="30"/>
     </row>
-    <row r="39" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:37" s="13" customFormat="1" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="46">
         <v>34</v>
       </c>
-      <c r="B39" s="167"/>
+      <c r="B39" s="170"/>
       <c r="C39" s="206" t="s">
         <v>54</v>
       </c>
@@ -11455,11 +11454,11 @@
       <c r="AJ39" s="31"/>
       <c r="AK39" s="30"/>
     </row>
-    <row r="40" spans="1:37" s="13" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:37" s="13" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="46">
         <v>35</v>
       </c>
-      <c r="B40" s="168"/>
+      <c r="B40" s="171"/>
       <c r="C40" s="208" t="s">
         <v>2</v>
       </c>
@@ -11507,7 +11506,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="48"/>
       <c r="B41" s="66"/>
       <c r="C41" s="21"/>
@@ -11546,7 +11545,7 @@
       <c r="AJ41" s="19"/>
       <c r="AK41" s="19"/>
     </row>
-    <row r="42" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48"/>
       <c r="B42" s="66"/>
       <c r="C42" s="194" t="s">
@@ -11589,7 +11588,7 @@
       <c r="AJ42" s="19"/>
       <c r="AK42" s="19"/>
     </row>
-    <row r="43" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48"/>
       <c r="B43" s="66"/>
       <c r="C43" s="191" t="s">
@@ -11630,7 +11629,7 @@
       <c r="AJ43" s="19"/>
       <c r="AK43" s="19"/>
     </row>
-    <row r="44" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48"/>
       <c r="B44" s="66"/>
       <c r="C44" s="191" t="s">
@@ -11671,7 +11670,7 @@
       <c r="AJ44" s="19"/>
       <c r="AK44" s="19"/>
     </row>
-    <row r="45" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
       <c r="B45" s="66"/>
       <c r="C45" s="191" t="s">
@@ -11712,7 +11711,7 @@
       <c r="AJ45" s="19"/>
       <c r="AK45" s="19"/>
     </row>
-    <row r="46" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48"/>
       <c r="B46" s="67"/>
       <c r="C46" s="198" t="s">
@@ -11753,7 +11752,7 @@
       <c r="AJ46" s="19"/>
       <c r="AK46" s="19"/>
     </row>
-    <row r="47" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="48"/>
       <c r="B47" s="66"/>
       <c r="D47" s="19"/>
@@ -11791,7 +11790,7 @@
       <c r="AJ47" s="19"/>
       <c r="AK47" s="19"/>
     </row>
-    <row r="48" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="48"/>
       <c r="B48" s="66"/>
       <c r="D48" s="19"/>
@@ -11829,7 +11828,7 @@
       <c r="AJ48" s="19"/>
       <c r="AK48" s="19"/>
     </row>
-    <row r="49" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="B49" s="66"/>
       <c r="D49" s="19"/>
@@ -11867,7 +11866,7 @@
       <c r="AJ49" s="19"/>
       <c r="AK49" s="19"/>
     </row>
-    <row r="50" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48"/>
       <c r="B50" s="66"/>
       <c r="D50" s="19"/>
@@ -11905,7 +11904,7 @@
       <c r="AJ50" s="19"/>
       <c r="AK50" s="19"/>
     </row>
-    <row r="51" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48"/>
       <c r="B51" s="66"/>
       <c r="D51" s="19"/>
@@ -11943,7 +11942,7 @@
       <c r="AJ51" s="19"/>
       <c r="AK51" s="19"/>
     </row>
-    <row r="52" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48"/>
       <c r="B52" s="66"/>
       <c r="D52" s="19"/>
@@ -11981,7 +11980,7 @@
       <c r="AJ52" s="19"/>
       <c r="AK52" s="19"/>
     </row>
-    <row r="53" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
       <c r="B53" s="66"/>
       <c r="D53" s="19"/>
@@ -12019,7 +12018,7 @@
       <c r="AJ53" s="19"/>
       <c r="AK53" s="19"/>
     </row>
-    <row r="54" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
       <c r="B54" s="66"/>
       <c r="D54" s="19"/>
@@ -12057,7 +12056,7 @@
       <c r="AJ54" s="19"/>
       <c r="AK54" s="19"/>
     </row>
-    <row r="55" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="48"/>
       <c r="B55" s="66"/>
       <c r="D55" s="19"/>
@@ -12095,7 +12094,7 @@
       <c r="AJ55" s="19"/>
       <c r="AK55" s="19"/>
     </row>
-    <row r="56" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="48"/>
       <c r="B56" s="66"/>
       <c r="D56" s="19"/>
@@ -12133,7 +12132,7 @@
       <c r="AJ56" s="19"/>
       <c r="AK56" s="19"/>
     </row>
-    <row r="57" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="48"/>
       <c r="B57" s="66"/>
       <c r="D57" s="19"/>
@@ -12171,7 +12170,7 @@
       <c r="AJ57" s="19"/>
       <c r="AK57" s="19"/>
     </row>
-    <row r="58" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="48"/>
       <c r="B58" s="66"/>
       <c r="D58" s="19"/>
@@ -12209,7 +12208,7 @@
       <c r="AJ58" s="19"/>
       <c r="AK58" s="19"/>
     </row>
-    <row r="59" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="48"/>
       <c r="B59" s="66"/>
       <c r="D59" s="19"/>
@@ -12247,7 +12246,7 @@
       <c r="AJ59" s="19"/>
       <c r="AK59" s="19"/>
     </row>
-    <row r="60" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="48"/>
       <c r="B60" s="66"/>
       <c r="D60" s="19"/>
@@ -12285,7 +12284,7 @@
       <c r="AJ60" s="19"/>
       <c r="AK60" s="19"/>
     </row>
-    <row r="61" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="48"/>
       <c r="B61" s="66"/>
       <c r="D61" s="19"/>
@@ -12323,7 +12322,7 @@
       <c r="AJ61" s="19"/>
       <c r="AK61" s="19"/>
     </row>
-    <row r="62" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="48"/>
       <c r="B62" s="66"/>
       <c r="D62" s="19"/>
@@ -12361,7 +12360,7 @@
       <c r="AJ62" s="19"/>
       <c r="AK62" s="19"/>
     </row>
-    <row r="63" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="48"/>
       <c r="B63" s="66"/>
       <c r="D63" s="19"/>
@@ -12399,7 +12398,7 @@
       <c r="AJ63" s="19"/>
       <c r="AK63" s="19"/>
     </row>
-    <row r="64" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="48"/>
       <c r="B64" s="66"/>
       <c r="D64" s="19"/>
@@ -12437,7 +12436,7 @@
       <c r="AJ64" s="19"/>
       <c r="AK64" s="19"/>
     </row>
-    <row r="65" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="48"/>
       <c r="B65" s="66"/>
       <c r="D65" s="19"/>
@@ -12475,7 +12474,7 @@
       <c r="AJ65" s="19"/>
       <c r="AK65" s="19"/>
     </row>
-    <row r="66" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="48"/>
       <c r="B66" s="66"/>
       <c r="D66" s="19"/>
@@ -12513,7 +12512,7 @@
       <c r="AJ66" s="19"/>
       <c r="AK66" s="19"/>
     </row>
-    <row r="67" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="48"/>
       <c r="B67" s="66"/>
       <c r="D67" s="19"/>
@@ -12551,7 +12550,7 @@
       <c r="AJ67" s="19"/>
       <c r="AK67" s="19"/>
     </row>
-    <row r="68" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="48"/>
       <c r="B68" s="66"/>
       <c r="D68" s="19"/>
@@ -12590,7 +12589,7 @@
       <c r="AK68" s="19"/>
     </row>
   </sheetData>
-  <sheetProtection password="CC71" sheet="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="28TFat6YJBegy0WmpFFDPG8QNxXmE0gViFODKK9E3NMxjpopKPeLIw0JZvXMMUYfZYiINOqdL4YJvKko63NMjA==" saltValue="DEF05UHC+J/FOIx7FYMdHg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="59">
     <mergeCell ref="AI7:AI8"/>
     <mergeCell ref="L3:R3"/>
@@ -13051,28 +13050,28 @@
   <dimension ref="A1:AN223"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G212" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G17" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C229" sqref="C229"/>
+      <selection pane="bottomRight" activeCell="AL41" sqref="AL41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.86328125" style="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.73046875" style="70" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.73046875" style="70" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.86328125" style="70" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.85546875" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="70" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" style="70" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="70" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.73046875" style="78" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.265625" style="70" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="3.1328125" style="70" bestFit="1" customWidth="1"/>
-    <col min="17" max="38" width="4.1328125" style="70" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="5.1328125" style="70" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="10.3984375" style="78"/>
+    <col min="6" max="6" width="24.7109375" style="78" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="70" bestFit="1" customWidth="1"/>
+    <col min="8" max="16" width="3.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="17" max="38" width="4.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="5.140625" style="70" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="10.42578125" style="78"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="76" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:39" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="75" t="s">
         <v>70</v>
       </c>
@@ -13191,7 +13190,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="80" t="str">
         <f>CONCATENATE(D2,"_",C2,"_",B2,"_",F2)</f>
         <v>fmatt_202105_15288_miap_1st</v>
@@ -13344,7 +13343,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="str">
         <f t="shared" ref="A3:A75" si="0">CONCATENATE(D3,"_",C3,"_",B3,"_",F3)</f>
         <v>fmatt_202105_15288_miap_2nd</v>
@@ -13494,7 +13493,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_3rd</v>
@@ -13641,7 +13640,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_4th</v>
@@ -13785,7 +13784,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_5th</v>
@@ -13926,7 +13925,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_6th</v>
@@ -14064,7 +14063,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_7th</v>
@@ -14199,7 +14198,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_8th</v>
@@ -14331,7 +14330,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_9th</v>
@@ -14460,7 +14459,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_10th</v>
@@ -14586,7 +14585,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_11th</v>
@@ -14709,7 +14708,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_12th</v>
@@ -14829,7 +14828,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_13th</v>
@@ -14946,7 +14945,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A15" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_14th</v>
@@ -15060,7 +15059,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A16" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_15th</v>
@@ -15171,7 +15170,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_16th</v>
@@ -15279,7 +15278,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_17th</v>
@@ -15384,7 +15383,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_18th</v>
@@ -15486,7 +15485,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_19th</v>
@@ -15585,7 +15584,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_20th</v>
@@ -15681,7 +15680,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_21st</v>
@@ -15774,7 +15773,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_22nd</v>
@@ -15864,7 +15863,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_23rd</v>
@@ -15951,7 +15950,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_24th</v>
@@ -16035,7 +16034,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_25th</v>
@@ -16116,7 +16115,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_26th</v>
@@ -16194,7 +16193,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_27th</v>
@@ -16269,7 +16268,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_28th</v>
@@ -16341,7 +16340,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_29th</v>
@@ -16410,7 +16409,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_30th</v>
@@ -16476,7 +16475,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_31st</v>
@@ -16539,7 +16538,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A33" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap_total</v>
@@ -16599,7 +16598,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="145" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miapdef_total</v>
@@ -16757,7 +16756,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A35" s="147" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miap29_prevm_total</v>
@@ -16777,7 +16776,7 @@
         <v>75</v>
       </c>
       <c r="F35" s="149" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G35" s="148"/>
       <c r="H35" s="148" t="str">
@@ -16909,10 +16908,10 @@
         <v/>
       </c>
       <c r="AN35" s="143" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="36" spans="1:40" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A36" s="151" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_miaprtc_prevm_total</v>
@@ -16932,7 +16931,7 @@
         <v>75</v>
       </c>
       <c r="F36" s="77" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G36" s="69"/>
       <c r="H36" s="69" t="str">
@@ -17064,10 +17063,10 @@
         <v/>
       </c>
       <c r="AN36" s="144" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="37" spans="1:40" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A37" s="151" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_from_miap_prevm_total</v>
@@ -17087,7 +17086,7 @@
         <v>75</v>
       </c>
       <c r="F37" s="77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G37" s="69"/>
       <c r="H37" s="69" t="str">
@@ -17219,10 +17218,10 @@
         <v/>
       </c>
       <c r="AN37" s="144" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="38" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="153" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_died_from_miap_prevm_total</v>
@@ -17242,7 +17241,7 @@
         <v>75</v>
       </c>
       <c r="F38" s="155" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G38" s="154"/>
       <c r="H38" s="154" t="str">
@@ -17374,10 +17373,10 @@
         <v/>
       </c>
       <c r="AN38" s="78" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="39" spans="1:40" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A39" s="147" t="str">
         <f t="shared" ref="A39:A42" si="2">CONCATENATE(D39,"_",C39,"_",B39,"_",F39)</f>
         <v>fmatt_202105_15288_miap29_miap_daily_total</v>
@@ -17397,7 +17396,7 @@
         <v>75</v>
       </c>
       <c r="F39" s="149" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G39" s="148"/>
       <c r="H39" s="148"/>
@@ -17442,10 +17441,10 @@
         <v/>
       </c>
       <c r="AN39" s="143" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:40" x14ac:dyDescent="0.45">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="40" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A40" s="151" t="str">
         <f t="shared" si="2"/>
         <v>fmatt_202105_15288_miaprtc_miap_daily_total</v>
@@ -17465,49 +17464,142 @@
         <v>75</v>
       </c>
       <c r="F40" s="77" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G40" s="69"/>
       <c r="H40" s="69" t="str">
         <f>IF(ISBLANK(FMATT!D13),"",FMATT!D13)</f>
         <v/>
       </c>
-      <c r="I40" s="69"/>
-      <c r="J40" s="69"/>
-      <c r="K40" s="69"/>
-      <c r="L40" s="69"/>
-      <c r="M40" s="69"/>
-      <c r="N40" s="69"/>
-      <c r="O40" s="69"/>
-      <c r="P40" s="69"/>
-      <c r="Q40" s="69"/>
-      <c r="R40" s="69"/>
-      <c r="S40" s="69"/>
-      <c r="T40" s="69"/>
-      <c r="U40" s="69"/>
-      <c r="V40" s="69"/>
-      <c r="W40" s="69"/>
-      <c r="X40" s="69"/>
-      <c r="Y40" s="69"/>
-      <c r="Z40" s="69"/>
-      <c r="AA40" s="69"/>
-      <c r="AB40" s="69"/>
-      <c r="AC40" s="69"/>
-      <c r="AD40" s="69"/>
-      <c r="AE40" s="69"/>
-      <c r="AF40" s="69"/>
-      <c r="AG40" s="69"/>
-      <c r="AH40" s="69"/>
-      <c r="AI40" s="69"/>
-      <c r="AJ40" s="69"/>
-      <c r="AK40" s="69"/>
-      <c r="AL40" s="69"/>
-      <c r="AM40" s="152"/>
+      <c r="I40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!E13),"",FMATT!E13)</f>
+        <v/>
+      </c>
+      <c r="J40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!F13),"",FMATT!F13)</f>
+        <v/>
+      </c>
+      <c r="K40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!G13),"",FMATT!G13)</f>
+        <v/>
+      </c>
+      <c r="L40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!H13),"",FMATT!H13)</f>
+        <v/>
+      </c>
+      <c r="M40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!I13),"",FMATT!I13)</f>
+        <v/>
+      </c>
+      <c r="N40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!J13),"",FMATT!J13)</f>
+        <v/>
+      </c>
+      <c r="O40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!K13),"",FMATT!K13)</f>
+        <v/>
+      </c>
+      <c r="P40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!L13),"",FMATT!L13)</f>
+        <v/>
+      </c>
+      <c r="Q40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!M13),"",FMATT!M13)</f>
+        <v/>
+      </c>
+      <c r="R40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!N13),"",FMATT!N13)</f>
+        <v/>
+      </c>
+      <c r="S40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!O13),"",FMATT!O13)</f>
+        <v/>
+      </c>
+      <c r="T40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!P13),"",FMATT!P13)</f>
+        <v/>
+      </c>
+      <c r="U40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!Q13),"",FMATT!Q13)</f>
+        <v/>
+      </c>
+      <c r="V40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!R13),"",FMATT!R13)</f>
+        <v/>
+      </c>
+      <c r="W40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!S13),"",FMATT!S13)</f>
+        <v/>
+      </c>
+      <c r="X40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!T13),"",FMATT!T13)</f>
+        <v/>
+      </c>
+      <c r="Y40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!U13),"",FMATT!U13)</f>
+        <v/>
+      </c>
+      <c r="Z40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!V13),"",FMATT!V13)</f>
+        <v/>
+      </c>
+      <c r="AA40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!W13),"",FMATT!W13)</f>
+        <v/>
+      </c>
+      <c r="AB40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!X13),"",FMATT!X13)</f>
+        <v/>
+      </c>
+      <c r="AC40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!Y13),"",FMATT!Y13)</f>
+        <v/>
+      </c>
+      <c r="AD40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!Z13),"",FMATT!Z13)</f>
+        <v/>
+      </c>
+      <c r="AE40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AA13),"",FMATT!AA13)</f>
+        <v/>
+      </c>
+      <c r="AF40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AB13),"",FMATT!AB13)</f>
+        <v/>
+      </c>
+      <c r="AG40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AC13),"",FMATT!AC13)</f>
+        <v/>
+      </c>
+      <c r="AH40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AD13),"",FMATT!AD13)</f>
+        <v/>
+      </c>
+      <c r="AI40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AE13),"",FMATT!AE13)</f>
+        <v/>
+      </c>
+      <c r="AJ40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AF13),"",FMATT!AF13)</f>
+        <v/>
+      </c>
+      <c r="AK40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AG13),"",FMATT!AG13)</f>
+        <v/>
+      </c>
+      <c r="AL40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AH13),"",FMATT!AH13)</f>
+        <v/>
+      </c>
+      <c r="AM40" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AI13),"",FMATT!AI13)</f>
+        <v/>
+      </c>
       <c r="AN40" s="144" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:40" x14ac:dyDescent="0.45">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="41" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A41" s="151" t="str">
         <f t="shared" si="2"/>
         <v>fmatt_202105_15288_to_from_miap_daily_total</v>
@@ -17534,42 +17626,135 @@
         <f>IF(ISBLANK(FMATT!D14),"",FMATT!D14)</f>
         <v/>
       </c>
-      <c r="I41" s="69"/>
-      <c r="J41" s="69"/>
-      <c r="K41" s="69"/>
-      <c r="L41" s="69"/>
-      <c r="M41" s="69"/>
-      <c r="N41" s="69"/>
-      <c r="O41" s="69"/>
-      <c r="P41" s="69"/>
-      <c r="Q41" s="69"/>
-      <c r="R41" s="69"/>
-      <c r="S41" s="69"/>
-      <c r="T41" s="69"/>
-      <c r="U41" s="69"/>
-      <c r="V41" s="69"/>
-      <c r="W41" s="69"/>
-      <c r="X41" s="69"/>
-      <c r="Y41" s="69"/>
-      <c r="Z41" s="69"/>
-      <c r="AA41" s="69"/>
-      <c r="AB41" s="69"/>
-      <c r="AC41" s="69"/>
-      <c r="AD41" s="69"/>
-      <c r="AE41" s="69"/>
-      <c r="AF41" s="69"/>
-      <c r="AG41" s="69"/>
-      <c r="AH41" s="69"/>
-      <c r="AI41" s="69"/>
-      <c r="AJ41" s="69"/>
-      <c r="AK41" s="69"/>
-      <c r="AL41" s="69"/>
-      <c r="AM41" s="152"/>
+      <c r="I41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!E14),"",FMATT!E14)</f>
+        <v/>
+      </c>
+      <c r="J41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!F14),"",FMATT!F14)</f>
+        <v/>
+      </c>
+      <c r="K41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!G14),"",FMATT!G14)</f>
+        <v/>
+      </c>
+      <c r="L41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!H14),"",FMATT!H14)</f>
+        <v/>
+      </c>
+      <c r="M41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!I14),"",FMATT!I14)</f>
+        <v/>
+      </c>
+      <c r="N41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!J14),"",FMATT!J14)</f>
+        <v/>
+      </c>
+      <c r="O41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!K14),"",FMATT!K14)</f>
+        <v/>
+      </c>
+      <c r="P41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!L14),"",FMATT!L14)</f>
+        <v/>
+      </c>
+      <c r="Q41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!M14),"",FMATT!M14)</f>
+        <v/>
+      </c>
+      <c r="R41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!N14),"",FMATT!N14)</f>
+        <v/>
+      </c>
+      <c r="S41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!O14),"",FMATT!O14)</f>
+        <v/>
+      </c>
+      <c r="T41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!P14),"",FMATT!P14)</f>
+        <v/>
+      </c>
+      <c r="U41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!Q14),"",FMATT!Q14)</f>
+        <v/>
+      </c>
+      <c r="V41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!R14),"",FMATT!R14)</f>
+        <v/>
+      </c>
+      <c r="W41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!S14),"",FMATT!S14)</f>
+        <v/>
+      </c>
+      <c r="X41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!T14),"",FMATT!T14)</f>
+        <v/>
+      </c>
+      <c r="Y41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!U14),"",FMATT!U14)</f>
+        <v/>
+      </c>
+      <c r="Z41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!V14),"",FMATT!V14)</f>
+        <v/>
+      </c>
+      <c r="AA41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!W14),"",FMATT!W14)</f>
+        <v/>
+      </c>
+      <c r="AB41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!X14),"",FMATT!X14)</f>
+        <v/>
+      </c>
+      <c r="AC41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!Y14),"",FMATT!Y14)</f>
+        <v/>
+      </c>
+      <c r="AD41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!Z14),"",FMATT!Z14)</f>
+        <v/>
+      </c>
+      <c r="AE41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AA14),"",FMATT!AA14)</f>
+        <v/>
+      </c>
+      <c r="AF41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AB14),"",FMATT!AB14)</f>
+        <v/>
+      </c>
+      <c r="AG41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AC14),"",FMATT!AC14)</f>
+        <v/>
+      </c>
+      <c r="AH41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AD14),"",FMATT!AD14)</f>
+        <v/>
+      </c>
+      <c r="AI41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AE14),"",FMATT!AE14)</f>
+        <v/>
+      </c>
+      <c r="AJ41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AF14),"",FMATT!AF14)</f>
+        <v/>
+      </c>
+      <c r="AK41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AG14),"",FMATT!AG14)</f>
+        <v/>
+      </c>
+      <c r="AL41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AH14),"",FMATT!AH14)</f>
+        <v/>
+      </c>
+      <c r="AM41" s="69" t="str">
+        <f>IF(ISBLANK(FMATT!AI14),"",FMATT!AI14)</f>
+        <v/>
+      </c>
       <c r="AN41" s="144" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:40" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:40" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="153" t="str">
         <f t="shared" si="2"/>
         <v>fmatt_202105_15288_died_from_miap_daily_total</v>
@@ -17596,42 +17781,135 @@
         <f>IF(ISBLANK(FMATT!D15),"",FMATT!D15)</f>
         <v/>
       </c>
-      <c r="I42" s="154"/>
-      <c r="J42" s="154"/>
-      <c r="K42" s="154"/>
-      <c r="L42" s="154"/>
-      <c r="M42" s="154"/>
-      <c r="N42" s="154"/>
-      <c r="O42" s="154"/>
-      <c r="P42" s="154"/>
-      <c r="Q42" s="154"/>
-      <c r="R42" s="154"/>
-      <c r="S42" s="154"/>
-      <c r="T42" s="154"/>
-      <c r="U42" s="154"/>
-      <c r="V42" s="154"/>
-      <c r="W42" s="154"/>
-      <c r="X42" s="154"/>
-      <c r="Y42" s="154"/>
-      <c r="Z42" s="154"/>
-      <c r="AA42" s="154"/>
-      <c r="AB42" s="154"/>
-      <c r="AC42" s="154"/>
-      <c r="AD42" s="154"/>
-      <c r="AE42" s="154"/>
-      <c r="AF42" s="154"/>
-      <c r="AG42" s="154"/>
-      <c r="AH42" s="154"/>
-      <c r="AI42" s="154"/>
-      <c r="AJ42" s="154"/>
-      <c r="AK42" s="154"/>
-      <c r="AL42" s="154"/>
-      <c r="AM42" s="156"/>
+      <c r="I42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!E15),"",FMATT!E15)</f>
+        <v/>
+      </c>
+      <c r="J42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!F15),"",FMATT!F15)</f>
+        <v/>
+      </c>
+      <c r="K42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!G15),"",FMATT!G15)</f>
+        <v/>
+      </c>
+      <c r="L42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!H15),"",FMATT!H15)</f>
+        <v/>
+      </c>
+      <c r="M42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!I15),"",FMATT!I15)</f>
+        <v/>
+      </c>
+      <c r="N42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!J15),"",FMATT!J15)</f>
+        <v/>
+      </c>
+      <c r="O42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!K15),"",FMATT!K15)</f>
+        <v/>
+      </c>
+      <c r="P42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!L15),"",FMATT!L15)</f>
+        <v/>
+      </c>
+      <c r="Q42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!M15),"",FMATT!M15)</f>
+        <v/>
+      </c>
+      <c r="R42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!N15),"",FMATT!N15)</f>
+        <v/>
+      </c>
+      <c r="S42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!O15),"",FMATT!O15)</f>
+        <v/>
+      </c>
+      <c r="T42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!P15),"",FMATT!P15)</f>
+        <v/>
+      </c>
+      <c r="U42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!Q15),"",FMATT!Q15)</f>
+        <v/>
+      </c>
+      <c r="V42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!R15),"",FMATT!R15)</f>
+        <v/>
+      </c>
+      <c r="W42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!S15),"",FMATT!S15)</f>
+        <v/>
+      </c>
+      <c r="X42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!T15),"",FMATT!T15)</f>
+        <v/>
+      </c>
+      <c r="Y42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!U15),"",FMATT!U15)</f>
+        <v/>
+      </c>
+      <c r="Z42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!V15),"",FMATT!V15)</f>
+        <v/>
+      </c>
+      <c r="AA42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!W15),"",FMATT!W15)</f>
+        <v/>
+      </c>
+      <c r="AB42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!X15),"",FMATT!X15)</f>
+        <v/>
+      </c>
+      <c r="AC42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!Y15),"",FMATT!Y15)</f>
+        <v/>
+      </c>
+      <c r="AD42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!Z15),"",FMATT!Z15)</f>
+        <v/>
+      </c>
+      <c r="AE42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!AA15),"",FMATT!AA15)</f>
+        <v/>
+      </c>
+      <c r="AF42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!AB15),"",FMATT!AB15)</f>
+        <v/>
+      </c>
+      <c r="AG42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!AC15),"",FMATT!AC15)</f>
+        <v/>
+      </c>
+      <c r="AH42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!AD15),"",FMATT!AD15)</f>
+        <v/>
+      </c>
+      <c r="AI42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!AE15),"",FMATT!AE15)</f>
+        <v/>
+      </c>
+      <c r="AJ42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!AF15),"",FMATT!AF15)</f>
+        <v/>
+      </c>
+      <c r="AK42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!AG15),"",FMATT!AG15)</f>
+        <v/>
+      </c>
+      <c r="AL42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!AH15),"",FMATT!AH15)</f>
+        <v/>
+      </c>
+      <c r="AM42" s="154" t="str">
+        <f>IF(ISBLANK(FMATT!AI15),"",FMATT!AI15)</f>
+        <v/>
+      </c>
       <c r="AN42" s="78" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" spans="1:40" x14ac:dyDescent="0.45">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A43" s="157" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_miapdef_total</v>
@@ -17690,7 +17968,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A44" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_miap29_total</v>
@@ -17749,7 +18027,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A45" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_miaprtc_total</v>
@@ -17808,7 +18086,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A46" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_1st</v>
@@ -17868,7 +18146,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A47" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_2nd</v>
@@ -17928,7 +18206,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A48" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_3rd</v>
@@ -17988,7 +18266,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A49" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_4th</v>
@@ -18048,7 +18326,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A50" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_5th</v>
@@ -18108,7 +18386,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A51" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_6th</v>
@@ -18168,7 +18446,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A52" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_7th</v>
@@ -18228,7 +18506,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A53" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_8th</v>
@@ -18288,7 +18566,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A54" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_9th</v>
@@ -18348,7 +18626,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A55" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_10th</v>
@@ -18408,7 +18686,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A56" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_11th</v>
@@ -18468,7 +18746,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A57" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_12th</v>
@@ -18528,7 +18806,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A58" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_13th</v>
@@ -18588,7 +18866,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A59" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_14th</v>
@@ -18648,7 +18926,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A60" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_15th</v>
@@ -18708,7 +18986,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A61" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_16th</v>
@@ -18768,7 +19046,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A62" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_17th</v>
@@ -18828,7 +19106,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A63" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_18th</v>
@@ -18888,7 +19166,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A64" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_19th</v>
@@ -18948,7 +19226,7 @@
         <v/>
       </c>
     </row>
-    <row r="65" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A65" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_20th</v>
@@ -19008,7 +19286,7 @@
         <v/>
       </c>
     </row>
-    <row r="66" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A66" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_21st</v>
@@ -19068,7 +19346,7 @@
         <v/>
       </c>
     </row>
-    <row r="67" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A67" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_22nd</v>
@@ -19128,7 +19406,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A68" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_23rd</v>
@@ -19188,7 +19466,7 @@
         <v/>
       </c>
     </row>
-    <row r="69" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A69" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_24th</v>
@@ -19248,7 +19526,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A70" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_25th</v>
@@ -19308,7 +19586,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A71" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_26th</v>
@@ -19368,7 +19646,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A72" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_27th</v>
@@ -19428,7 +19706,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A73" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_28th</v>
@@ -19488,7 +19766,7 @@
         <v/>
       </c>
     </row>
-    <row r="74" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A74" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_29th</v>
@@ -19548,7 +19826,7 @@
         <v/>
       </c>
     </row>
-    <row r="75" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A75" s="77" t="str">
         <f t="shared" si="0"/>
         <v>fmatt_202105_15288_to_fmatt_30th</v>
@@ -19608,7 +19886,7 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A76" s="77" t="str">
         <f>CONCATENATE(D76,"_",C76,"_",B76,"_",F76)</f>
         <v>fmatt_202105_15288_to_fmatt_31st</v>
@@ -19668,7 +19946,7 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A77" s="77" t="str">
         <f>CONCATENATE(D77,"_",C77,"_",B77,"_",F77)</f>
         <v>fmatt_202105_15288_to_fmatt_total</v>
@@ -19728,7 +20006,7 @@
         <v/>
       </c>
     </row>
-    <row r="78" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A78" s="80" t="str">
         <f t="shared" ref="A78:A141" si="4">CONCATENATE(D78,"_",C78,"_",B78,"_",F78)</f>
         <v>fmatt_202105_15288_died_miapdef_total</v>
@@ -19787,7 +20065,7 @@
         <v/>
       </c>
     </row>
-    <row r="79" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A79" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_miap29_total</v>
@@ -19846,7 +20124,7 @@
         <v/>
       </c>
     </row>
-    <row r="80" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A80" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_miaprtc_total</v>
@@ -19905,7 +20183,7 @@
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A81" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_1st</v>
@@ -19965,7 +20243,7 @@
         <v/>
       </c>
     </row>
-    <row r="82" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A82" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_2nd</v>
@@ -20025,7 +20303,7 @@
         <v/>
       </c>
     </row>
-    <row r="83" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A83" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_3rd</v>
@@ -20085,7 +20363,7 @@
         <v/>
       </c>
     </row>
-    <row r="84" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A84" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_4th</v>
@@ -20145,7 +20423,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A85" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_5th</v>
@@ -20205,7 +20483,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A86" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_6th</v>
@@ -20265,7 +20543,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A87" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_7th</v>
@@ -20325,7 +20603,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A88" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_8th</v>
@@ -20385,7 +20663,7 @@
         <v/>
       </c>
     </row>
-    <row r="89" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A89" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_9th</v>
@@ -20445,7 +20723,7 @@
         <v/>
       </c>
     </row>
-    <row r="90" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A90" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_10th</v>
@@ -20505,7 +20783,7 @@
         <v/>
       </c>
     </row>
-    <row r="91" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A91" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_11th</v>
@@ -20565,7 +20843,7 @@
         <v/>
       </c>
     </row>
-    <row r="92" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A92" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_12th</v>
@@ -20625,7 +20903,7 @@
         <v/>
       </c>
     </row>
-    <row r="93" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A93" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_13th</v>
@@ -20685,7 +20963,7 @@
         <v/>
       </c>
     </row>
-    <row r="94" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A94" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_14th</v>
@@ -20745,7 +21023,7 @@
         <v/>
       </c>
     </row>
-    <row r="95" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A95" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_15th</v>
@@ -20805,7 +21083,7 @@
         <v/>
       </c>
     </row>
-    <row r="96" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A96" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_16th</v>
@@ -20865,7 +21143,7 @@
         <v/>
       </c>
     </row>
-    <row r="97" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A97" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_17th</v>
@@ -20925,7 +21203,7 @@
         <v/>
       </c>
     </row>
-    <row r="98" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A98" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_18th</v>
@@ -20985,7 +21263,7 @@
         <v/>
       </c>
     </row>
-    <row r="99" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A99" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_19th</v>
@@ -21045,7 +21323,7 @@
         <v/>
       </c>
     </row>
-    <row r="100" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A100" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_20th</v>
@@ -21105,7 +21383,7 @@
         <v/>
       </c>
     </row>
-    <row r="101" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A101" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_21st</v>
@@ -21165,7 +21443,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A102" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_22nd</v>
@@ -21225,7 +21503,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A103" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_23rd</v>
@@ -21285,7 +21563,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A104" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_24th</v>
@@ -21345,7 +21623,7 @@
         <v/>
       </c>
     </row>
-    <row r="105" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A105" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_25th</v>
@@ -21405,7 +21683,7 @@
         <v/>
       </c>
     </row>
-    <row r="106" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A106" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_26th</v>
@@ -21465,7 +21743,7 @@
         <v/>
       </c>
     </row>
-    <row r="107" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A107" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_27th</v>
@@ -21525,7 +21803,7 @@
         <v/>
       </c>
     </row>
-    <row r="108" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A108" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_28th</v>
@@ -21585,7 +21863,7 @@
         <v/>
       </c>
     </row>
-    <row r="109" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A109" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_29th</v>
@@ -21645,7 +21923,7 @@
         <v/>
       </c>
     </row>
-    <row r="110" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A110" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_30th</v>
@@ -21705,7 +21983,7 @@
         <v/>
       </c>
     </row>
-    <row r="111" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A111" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_31st</v>
@@ -21765,7 +22043,7 @@
         <v/>
       </c>
     </row>
-    <row r="112" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A112" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_total</v>
@@ -21825,7 +22103,7 @@
         <v/>
       </c>
     </row>
-    <row r="113" spans="1:39" s="84" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:39" s="84" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="80" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_to_fmatt_sum_total</v>
@@ -21885,7 +22163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A114" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_died_fmatt_sum_total</v>
@@ -21945,7 +22223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A115" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_miap_def_btc_sum_total</v>
@@ -22005,7 +22283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A116" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_miap_grad_ltfu_sum_total</v>
@@ -22065,7 +22343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A117" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fmatt_202105_15288_miap_def_sum_total</v>
@@ -22125,7 +22403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A118" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_1st</v>
@@ -22278,7 +22556,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A119" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_2nd</v>
@@ -22428,7 +22706,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A120" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_3rd</v>
@@ -22575,7 +22853,7 @@
         <v/>
       </c>
     </row>
-    <row r="121" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A121" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_4th</v>
@@ -22719,7 +22997,7 @@
         <v/>
       </c>
     </row>
-    <row r="122" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A122" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_5th</v>
@@ -22860,7 +23138,7 @@
         <v/>
       </c>
     </row>
-    <row r="123" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A123" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_6th</v>
@@ -22998,7 +23276,7 @@
         <v/>
       </c>
     </row>
-    <row r="124" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A124" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_7th</v>
@@ -23133,7 +23411,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A125" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_8th</v>
@@ -23265,7 +23543,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A126" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_9th</v>
@@ -23394,7 +23672,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A127" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_10th</v>
@@ -23520,7 +23798,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A128" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_11th</v>
@@ -23643,7 +23921,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A129" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_12th</v>
@@ -23763,7 +24041,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A130" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_13th</v>
@@ -23880,7 +24158,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A131" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_14th</v>
@@ -23994,7 +24272,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A132" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_15th</v>
@@ -24105,7 +24383,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A133" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_16th</v>
@@ -24213,7 +24491,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A134" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_17th</v>
@@ -24318,7 +24596,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A135" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_18th</v>
@@ -24420,7 +24698,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A136" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_19th</v>
@@ -24519,7 +24797,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A137" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_20th</v>
@@ -24615,7 +24893,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A138" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_21st</v>
@@ -24708,7 +24986,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A139" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_22nd</v>
@@ -24798,7 +25076,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A140" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_23rd</v>
@@ -24885,7 +25163,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A141" s="77" t="str">
         <f t="shared" si="4"/>
         <v>fiiitt_202105_15288_iit_24th</v>
@@ -24969,7 +25247,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A142" s="77" t="str">
         <f t="shared" ref="A142:A205" si="7">CONCATENATE(D142,"_",C142,"_",B142,"_",F142)</f>
         <v>fiiitt_202105_15288_iit_25th</v>
@@ -25050,7 +25328,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A143" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_iit_26th</v>
@@ -25128,7 +25406,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A144" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_iit_27th</v>
@@ -25203,7 +25481,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A145" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_iit_28th</v>
@@ -25275,7 +25553,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A146" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_iit_29th</v>
@@ -25344,7 +25622,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A147" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_iit_30th</v>
@@ -25410,7 +25688,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A148" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_iit_31st</v>
@@ -25473,7 +25751,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A149" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_iit_total</v>
@@ -25532,7 +25810,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A150" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_ltfu_previous_total</v>
@@ -25687,7 +25965,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A151" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_ltfu_btc_total</v>
@@ -25842,7 +26120,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A152" s="95" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_ltfu_previous_to_total</v>
@@ -25901,7 +26179,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A153" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_ltfu_btc_to_total</v>
@@ -25960,7 +26238,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A154" s="93" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_1st</v>
@@ -26020,7 +26298,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A155" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_2nd</v>
@@ -26080,7 +26358,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A156" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_3rd</v>
@@ -26140,7 +26418,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A157" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_4th</v>
@@ -26200,7 +26478,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A158" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_5th</v>
@@ -26260,7 +26538,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A159" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_6th</v>
@@ -26320,7 +26598,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A160" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_7th</v>
@@ -26380,7 +26658,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A161" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_8th</v>
@@ -26440,7 +26718,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A162" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_9th</v>
@@ -26500,7 +26778,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A163" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_10th</v>
@@ -26560,7 +26838,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A164" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_11th</v>
@@ -26620,7 +26898,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A165" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_12th</v>
@@ -26680,7 +26958,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A166" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_13th</v>
@@ -26740,7 +27018,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A167" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_14th</v>
@@ -26800,7 +27078,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A168" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_15th</v>
@@ -26860,7 +27138,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A169" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_16th</v>
@@ -26920,7 +27198,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A170" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_17th</v>
@@ -26980,7 +27258,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A171" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_18th</v>
@@ -27040,7 +27318,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A172" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_19th</v>
@@ -27100,7 +27378,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A173" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_20th</v>
@@ -27160,7 +27438,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A174" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_21st</v>
@@ -27220,7 +27498,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A175" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_22nd</v>
@@ -27280,7 +27558,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A176" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_23rd</v>
@@ -27340,7 +27618,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A177" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_24th</v>
@@ -27400,7 +27678,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A178" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_25th</v>
@@ -27460,7 +27738,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A179" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_26th</v>
@@ -27520,7 +27798,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A180" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_27th</v>
@@ -27580,7 +27858,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A181" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_28th</v>
@@ -27640,7 +27918,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A182" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_29th</v>
@@ -27700,7 +27978,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A183" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_30th</v>
@@ -27760,7 +28038,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A184" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_31st</v>
@@ -27820,7 +28098,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A185" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_to_fiiit_total</v>
@@ -27880,7 +28158,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A186" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_ltfu_previous_to_total</v>
@@ -27939,7 +28217,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A187" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_ltfu_btc_to_total</v>
@@ -27998,7 +28276,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A188" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_1st</v>
@@ -28058,7 +28336,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A189" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_2nd</v>
@@ -28118,7 +28396,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A190" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_3rd</v>
@@ -28178,7 +28456,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A191" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_4th</v>
@@ -28238,7 +28516,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A192" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_5th</v>
@@ -28298,7 +28576,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A193" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_6th</v>
@@ -28358,7 +28636,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A194" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_7th</v>
@@ -28418,7 +28696,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A195" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_8th</v>
@@ -28478,7 +28756,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A196" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_9th</v>
@@ -28538,7 +28816,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A197" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_10th</v>
@@ -28598,7 +28876,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A198" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_11th</v>
@@ -28658,7 +28936,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A199" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_12th</v>
@@ -28718,7 +28996,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A200" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_13th</v>
@@ -28778,7 +29056,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A201" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_14th</v>
@@ -28838,7 +29116,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A202" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_15th</v>
@@ -28898,7 +29176,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A203" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_16th</v>
@@ -28958,7 +29236,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A204" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_17th</v>
@@ -29018,7 +29296,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A205" s="77" t="str">
         <f t="shared" si="7"/>
         <v>fiiitt_202105_15288_died_fiiit_18th</v>
@@ -29078,7 +29356,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A206" s="77" t="str">
         <f t="shared" ref="A206:A223" si="10">CONCATENATE(D206,"_",C206,"_",B206,"_",F206)</f>
         <v>fiiitt_202105_15288_died_fiiit_19th</v>
@@ -29138,7 +29416,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A207" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_died_fiiit_20th</v>
@@ -29198,7 +29476,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A208" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_died_fiiit_21st</v>
@@ -29258,7 +29536,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A209" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_died_fiiit_22nd</v>
@@ -29318,7 +29596,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A210" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_died_fiiit_23rd</v>
@@ -29378,7 +29656,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A211" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_died_fiiit_24th</v>
@@ -29438,7 +29716,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A212" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_died_fiiit_25th</v>
@@ -29498,7 +29776,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A213" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_died_fiiit_26th</v>
@@ -29558,7 +29836,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A214" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_died_fiiit_27th</v>
@@ -29618,7 +29896,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A215" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_died_fiiit_28th</v>
@@ -29678,7 +29956,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A216" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_died_fiiit_29th</v>
@@ -29738,7 +30016,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A217" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_died_fiiit_30th</v>
@@ -29798,7 +30076,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A218" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_died_fiiit_31st</v>
@@ -29858,7 +30136,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A219" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_died_fiiit_total</v>
@@ -29918,7 +30196,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A220" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_to_fiiit_sum_total</v>
@@ -29978,7 +30256,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A221" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_died_fiiit_sum_total</v>
@@ -30038,7 +30316,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A222" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_btc_fiiit_sum_total</v>
@@ -30098,7 +30376,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" spans="1:39" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A223" s="77" t="str">
         <f t="shared" si="10"/>
         <v>fiiitt_202105_15288_ltfu_fiiit_ofu_sum_total</v>
@@ -30159,7 +30437,7 @@
       </c>
     </row>
   </sheetData>
-  <sheetProtection password="CC71" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="Zp5arL7h4BX6MjUImzsD6FTW/Rfle0Ra5z6JfWHLtBE25Jmz1rhy2+ZMv8PEvPOfJCaHO+d3zD6Mka3m8SEerw==" saltValue="lxnUoWeOYVenIQZD2nWArQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <conditionalFormatting sqref="F1:F38 F43:F1048576">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>

--- a/web/fmatt.xlsx
+++ b/web/fmatt.xlsx
@@ -2545,44 +2545,20 @@
     <xf numFmtId="0" fontId="18" fillId="14" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -2590,11 +2566,56 @@
     <xf numFmtId="164" fontId="3" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="7" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="135"/>
@@ -2635,65 +2656,50 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="5" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2702,12 +2708,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4629,16 +4629,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>297824</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>44223</xdr:rowOff>
+      <xdr:rowOff>25173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>318637</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>679856</xdr:rowOff>
+      <xdr:rowOff>660806</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4660,8 +4660,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5528637" y="179161"/>
-          <a:ext cx="997123" cy="635633"/>
+          <a:off x="7536824" y="634773"/>
+          <a:ext cx="978526" cy="635633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4676,14 +4676,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>103188</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>598488</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>549728</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>707573</xdr:rowOff>
     </xdr:to>
@@ -4707,8 +4707,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9469438" y="162153"/>
-          <a:ext cx="1252990" cy="680358"/>
+          <a:off x="11418888" y="636815"/>
+          <a:ext cx="1170440" cy="680358"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4723,14 +4723,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>484414</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>503463</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>65313</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>564297</xdr:rowOff>
     </xdr:to>
@@ -4754,8 +4754,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12777107" y="394607"/>
-          <a:ext cx="2027465" cy="373797"/>
+          <a:off x="14962414" y="800100"/>
+          <a:ext cx="2019299" cy="373797"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4803,53 +4803,6 @@
         <a:xfrm>
           <a:off x="17253858" y="231321"/>
           <a:ext cx="2000050" cy="698046"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>299358</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>1081244</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>598714</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Shape 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214EAAA6-C9DC-4073-B0AF-CC27709A077C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:alphaModFix/>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21948322" y="326571"/>
-          <a:ext cx="1339777" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4917,14 +4870,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>281949</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>415299</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>68035</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>231322</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>212272</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>703668</xdr:rowOff>
     </xdr:to>
@@ -4948,7 +4901,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4396749" y="201385"/>
+          <a:off x="5977899" y="201385"/>
           <a:ext cx="920923" cy="635633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4964,14 +4917,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>6822</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>311622</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>27215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>54428</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>359228</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>707573</xdr:rowOff>
     </xdr:to>
@@ -4995,7 +4948,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8493597" y="160565"/>
+          <a:off x="10046172" y="160565"/>
           <a:ext cx="1266806" cy="680358"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5011,16 +4964,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>8164</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>503465</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>198665</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>564297</xdr:rowOff>
+      <xdr:rowOff>545247</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5042,7 +4995,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12457339" y="323850"/>
+          <a:off x="14009914" y="304800"/>
           <a:ext cx="2019301" cy="373797"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5058,14 +5011,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>503465</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>27215</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>27214</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>54229</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>187579</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>725260</xdr:rowOff>
     </xdr:to>
@@ -5089,55 +5042,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="16915040" y="160564"/>
+          <a:off x="18905765" y="160564"/>
           <a:ext cx="1989164" cy="698046"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>299358</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>1081242</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>598714</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Shape 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{214EAAA6-C9DC-4073-B0AF-CC27709A077C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:alphaModFix/>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="21587733" y="255814"/>
-          <a:ext cx="1343859" cy="476250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5656,7 +5562,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="J50" sqref="J50:K50"/>
+      <selection pane="bottomRight" activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.25"/>
@@ -5681,41 +5587,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="163" t="str">
+      <c r="B1" s="204" t="str">
         <f>IF(COUNTIF(D7:AH7,"&lt;0")&gt;0,"Form has Validation Errors, Please correct before uploading","")</f>
         <v/>
       </c>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
-      <c r="E1" s="163"/>
-      <c r="F1" s="163"/>
-      <c r="G1" s="163"/>
-      <c r="H1" s="163"/>
-      <c r="I1" s="163"/>
-      <c r="J1" s="163"/>
-      <c r="K1" s="163"/>
-      <c r="L1" s="163"/>
-      <c r="M1" s="163"/>
-      <c r="N1" s="163"/>
-      <c r="O1" s="163"/>
-      <c r="P1" s="163"/>
-      <c r="Q1" s="163"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="163"/>
-      <c r="T1" s="163"/>
-      <c r="U1" s="163"/>
-      <c r="V1" s="163"/>
-      <c r="W1" s="163"/>
-      <c r="X1" s="163"/>
-      <c r="Y1" s="163"/>
-      <c r="Z1" s="163"/>
-      <c r="AA1" s="163"/>
-      <c r="AB1" s="163"/>
-      <c r="AC1" s="163"/>
-      <c r="AD1" s="163"/>
-      <c r="AE1" s="163"/>
-      <c r="AF1" s="163"/>
-      <c r="AG1" s="163"/>
+      <c r="C1" s="204"/>
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="204"/>
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="204"/>
+      <c r="N1" s="204"/>
+      <c r="O1" s="204"/>
+      <c r="P1" s="204"/>
+      <c r="Q1" s="204"/>
+      <c r="R1" s="204"/>
+      <c r="S1" s="204"/>
+      <c r="T1" s="204"/>
+      <c r="U1" s="204"/>
+      <c r="V1" s="204"/>
+      <c r="W1" s="204"/>
+      <c r="X1" s="204"/>
+      <c r="Y1" s="204"/>
+      <c r="Z1" s="204"/>
+      <c r="AA1" s="204"/>
+      <c r="AB1" s="204"/>
+      <c r="AC1" s="204"/>
+      <c r="AD1" s="204"/>
+      <c r="AE1" s="204"/>
+      <c r="AF1" s="204"/>
+      <c r="AG1" s="204"/>
     </row>
     <row r="2" spans="1:37" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="37"/>
@@ -5757,146 +5663,146 @@
     </row>
     <row r="3" spans="1:37" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="47"/>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="169" t="s">
+      <c r="C3" s="205"/>
+      <c r="D3" s="210" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="164" t="s">
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="167" t="s">
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="208" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="164" t="s">
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="T3" s="164"/>
-      <c r="U3" s="166">
+      <c r="T3" s="205"/>
+      <c r="U3" s="207">
         <v>15288</v>
       </c>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
       <c r="X3" s="39"/>
-      <c r="Y3" s="164" t="s">
+      <c r="Y3" s="205" t="s">
         <v>116</v>
       </c>
-      <c r="Z3" s="164"/>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="166">
+      <c r="Z3" s="205"/>
+      <c r="AA3" s="205"/>
+      <c r="AB3" s="207">
         <v>2021</v>
       </c>
-      <c r="AC3" s="166"/>
-      <c r="AD3" s="164" t="s">
+      <c r="AC3" s="207"/>
+      <c r="AD3" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="AE3" s="164"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="165" t="s">
+      <c r="AE3" s="205"/>
+      <c r="AF3" s="205"/>
+      <c r="AG3" s="206" t="s">
         <v>119</v>
       </c>
-      <c r="AH3" s="165"/>
+      <c r="AH3" s="206"/>
       <c r="AI3" s="40"/>
       <c r="AJ3" s="40"/>
       <c r="AK3" s="36"/>
     </row>
     <row r="4" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="200" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="173"/>
-      <c r="S4" s="173"/>
-      <c r="T4" s="173"/>
-      <c r="U4" s="173"/>
-      <c r="V4" s="173"/>
-      <c r="W4" s="173"/>
-      <c r="X4" s="173"/>
-      <c r="Y4" s="173"/>
-      <c r="Z4" s="173"/>
-      <c r="AA4" s="173"/>
-      <c r="AB4" s="173"/>
-      <c r="AC4" s="173"/>
-      <c r="AD4" s="173"/>
-      <c r="AE4" s="173"/>
-      <c r="AF4" s="173"/>
-      <c r="AG4" s="173"/>
-      <c r="AH4" s="173"/>
-      <c r="AI4" s="185" t="s">
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="201"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="201"/>
+      <c r="P4" s="201"/>
+      <c r="Q4" s="201"/>
+      <c r="R4" s="201"/>
+      <c r="S4" s="201"/>
+      <c r="T4" s="201"/>
+      <c r="U4" s="201"/>
+      <c r="V4" s="201"/>
+      <c r="W4" s="201"/>
+      <c r="X4" s="201"/>
+      <c r="Y4" s="201"/>
+      <c r="Z4" s="201"/>
+      <c r="AA4" s="201"/>
+      <c r="AB4" s="201"/>
+      <c r="AC4" s="201"/>
+      <c r="AD4" s="201"/>
+      <c r="AE4" s="201"/>
+      <c r="AF4" s="201"/>
+      <c r="AG4" s="201"/>
+      <c r="AH4" s="201"/>
+      <c r="AI4" s="192" t="s">
         <v>0</v>
       </c>
-      <c r="AJ4" s="182" t="s">
+      <c r="AJ4" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="183"/>
+      <c r="AK4" s="190"/>
     </row>
     <row r="5" spans="1:37" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="172"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="173"/>
-      <c r="U5" s="173"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="173"/>
-      <c r="Z5" s="173"/>
-      <c r="AA5" s="173"/>
-      <c r="AB5" s="173"/>
-      <c r="AC5" s="173"/>
-      <c r="AD5" s="173"/>
-      <c r="AE5" s="173"/>
-      <c r="AF5" s="173"/>
-      <c r="AG5" s="173"/>
-      <c r="AH5" s="173"/>
-      <c r="AI5" s="186"/>
-      <c r="AJ5" s="178" t="s">
+      <c r="B5" s="200"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="201"/>
+      <c r="K5" s="201"/>
+      <c r="L5" s="201"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="201"/>
+      <c r="O5" s="201"/>
+      <c r="P5" s="201"/>
+      <c r="Q5" s="201"/>
+      <c r="R5" s="201"/>
+      <c r="S5" s="201"/>
+      <c r="T5" s="201"/>
+      <c r="U5" s="201"/>
+      <c r="V5" s="201"/>
+      <c r="W5" s="201"/>
+      <c r="X5" s="201"/>
+      <c r="Y5" s="201"/>
+      <c r="Z5" s="201"/>
+      <c r="AA5" s="201"/>
+      <c r="AB5" s="201"/>
+      <c r="AC5" s="201"/>
+      <c r="AD5" s="201"/>
+      <c r="AE5" s="201"/>
+      <c r="AF5" s="201"/>
+      <c r="AG5" s="201"/>
+      <c r="AH5" s="201"/>
+      <c r="AI5" s="193"/>
+      <c r="AJ5" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="AK5" s="180" t="s">
+      <c r="AK5" s="187" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6001,12 +5907,12 @@
       <c r="AH6" s="49">
         <v>31</v>
       </c>
-      <c r="AI6" s="187"/>
-      <c r="AJ6" s="179"/>
-      <c r="AK6" s="181"/>
+      <c r="AI6" s="194"/>
+      <c r="AJ6" s="186"/>
+      <c r="AK6" s="188"/>
     </row>
     <row r="7" spans="1:37" ht="57" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="161" t="s">
+      <c r="A7" s="202" t="s">
         <v>153</v>
       </c>
       <c r="B7" s="125" t="s">
@@ -6137,12 +6043,12 @@
         <f>IF(ISBLANK(AH46),0,$AG$7-(SUM(AH8:AH11)))</f>
         <v>0</v>
       </c>
-      <c r="AI7" s="188"/>
+      <c r="AI7" s="195"/>
       <c r="AJ7" s="33"/>
       <c r="AK7" s="34"/>
     </row>
     <row r="8" spans="1:37" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="162"/>
+      <c r="A8" s="203"/>
       <c r="B8" s="126" t="s">
         <v>23</v>
       </c>
@@ -6178,12 +6084,12 @@
       <c r="AF8" s="133"/>
       <c r="AG8" s="133"/>
       <c r="AH8" s="134"/>
-      <c r="AI8" s="189"/>
+      <c r="AI8" s="196"/>
       <c r="AJ8" s="31"/>
       <c r="AK8" s="30"/>
     </row>
     <row r="9" spans="1:37" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="162"/>
+      <c r="A9" s="203"/>
       <c r="B9" s="127" t="s">
         <v>24</v>
       </c>
@@ -6219,12 +6125,12 @@
       <c r="AF9" s="137"/>
       <c r="AG9" s="137"/>
       <c r="AH9" s="138"/>
-      <c r="AI9" s="190"/>
+      <c r="AI9" s="197"/>
       <c r="AJ9" s="50"/>
       <c r="AK9" s="51"/>
     </row>
     <row r="10" spans="1:37" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="162"/>
+      <c r="A10" s="203"/>
       <c r="B10" s="127" t="s">
         <v>151</v>
       </c>
@@ -6265,7 +6171,7 @@
       <c r="AK10" s="100"/>
     </row>
     <row r="11" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="162"/>
+      <c r="A11" s="203"/>
       <c r="B11" s="128" t="s">
         <v>147</v>
       </c>
@@ -6306,7 +6212,7 @@
       <c r="AK11" s="100"/>
     </row>
     <row r="12" spans="1:37" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="199" t="s">
+      <c r="A12" s="161" t="s">
         <v>152</v>
       </c>
       <c r="B12" s="117" t="s">
@@ -6349,7 +6255,7 @@
       <c r="AK12" s="30"/>
     </row>
     <row r="13" spans="1:37" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="200"/>
+      <c r="A13" s="162"/>
       <c r="B13" s="118" t="s">
         <v>24</v>
       </c>
@@ -6390,7 +6296,7 @@
       <c r="AK13" s="51"/>
     </row>
     <row r="14" spans="1:37" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="200"/>
+      <c r="A14" s="162"/>
       <c r="B14" s="118" t="s">
         <v>151</v>
       </c>
@@ -6431,7 +6337,7 @@
       <c r="AK14" s="100"/>
     </row>
     <row r="15" spans="1:37" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="201"/>
+      <c r="A15" s="163"/>
       <c r="B15" s="119" t="s">
         <v>147</v>
       </c>
@@ -6476,7 +6382,7 @@
         <f>"miap"&amp;C16</f>
         <v>miap1st</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="198" t="s">
         <v>150</v>
       </c>
       <c r="C16" s="104" t="s">
@@ -6525,11 +6431,11 @@
         <f t="shared" ref="A17:A46" si="0">"miap"&amp;C17</f>
         <v>miap2nd</v>
       </c>
-      <c r="B17" s="170"/>
-      <c r="C17" s="184" t="s">
+      <c r="B17" s="198"/>
+      <c r="C17" s="191" t="s">
         <v>26</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="174"/>
       <c r="E17" s="72"/>
       <c r="F17" s="98"/>
       <c r="G17" s="98"/>
@@ -6572,12 +6478,12 @@
         <f t="shared" si="0"/>
         <v>miap3rd</v>
       </c>
-      <c r="B18" s="170"/>
-      <c r="C18" s="174" t="s">
+      <c r="B18" s="198"/>
+      <c r="C18" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="175"/>
-      <c r="E18" s="176"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="174"/>
       <c r="F18" s="72"/>
       <c r="G18" s="98"/>
       <c r="H18" s="98"/>
@@ -6619,13 +6525,13 @@
         <f t="shared" si="0"/>
         <v>miap4th</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="174" t="s">
+      <c r="B19" s="198"/>
+      <c r="C19" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="176"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="174"/>
       <c r="G19" s="72"/>
       <c r="H19" s="98"/>
       <c r="I19" s="98"/>
@@ -6666,14 +6572,14 @@
         <f t="shared" si="0"/>
         <v>miap5th</v>
       </c>
-      <c r="B20" s="170"/>
-      <c r="C20" s="174" t="s">
+      <c r="B20" s="198"/>
+      <c r="C20" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="176"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="174"/>
       <c r="H20" s="72"/>
       <c r="I20" s="98"/>
       <c r="J20" s="98"/>
@@ -6713,15 +6619,15 @@
         <f t="shared" si="0"/>
         <v>miap6th</v>
       </c>
-      <c r="B21" s="170"/>
-      <c r="C21" s="174" t="s">
+      <c r="B21" s="198"/>
+      <c r="C21" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="176"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="174"/>
       <c r="I21" s="72"/>
       <c r="J21" s="98"/>
       <c r="K21" s="98"/>
@@ -6760,16 +6666,16 @@
         <f t="shared" si="0"/>
         <v>miap7th</v>
       </c>
-      <c r="B22" s="170"/>
-      <c r="C22" s="174" t="s">
+      <c r="B22" s="198"/>
+      <c r="C22" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="176"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="174"/>
       <c r="J22" s="72"/>
       <c r="K22" s="98"/>
       <c r="L22" s="98"/>
@@ -6807,17 +6713,17 @@
         <f t="shared" si="0"/>
         <v>miap8th</v>
       </c>
-      <c r="B23" s="170"/>
-      <c r="C23" s="174" t="s">
+      <c r="B23" s="198"/>
+      <c r="C23" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="176"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="174"/>
       <c r="K23" s="72"/>
       <c r="L23" s="98"/>
       <c r="M23" s="98"/>
@@ -6854,18 +6760,18 @@
         <f t="shared" si="0"/>
         <v>miap9th</v>
       </c>
-      <c r="B24" s="170"/>
-      <c r="C24" s="174" t="s">
+      <c r="B24" s="198"/>
+      <c r="C24" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="D24" s="175"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="176"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="167"/>
+      <c r="K24" s="174"/>
       <c r="L24" s="72"/>
       <c r="M24" s="98"/>
       <c r="N24" s="98"/>
@@ -6901,19 +6807,19 @@
         <f t="shared" si="0"/>
         <v>miap10th</v>
       </c>
-      <c r="B25" s="170"/>
-      <c r="C25" s="174" t="s">
+      <c r="B25" s="198"/>
+      <c r="C25" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="175"/>
-      <c r="K25" s="175"/>
-      <c r="L25" s="176"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="167"/>
+      <c r="K25" s="167"/>
+      <c r="L25" s="174"/>
       <c r="M25" s="72"/>
       <c r="N25" s="98"/>
       <c r="O25" s="98"/>
@@ -6948,20 +6854,20 @@
         <f t="shared" si="0"/>
         <v>miap11th</v>
       </c>
-      <c r="B26" s="170"/>
-      <c r="C26" s="174" t="s">
+      <c r="B26" s="198"/>
+      <c r="C26" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="175"/>
-      <c r="M26" s="176"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="167"/>
+      <c r="L26" s="167"/>
+      <c r="M26" s="174"/>
       <c r="N26" s="72"/>
       <c r="O26" s="98"/>
       <c r="P26" s="98"/>
@@ -6995,21 +6901,21 @@
         <f t="shared" si="0"/>
         <v>miap12th</v>
       </c>
-      <c r="B27" s="170"/>
-      <c r="C27" s="174" t="s">
+      <c r="B27" s="198"/>
+      <c r="C27" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="175"/>
-      <c r="M27" s="175"/>
-      <c r="N27" s="177"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="167"/>
+      <c r="K27" s="167"/>
+      <c r="L27" s="167"/>
+      <c r="M27" s="167"/>
+      <c r="N27" s="175"/>
       <c r="O27" s="72"/>
       <c r="P27" s="98"/>
       <c r="Q27" s="98"/>
@@ -7042,22 +6948,22 @@
         <f t="shared" si="0"/>
         <v>miap13th</v>
       </c>
-      <c r="B28" s="170"/>
-      <c r="C28" s="174" t="s">
+      <c r="B28" s="198"/>
+      <c r="C28" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="175"/>
-      <c r="M28" s="175"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="210"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="167"/>
+      <c r="L28" s="167"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="176"/>
       <c r="P28" s="72"/>
       <c r="Q28" s="98"/>
       <c r="R28" s="98"/>
@@ -7089,23 +6995,23 @@
         <f t="shared" si="0"/>
         <v>miap14th</v>
       </c>
-      <c r="B29" s="170"/>
-      <c r="C29" s="174" t="s">
+      <c r="B29" s="198"/>
+      <c r="C29" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="175"/>
-      <c r="M29" s="175"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="177"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="175"/>
       <c r="Q29" s="72"/>
       <c r="R29" s="98"/>
       <c r="S29" s="98"/>
@@ -7136,24 +7042,24 @@
         <f t="shared" si="0"/>
         <v>miap15th</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="174" t="s">
+      <c r="B30" s="198"/>
+      <c r="C30" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="175"/>
-      <c r="L30" s="175"/>
-      <c r="M30" s="175"/>
-      <c r="N30" s="175"/>
-      <c r="O30" s="175"/>
-      <c r="P30" s="175"/>
-      <c r="Q30" s="175"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
+      <c r="K30" s="167"/>
+      <c r="L30" s="167"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="167"/>
+      <c r="O30" s="167"/>
+      <c r="P30" s="167"/>
+      <c r="Q30" s="167"/>
       <c r="R30" s="72"/>
       <c r="S30" s="98"/>
       <c r="T30" s="98"/>
@@ -7183,25 +7089,25 @@
         <f t="shared" si="0"/>
         <v>miap16th</v>
       </c>
-      <c r="B31" s="170"/>
-      <c r="C31" s="174" t="s">
+      <c r="B31" s="198"/>
+      <c r="C31" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="175"/>
-      <c r="L31" s="175"/>
-      <c r="M31" s="175"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="175"/>
-      <c r="Q31" s="175"/>
-      <c r="R31" s="175"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="167"/>
+      <c r="K31" s="167"/>
+      <c r="L31" s="167"/>
+      <c r="M31" s="167"/>
+      <c r="N31" s="167"/>
+      <c r="O31" s="167"/>
+      <c r="P31" s="167"/>
+      <c r="Q31" s="167"/>
+      <c r="R31" s="167"/>
       <c r="S31" s="72"/>
       <c r="T31" s="98"/>
       <c r="U31" s="98"/>
@@ -7230,26 +7136,26 @@
         <f t="shared" si="0"/>
         <v>miap17th</v>
       </c>
-      <c r="B32" s="170"/>
-      <c r="C32" s="174" t="s">
+      <c r="B32" s="198"/>
+      <c r="C32" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="175"/>
-      <c r="E32" s="175"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="175"/>
-      <c r="L32" s="175"/>
-      <c r="M32" s="175"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="175"/>
-      <c r="Q32" s="175"/>
-      <c r="R32" s="175"/>
-      <c r="S32" s="175"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="167"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="167"/>
+      <c r="O32" s="167"/>
+      <c r="P32" s="167"/>
+      <c r="Q32" s="167"/>
+      <c r="R32" s="167"/>
+      <c r="S32" s="167"/>
       <c r="T32" s="72"/>
       <c r="U32" s="98"/>
       <c r="V32" s="98"/>
@@ -7277,27 +7183,27 @@
         <f t="shared" si="0"/>
         <v>miap18th</v>
       </c>
-      <c r="B33" s="170"/>
-      <c r="C33" s="174" t="s">
+      <c r="B33" s="198"/>
+      <c r="C33" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="D33" s="175"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="175"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="175"/>
-      <c r="M33" s="175"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="175"/>
-      <c r="Q33" s="175"/>
-      <c r="R33" s="175"/>
-      <c r="S33" s="175"/>
-      <c r="T33" s="175"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="167"/>
+      <c r="L33" s="167"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="167"/>
+      <c r="O33" s="167"/>
+      <c r="P33" s="167"/>
+      <c r="Q33" s="167"/>
+      <c r="R33" s="167"/>
+      <c r="S33" s="167"/>
+      <c r="T33" s="167"/>
       <c r="U33" s="72"/>
       <c r="V33" s="98"/>
       <c r="W33" s="98"/>
@@ -7324,28 +7230,28 @@
         <f t="shared" si="0"/>
         <v>miap19th</v>
       </c>
-      <c r="B34" s="170"/>
-      <c r="C34" s="174" t="s">
+      <c r="B34" s="198"/>
+      <c r="C34" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="D34" s="175"/>
-      <c r="E34" s="175"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="175"/>
-      <c r="H34" s="175"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="175"/>
-      <c r="K34" s="175"/>
-      <c r="L34" s="175"/>
-      <c r="M34" s="175"/>
-      <c r="N34" s="175"/>
-      <c r="O34" s="175"/>
-      <c r="P34" s="175"/>
-      <c r="Q34" s="175"/>
-      <c r="R34" s="175"/>
-      <c r="S34" s="175"/>
-      <c r="T34" s="175"/>
-      <c r="U34" s="175"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="167"/>
+      <c r="K34" s="167"/>
+      <c r="L34" s="167"/>
+      <c r="M34" s="167"/>
+      <c r="N34" s="167"/>
+      <c r="O34" s="167"/>
+      <c r="P34" s="167"/>
+      <c r="Q34" s="167"/>
+      <c r="R34" s="167"/>
+      <c r="S34" s="167"/>
+      <c r="T34" s="167"/>
+      <c r="U34" s="167"/>
       <c r="V34" s="72"/>
       <c r="W34" s="98"/>
       <c r="X34" s="98"/>
@@ -7371,29 +7277,29 @@
         <f t="shared" si="0"/>
         <v>miap20th</v>
       </c>
-      <c r="B35" s="170"/>
-      <c r="C35" s="174" t="s">
+      <c r="B35" s="198"/>
+      <c r="C35" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="175"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="175"/>
-      <c r="L35" s="175"/>
-      <c r="M35" s="175"/>
-      <c r="N35" s="175"/>
-      <c r="O35" s="175"/>
-      <c r="P35" s="175"/>
-      <c r="Q35" s="175"/>
-      <c r="R35" s="175"/>
-      <c r="S35" s="175"/>
-      <c r="T35" s="175"/>
-      <c r="U35" s="175"/>
-      <c r="V35" s="175"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="167"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="167"/>
+      <c r="K35" s="167"/>
+      <c r="L35" s="167"/>
+      <c r="M35" s="167"/>
+      <c r="N35" s="167"/>
+      <c r="O35" s="167"/>
+      <c r="P35" s="167"/>
+      <c r="Q35" s="167"/>
+      <c r="R35" s="167"/>
+      <c r="S35" s="167"/>
+      <c r="T35" s="167"/>
+      <c r="U35" s="167"/>
+      <c r="V35" s="167"/>
       <c r="W35" s="72"/>
       <c r="X35" s="98"/>
       <c r="Y35" s="98"/>
@@ -7418,30 +7324,30 @@
         <f t="shared" si="0"/>
         <v>miap21st</v>
       </c>
-      <c r="B36" s="170"/>
-      <c r="C36" s="174" t="s">
+      <c r="B36" s="198"/>
+      <c r="C36" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="D36" s="175"/>
-      <c r="E36" s="175"/>
-      <c r="F36" s="175"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="175"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="175"/>
-      <c r="K36" s="175"/>
-      <c r="L36" s="175"/>
-      <c r="M36" s="175"/>
-      <c r="N36" s="175"/>
-      <c r="O36" s="175"/>
-      <c r="P36" s="175"/>
-      <c r="Q36" s="175"/>
-      <c r="R36" s="175"/>
-      <c r="S36" s="175"/>
-      <c r="T36" s="175"/>
-      <c r="U36" s="175"/>
-      <c r="V36" s="175"/>
-      <c r="W36" s="175"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="167"/>
+      <c r="K36" s="167"/>
+      <c r="L36" s="167"/>
+      <c r="M36" s="167"/>
+      <c r="N36" s="167"/>
+      <c r="O36" s="167"/>
+      <c r="P36" s="167"/>
+      <c r="Q36" s="167"/>
+      <c r="R36" s="167"/>
+      <c r="S36" s="167"/>
+      <c r="T36" s="167"/>
+      <c r="U36" s="167"/>
+      <c r="V36" s="167"/>
+      <c r="W36" s="167"/>
       <c r="X36" s="72"/>
       <c r="Y36" s="98"/>
       <c r="Z36" s="98"/>
@@ -7465,31 +7371,31 @@
         <f t="shared" si="0"/>
         <v>miap22nd</v>
       </c>
-      <c r="B37" s="170"/>
-      <c r="C37" s="174" t="s">
+      <c r="B37" s="198"/>
+      <c r="C37" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="D37" s="175"/>
-      <c r="E37" s="175"/>
-      <c r="F37" s="175"/>
-      <c r="G37" s="175"/>
-      <c r="H37" s="175"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="175"/>
-      <c r="K37" s="175"/>
-      <c r="L37" s="175"/>
-      <c r="M37" s="175"/>
-      <c r="N37" s="175"/>
-      <c r="O37" s="175"/>
-      <c r="P37" s="175"/>
-      <c r="Q37" s="175"/>
-      <c r="R37" s="175"/>
-      <c r="S37" s="175"/>
-      <c r="T37" s="175"/>
-      <c r="U37" s="175"/>
-      <c r="V37" s="175"/>
-      <c r="W37" s="175"/>
-      <c r="X37" s="175"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167"/>
+      <c r="F37" s="167"/>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="167"/>
+      <c r="K37" s="167"/>
+      <c r="L37" s="167"/>
+      <c r="M37" s="167"/>
+      <c r="N37" s="167"/>
+      <c r="O37" s="167"/>
+      <c r="P37" s="167"/>
+      <c r="Q37" s="167"/>
+      <c r="R37" s="167"/>
+      <c r="S37" s="167"/>
+      <c r="T37" s="167"/>
+      <c r="U37" s="167"/>
+      <c r="V37" s="167"/>
+      <c r="W37" s="167"/>
+      <c r="X37" s="167"/>
       <c r="Y37" s="72"/>
       <c r="Z37" s="98"/>
       <c r="AA37" s="98"/>
@@ -7512,32 +7418,32 @@
         <f t="shared" si="0"/>
         <v>miap23rd</v>
       </c>
-      <c r="B38" s="170"/>
-      <c r="C38" s="174" t="s">
+      <c r="B38" s="198"/>
+      <c r="C38" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="D38" s="175"/>
-      <c r="E38" s="175"/>
-      <c r="F38" s="175"/>
-      <c r="G38" s="175"/>
-      <c r="H38" s="175"/>
-      <c r="I38" s="175"/>
-      <c r="J38" s="175"/>
-      <c r="K38" s="175"/>
-      <c r="L38" s="175"/>
-      <c r="M38" s="175"/>
-      <c r="N38" s="175"/>
-      <c r="O38" s="175"/>
-      <c r="P38" s="175"/>
-      <c r="Q38" s="175"/>
-      <c r="R38" s="175"/>
-      <c r="S38" s="175"/>
-      <c r="T38" s="175"/>
-      <c r="U38" s="175"/>
-      <c r="V38" s="175"/>
-      <c r="W38" s="175"/>
-      <c r="X38" s="175"/>
-      <c r="Y38" s="175"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167"/>
+      <c r="F38" s="167"/>
+      <c r="G38" s="167"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="167"/>
+      <c r="K38" s="167"/>
+      <c r="L38" s="167"/>
+      <c r="M38" s="167"/>
+      <c r="N38" s="167"/>
+      <c r="O38" s="167"/>
+      <c r="P38" s="167"/>
+      <c r="Q38" s="167"/>
+      <c r="R38" s="167"/>
+      <c r="S38" s="167"/>
+      <c r="T38" s="167"/>
+      <c r="U38" s="167"/>
+      <c r="V38" s="167"/>
+      <c r="W38" s="167"/>
+      <c r="X38" s="167"/>
+      <c r="Y38" s="167"/>
       <c r="Z38" s="72"/>
       <c r="AA38" s="98"/>
       <c r="AB38" s="98"/>
@@ -7559,33 +7465,33 @@
         <f t="shared" si="0"/>
         <v>miap24th</v>
       </c>
-      <c r="B39" s="170"/>
-      <c r="C39" s="174" t="s">
+      <c r="B39" s="198"/>
+      <c r="C39" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="D39" s="175"/>
-      <c r="E39" s="175"/>
-      <c r="F39" s="175"/>
-      <c r="G39" s="175"/>
-      <c r="H39" s="175"/>
-      <c r="I39" s="175"/>
-      <c r="J39" s="175"/>
-      <c r="K39" s="175"/>
-      <c r="L39" s="175"/>
-      <c r="M39" s="175"/>
-      <c r="N39" s="175"/>
-      <c r="O39" s="175"/>
-      <c r="P39" s="175"/>
-      <c r="Q39" s="175"/>
-      <c r="R39" s="175"/>
-      <c r="S39" s="175"/>
-      <c r="T39" s="175"/>
-      <c r="U39" s="175"/>
-      <c r="V39" s="175"/>
-      <c r="W39" s="175"/>
-      <c r="X39" s="175"/>
-      <c r="Y39" s="175"/>
-      <c r="Z39" s="175"/>
+      <c r="D39" s="167"/>
+      <c r="E39" s="167"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="167"/>
+      <c r="L39" s="167"/>
+      <c r="M39" s="167"/>
+      <c r="N39" s="167"/>
+      <c r="O39" s="167"/>
+      <c r="P39" s="167"/>
+      <c r="Q39" s="167"/>
+      <c r="R39" s="167"/>
+      <c r="S39" s="167"/>
+      <c r="T39" s="167"/>
+      <c r="U39" s="167"/>
+      <c r="V39" s="167"/>
+      <c r="W39" s="167"/>
+      <c r="X39" s="167"/>
+      <c r="Y39" s="167"/>
+      <c r="Z39" s="167"/>
       <c r="AA39" s="72"/>
       <c r="AB39" s="98"/>
       <c r="AC39" s="98"/>
@@ -7606,34 +7512,34 @@
         <f t="shared" si="0"/>
         <v>miap25th</v>
       </c>
-      <c r="B40" s="170"/>
-      <c r="C40" s="174" t="s">
+      <c r="B40" s="198"/>
+      <c r="C40" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="D40" s="175"/>
-      <c r="E40" s="175"/>
-      <c r="F40" s="175"/>
-      <c r="G40" s="175"/>
-      <c r="H40" s="175"/>
-      <c r="I40" s="175"/>
-      <c r="J40" s="175"/>
-      <c r="K40" s="175"/>
-      <c r="L40" s="175"/>
-      <c r="M40" s="175"/>
-      <c r="N40" s="175"/>
-      <c r="O40" s="175"/>
-      <c r="P40" s="175"/>
-      <c r="Q40" s="175"/>
-      <c r="R40" s="175"/>
-      <c r="S40" s="175"/>
-      <c r="T40" s="175"/>
-      <c r="U40" s="175"/>
-      <c r="V40" s="175"/>
-      <c r="W40" s="175"/>
-      <c r="X40" s="175"/>
-      <c r="Y40" s="175"/>
-      <c r="Z40" s="175"/>
-      <c r="AA40" s="175"/>
+      <c r="D40" s="167"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="167"/>
+      <c r="K40" s="167"/>
+      <c r="L40" s="167"/>
+      <c r="M40" s="167"/>
+      <c r="N40" s="167"/>
+      <c r="O40" s="167"/>
+      <c r="P40" s="167"/>
+      <c r="Q40" s="167"/>
+      <c r="R40" s="167"/>
+      <c r="S40" s="167"/>
+      <c r="T40" s="167"/>
+      <c r="U40" s="167"/>
+      <c r="V40" s="167"/>
+      <c r="W40" s="167"/>
+      <c r="X40" s="167"/>
+      <c r="Y40" s="167"/>
+      <c r="Z40" s="167"/>
+      <c r="AA40" s="167"/>
       <c r="AB40" s="72"/>
       <c r="AC40" s="98"/>
       <c r="AD40" s="98"/>
@@ -7653,35 +7559,35 @@
         <f t="shared" si="0"/>
         <v>miap26th</v>
       </c>
-      <c r="B41" s="170"/>
-      <c r="C41" s="174" t="s">
+      <c r="B41" s="198"/>
+      <c r="C41" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="175"/>
-      <c r="E41" s="175"/>
-      <c r="F41" s="175"/>
-      <c r="G41" s="175"/>
-      <c r="H41" s="175"/>
-      <c r="I41" s="175"/>
-      <c r="J41" s="175"/>
-      <c r="K41" s="175"/>
-      <c r="L41" s="175"/>
-      <c r="M41" s="175"/>
-      <c r="N41" s="175"/>
-      <c r="O41" s="175"/>
-      <c r="P41" s="175"/>
-      <c r="Q41" s="175"/>
-      <c r="R41" s="175"/>
-      <c r="S41" s="175"/>
-      <c r="T41" s="175"/>
-      <c r="U41" s="175"/>
-      <c r="V41" s="175"/>
-      <c r="W41" s="175"/>
-      <c r="X41" s="175"/>
-      <c r="Y41" s="175"/>
-      <c r="Z41" s="175"/>
-      <c r="AA41" s="175"/>
-      <c r="AB41" s="175"/>
+      <c r="D41" s="167"/>
+      <c r="E41" s="167"/>
+      <c r="F41" s="167"/>
+      <c r="G41" s="167"/>
+      <c r="H41" s="167"/>
+      <c r="I41" s="167"/>
+      <c r="J41" s="167"/>
+      <c r="K41" s="167"/>
+      <c r="L41" s="167"/>
+      <c r="M41" s="167"/>
+      <c r="N41" s="167"/>
+      <c r="O41" s="167"/>
+      <c r="P41" s="167"/>
+      <c r="Q41" s="167"/>
+      <c r="R41" s="167"/>
+      <c r="S41" s="167"/>
+      <c r="T41" s="167"/>
+      <c r="U41" s="167"/>
+      <c r="V41" s="167"/>
+      <c r="W41" s="167"/>
+      <c r="X41" s="167"/>
+      <c r="Y41" s="167"/>
+      <c r="Z41" s="167"/>
+      <c r="AA41" s="167"/>
+      <c r="AB41" s="167"/>
       <c r="AC41" s="72"/>
       <c r="AD41" s="98"/>
       <c r="AE41" s="98"/>
@@ -7700,36 +7606,36 @@
         <f t="shared" si="0"/>
         <v>miap27th</v>
       </c>
-      <c r="B42" s="170"/>
-      <c r="C42" s="174" t="s">
+      <c r="B42" s="198"/>
+      <c r="C42" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="175"/>
-      <c r="E42" s="175"/>
-      <c r="F42" s="175"/>
-      <c r="G42" s="175"/>
-      <c r="H42" s="175"/>
-      <c r="I42" s="175"/>
-      <c r="J42" s="175"/>
-      <c r="K42" s="175"/>
-      <c r="L42" s="175"/>
-      <c r="M42" s="175"/>
-      <c r="N42" s="175"/>
-      <c r="O42" s="175"/>
-      <c r="P42" s="175"/>
-      <c r="Q42" s="175"/>
-      <c r="R42" s="175"/>
-      <c r="S42" s="175"/>
-      <c r="T42" s="175"/>
-      <c r="U42" s="175"/>
-      <c r="V42" s="175"/>
-      <c r="W42" s="175"/>
-      <c r="X42" s="175"/>
-      <c r="Y42" s="175"/>
-      <c r="Z42" s="175"/>
-      <c r="AA42" s="175"/>
-      <c r="AB42" s="175"/>
-      <c r="AC42" s="175"/>
+      <c r="D42" s="167"/>
+      <c r="E42" s="167"/>
+      <c r="F42" s="167"/>
+      <c r="G42" s="167"/>
+      <c r="H42" s="167"/>
+      <c r="I42" s="167"/>
+      <c r="J42" s="167"/>
+      <c r="K42" s="167"/>
+      <c r="L42" s="167"/>
+      <c r="M42" s="167"/>
+      <c r="N42" s="167"/>
+      <c r="O42" s="167"/>
+      <c r="P42" s="167"/>
+      <c r="Q42" s="167"/>
+      <c r="R42" s="167"/>
+      <c r="S42" s="167"/>
+      <c r="T42" s="167"/>
+      <c r="U42" s="167"/>
+      <c r="V42" s="167"/>
+      <c r="W42" s="167"/>
+      <c r="X42" s="167"/>
+      <c r="Y42" s="167"/>
+      <c r="Z42" s="167"/>
+      <c r="AA42" s="167"/>
+      <c r="AB42" s="167"/>
+      <c r="AC42" s="167"/>
       <c r="AD42" s="72"/>
       <c r="AE42" s="98"/>
       <c r="AF42" s="98"/>
@@ -7747,37 +7653,37 @@
         <f t="shared" si="0"/>
         <v>miap28th</v>
       </c>
-      <c r="B43" s="170"/>
-      <c r="C43" s="174" t="s">
+      <c r="B43" s="198"/>
+      <c r="C43" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="175"/>
-      <c r="E43" s="175"/>
-      <c r="F43" s="175"/>
-      <c r="G43" s="175"/>
-      <c r="H43" s="175"/>
-      <c r="I43" s="175"/>
-      <c r="J43" s="175"/>
-      <c r="K43" s="175"/>
-      <c r="L43" s="175"/>
-      <c r="M43" s="175"/>
-      <c r="N43" s="175"/>
-      <c r="O43" s="175"/>
-      <c r="P43" s="175"/>
-      <c r="Q43" s="175"/>
-      <c r="R43" s="175"/>
-      <c r="S43" s="175"/>
-      <c r="T43" s="175"/>
-      <c r="U43" s="175"/>
-      <c r="V43" s="175"/>
-      <c r="W43" s="175"/>
-      <c r="X43" s="175"/>
-      <c r="Y43" s="175"/>
-      <c r="Z43" s="175"/>
-      <c r="AA43" s="175"/>
-      <c r="AB43" s="175"/>
-      <c r="AC43" s="175"/>
-      <c r="AD43" s="175"/>
+      <c r="D43" s="167"/>
+      <c r="E43" s="167"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="167"/>
+      <c r="H43" s="167"/>
+      <c r="I43" s="167"/>
+      <c r="J43" s="167"/>
+      <c r="K43" s="167"/>
+      <c r="L43" s="167"/>
+      <c r="M43" s="167"/>
+      <c r="N43" s="167"/>
+      <c r="O43" s="167"/>
+      <c r="P43" s="167"/>
+      <c r="Q43" s="167"/>
+      <c r="R43" s="167"/>
+      <c r="S43" s="167"/>
+      <c r="T43" s="167"/>
+      <c r="U43" s="167"/>
+      <c r="V43" s="167"/>
+      <c r="W43" s="167"/>
+      <c r="X43" s="167"/>
+      <c r="Y43" s="167"/>
+      <c r="Z43" s="167"/>
+      <c r="AA43" s="167"/>
+      <c r="AB43" s="167"/>
+      <c r="AC43" s="167"/>
+      <c r="AD43" s="167"/>
       <c r="AE43" s="72"/>
       <c r="AF43" s="98"/>
       <c r="AG43" s="98"/>
@@ -7794,38 +7700,38 @@
         <f t="shared" si="0"/>
         <v>miap29th</v>
       </c>
-      <c r="B44" s="170"/>
-      <c r="C44" s="204" t="s">
+      <c r="B44" s="198"/>
+      <c r="C44" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="D44" s="205"/>
-      <c r="E44" s="205"/>
-      <c r="F44" s="205"/>
-      <c r="G44" s="205"/>
-      <c r="H44" s="205"/>
-      <c r="I44" s="205"/>
-      <c r="J44" s="205"/>
-      <c r="K44" s="205"/>
-      <c r="L44" s="205"/>
-      <c r="M44" s="205"/>
-      <c r="N44" s="205"/>
-      <c r="O44" s="205"/>
-      <c r="P44" s="205"/>
-      <c r="Q44" s="205"/>
-      <c r="R44" s="205"/>
-      <c r="S44" s="205"/>
-      <c r="T44" s="205"/>
-      <c r="U44" s="205"/>
-      <c r="V44" s="205"/>
-      <c r="W44" s="205"/>
-      <c r="X44" s="205"/>
-      <c r="Y44" s="205"/>
-      <c r="Z44" s="205"/>
-      <c r="AA44" s="205"/>
-      <c r="AB44" s="205"/>
-      <c r="AC44" s="205"/>
-      <c r="AD44" s="205"/>
-      <c r="AE44" s="205"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="169"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="169"/>
+      <c r="K44" s="169"/>
+      <c r="L44" s="169"/>
+      <c r="M44" s="169"/>
+      <c r="N44" s="169"/>
+      <c r="O44" s="169"/>
+      <c r="P44" s="169"/>
+      <c r="Q44" s="169"/>
+      <c r="R44" s="169"/>
+      <c r="S44" s="169"/>
+      <c r="T44" s="169"/>
+      <c r="U44" s="169"/>
+      <c r="V44" s="169"/>
+      <c r="W44" s="169"/>
+      <c r="X44" s="169"/>
+      <c r="Y44" s="169"/>
+      <c r="Z44" s="169"/>
+      <c r="AA44" s="169"/>
+      <c r="AB44" s="169"/>
+      <c r="AC44" s="169"/>
+      <c r="AD44" s="169"/>
+      <c r="AE44" s="169"/>
       <c r="AF44" s="72"/>
       <c r="AG44" s="98"/>
       <c r="AH44" s="34"/>
@@ -7841,39 +7747,39 @@
         <f t="shared" si="0"/>
         <v>miap30th</v>
       </c>
-      <c r="B45" s="170"/>
-      <c r="C45" s="204" t="s">
+      <c r="B45" s="198"/>
+      <c r="C45" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="205"/>
-      <c r="E45" s="205"/>
-      <c r="F45" s="205"/>
-      <c r="G45" s="205"/>
-      <c r="H45" s="205"/>
-      <c r="I45" s="205"/>
-      <c r="J45" s="205"/>
-      <c r="K45" s="205"/>
-      <c r="L45" s="205"/>
-      <c r="M45" s="205"/>
-      <c r="N45" s="205"/>
-      <c r="O45" s="205"/>
-      <c r="P45" s="205"/>
-      <c r="Q45" s="205"/>
-      <c r="R45" s="205"/>
-      <c r="S45" s="205"/>
-      <c r="T45" s="205"/>
-      <c r="U45" s="205"/>
-      <c r="V45" s="205"/>
-      <c r="W45" s="205"/>
-      <c r="X45" s="205"/>
-      <c r="Y45" s="205"/>
-      <c r="Z45" s="205"/>
-      <c r="AA45" s="205"/>
-      <c r="AB45" s="205"/>
-      <c r="AC45" s="205"/>
-      <c r="AD45" s="205"/>
-      <c r="AE45" s="205"/>
-      <c r="AF45" s="205"/>
+      <c r="D45" s="169"/>
+      <c r="E45" s="169"/>
+      <c r="F45" s="169"/>
+      <c r="G45" s="169"/>
+      <c r="H45" s="169"/>
+      <c r="I45" s="169"/>
+      <c r="J45" s="169"/>
+      <c r="K45" s="169"/>
+      <c r="L45" s="169"/>
+      <c r="M45" s="169"/>
+      <c r="N45" s="169"/>
+      <c r="O45" s="169"/>
+      <c r="P45" s="169"/>
+      <c r="Q45" s="169"/>
+      <c r="R45" s="169"/>
+      <c r="S45" s="169"/>
+      <c r="T45" s="169"/>
+      <c r="U45" s="169"/>
+      <c r="V45" s="169"/>
+      <c r="W45" s="169"/>
+      <c r="X45" s="169"/>
+      <c r="Y45" s="169"/>
+      <c r="Z45" s="169"/>
+      <c r="AA45" s="169"/>
+      <c r="AB45" s="169"/>
+      <c r="AC45" s="169"/>
+      <c r="AD45" s="169"/>
+      <c r="AE45" s="169"/>
+      <c r="AF45" s="169"/>
       <c r="AG45" s="72"/>
       <c r="AH45" s="98"/>
       <c r="AI45" s="29" t="str">
@@ -7888,40 +7794,40 @@
         <f t="shared" si="0"/>
         <v>miap31st</v>
       </c>
-      <c r="B46" s="170"/>
-      <c r="C46" s="206" t="s">
+      <c r="B46" s="198"/>
+      <c r="C46" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="D46" s="207"/>
-      <c r="E46" s="207"/>
-      <c r="F46" s="207"/>
-      <c r="G46" s="207"/>
-      <c r="H46" s="207"/>
-      <c r="I46" s="207"/>
-      <c r="J46" s="207"/>
-      <c r="K46" s="207"/>
-      <c r="L46" s="207"/>
-      <c r="M46" s="207"/>
-      <c r="N46" s="207"/>
-      <c r="O46" s="207"/>
-      <c r="P46" s="207"/>
-      <c r="Q46" s="207"/>
-      <c r="R46" s="207"/>
-      <c r="S46" s="207"/>
-      <c r="T46" s="207"/>
-      <c r="U46" s="207"/>
-      <c r="V46" s="207"/>
-      <c r="W46" s="207"/>
-      <c r="X46" s="207"/>
-      <c r="Y46" s="207"/>
-      <c r="Z46" s="207"/>
-      <c r="AA46" s="207"/>
-      <c r="AB46" s="207"/>
-      <c r="AC46" s="207"/>
-      <c r="AD46" s="207"/>
-      <c r="AE46" s="207"/>
-      <c r="AF46" s="207"/>
-      <c r="AG46" s="207"/>
+      <c r="D46" s="171"/>
+      <c r="E46" s="171"/>
+      <c r="F46" s="171"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="171"/>
+      <c r="J46" s="171"/>
+      <c r="K46" s="171"/>
+      <c r="L46" s="171"/>
+      <c r="M46" s="171"/>
+      <c r="N46" s="171"/>
+      <c r="O46" s="171"/>
+      <c r="P46" s="171"/>
+      <c r="Q46" s="171"/>
+      <c r="R46" s="171"/>
+      <c r="S46" s="171"/>
+      <c r="T46" s="171"/>
+      <c r="U46" s="171"/>
+      <c r="V46" s="171"/>
+      <c r="W46" s="171"/>
+      <c r="X46" s="171"/>
+      <c r="Y46" s="171"/>
+      <c r="Z46" s="171"/>
+      <c r="AA46" s="171"/>
+      <c r="AB46" s="171"/>
+      <c r="AC46" s="171"/>
+      <c r="AD46" s="171"/>
+      <c r="AE46" s="171"/>
+      <c r="AF46" s="171"/>
+      <c r="AG46" s="171"/>
       <c r="AH46" s="72"/>
       <c r="AI46" s="29" t="str">
         <f ca="1">IFERROR(INDIRECT(ADDRESS(ROW(),SUMPRODUCT(MAX((AH46&lt;&gt;"")*COLUMN(AH46))))),"")</f>
@@ -7934,41 +7840,41 @@
       <c r="A47" s="46" t="s">
         <v>121</v>
       </c>
-      <c r="B47" s="171"/>
-      <c r="C47" s="208" t="s">
+      <c r="B47" s="199"/>
+      <c r="C47" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="209"/>
-      <c r="E47" s="209"/>
-      <c r="F47" s="209"/>
-      <c r="G47" s="209"/>
-      <c r="H47" s="209"/>
-      <c r="I47" s="209"/>
-      <c r="J47" s="209"/>
-      <c r="K47" s="209"/>
-      <c r="L47" s="209"/>
-      <c r="M47" s="202"/>
-      <c r="N47" s="202"/>
-      <c r="O47" s="202"/>
-      <c r="P47" s="202"/>
-      <c r="Q47" s="202"/>
-      <c r="R47" s="202"/>
-      <c r="S47" s="202"/>
-      <c r="T47" s="202"/>
-      <c r="U47" s="202"/>
-      <c r="V47" s="202"/>
-      <c r="W47" s="202"/>
-      <c r="X47" s="202"/>
-      <c r="Y47" s="202"/>
-      <c r="Z47" s="202"/>
-      <c r="AA47" s="202"/>
-      <c r="AB47" s="202"/>
-      <c r="AC47" s="202"/>
-      <c r="AD47" s="202"/>
-      <c r="AE47" s="202"/>
-      <c r="AF47" s="202"/>
-      <c r="AG47" s="202"/>
-      <c r="AH47" s="203"/>
+      <c r="D47" s="173"/>
+      <c r="E47" s="173"/>
+      <c r="F47" s="173"/>
+      <c r="G47" s="173"/>
+      <c r="H47" s="173"/>
+      <c r="I47" s="173"/>
+      <c r="J47" s="173"/>
+      <c r="K47" s="173"/>
+      <c r="L47" s="173"/>
+      <c r="M47" s="164"/>
+      <c r="N47" s="164"/>
+      <c r="O47" s="164"/>
+      <c r="P47" s="164"/>
+      <c r="Q47" s="164"/>
+      <c r="R47" s="164"/>
+      <c r="S47" s="164"/>
+      <c r="T47" s="164"/>
+      <c r="U47" s="164"/>
+      <c r="V47" s="164"/>
+      <c r="W47" s="164"/>
+      <c r="X47" s="164"/>
+      <c r="Y47" s="164"/>
+      <c r="Z47" s="164"/>
+      <c r="AA47" s="164"/>
+      <c r="AB47" s="164"/>
+      <c r="AC47" s="164"/>
+      <c r="AD47" s="164"/>
+      <c r="AE47" s="164"/>
+      <c r="AF47" s="164"/>
+      <c r="AG47" s="164"/>
+      <c r="AH47" s="165"/>
       <c r="AI47" s="52" t="str">
         <f ca="1">IF(SUM(AI16:AI46)=0,"",SUM(AI16:AI46))</f>
         <v/>
@@ -8024,19 +7930,19 @@
     <row r="49" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="48"/>
       <c r="B49" s="16"/>
-      <c r="C49" s="194" t="s">
+      <c r="C49" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="D49" s="194"/>
-      <c r="E49" s="194"/>
-      <c r="F49" s="194"/>
-      <c r="G49" s="194"/>
-      <c r="H49" s="194"/>
-      <c r="I49" s="194"/>
-      <c r="J49" s="195" t="s">
+      <c r="D49" s="180"/>
+      <c r="E49" s="180"/>
+      <c r="F49" s="180"/>
+      <c r="G49" s="180"/>
+      <c r="H49" s="180"/>
+      <c r="I49" s="180"/>
+      <c r="J49" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="K49" s="195"/>
+      <c r="K49" s="181"/>
       <c r="L49" s="19"/>
       <c r="M49" s="19"/>
       <c r="N49" s="19"/>
@@ -8067,20 +7973,20 @@
     <row r="50" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="48"/>
       <c r="B50" s="16"/>
-      <c r="C50" s="191" t="s">
+      <c r="C50" s="177" t="s">
         <v>154</v>
       </c>
-      <c r="D50" s="191"/>
-      <c r="E50" s="191"/>
-      <c r="F50" s="191"/>
-      <c r="G50" s="191"/>
-      <c r="H50" s="191"/>
-      <c r="I50" s="191"/>
-      <c r="J50" s="192">
+      <c r="D50" s="177"/>
+      <c r="E50" s="177"/>
+      <c r="F50" s="177"/>
+      <c r="G50" s="177"/>
+      <c r="H50" s="177"/>
+      <c r="I50" s="177"/>
+      <c r="J50" s="178">
         <f>SUM(D10:AH10,D14:AH14)</f>
         <v>0</v>
       </c>
-      <c r="K50" s="193"/>
+      <c r="K50" s="179"/>
       <c r="L50" s="19"/>
       <c r="M50" s="19"/>
       <c r="N50" s="19"/>
@@ -8111,20 +8017,20 @@
     <row r="51" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="48"/>
       <c r="B51" s="16"/>
-      <c r="C51" s="191" t="s">
+      <c r="C51" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="D51" s="191"/>
-      <c r="E51" s="191"/>
-      <c r="F51" s="191"/>
-      <c r="G51" s="191"/>
-      <c r="H51" s="191"/>
-      <c r="I51" s="191"/>
-      <c r="J51" s="196">
+      <c r="D51" s="177"/>
+      <c r="E51" s="177"/>
+      <c r="F51" s="177"/>
+      <c r="G51" s="177"/>
+      <c r="H51" s="177"/>
+      <c r="I51" s="177"/>
+      <c r="J51" s="182">
         <f>SUM(D15:AH15,D11:AH11)</f>
         <v>0</v>
       </c>
-      <c r="K51" s="197"/>
+      <c r="K51" s="183"/>
       <c r="L51" s="19"/>
       <c r="M51" s="19"/>
       <c r="N51" s="19"/>
@@ -8155,20 +8061,20 @@
     <row r="52" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="48"/>
       <c r="B52" s="16"/>
-      <c r="C52" s="191" t="s">
+      <c r="C52" s="177" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="191"/>
-      <c r="E52" s="191"/>
-      <c r="F52" s="191"/>
-      <c r="G52" s="191"/>
-      <c r="H52" s="191"/>
-      <c r="I52" s="191"/>
-      <c r="J52" s="192">
+      <c r="D52" s="177"/>
+      <c r="E52" s="177"/>
+      <c r="F52" s="177"/>
+      <c r="G52" s="177"/>
+      <c r="H52" s="177"/>
+      <c r="I52" s="177"/>
+      <c r="J52" s="178">
         <f>SUM(D13:AH13,D9:AH9)</f>
         <v>0</v>
       </c>
-      <c r="K52" s="193"/>
+      <c r="K52" s="179"/>
       <c r="L52" s="19"/>
       <c r="M52" s="19"/>
       <c r="N52" s="19"/>
@@ -8198,20 +8104,20 @@
     </row>
     <row r="53" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="48"/>
-      <c r="C53" s="198" t="s">
+      <c r="C53" s="184" t="s">
         <v>130</v>
       </c>
-      <c r="D53" s="198"/>
-      <c r="E53" s="198"/>
-      <c r="F53" s="198"/>
-      <c r="G53" s="198"/>
-      <c r="H53" s="198"/>
-      <c r="I53" s="198"/>
-      <c r="J53" s="192">
+      <c r="D53" s="184"/>
+      <c r="E53" s="184"/>
+      <c r="F53" s="184"/>
+      <c r="G53" s="184"/>
+      <c r="H53" s="184"/>
+      <c r="I53" s="184"/>
+      <c r="J53" s="178">
         <f>SUM(AF12:AH12,D8:AH8)</f>
         <v>0</v>
       </c>
-      <c r="K53" s="193"/>
+      <c r="K53" s="179"/>
       <c r="L53" s="19"/>
       <c r="M53" s="19"/>
       <c r="N53" s="19"/>
@@ -8242,20 +8148,20 @@
     <row r="54" spans="1:37" s="15" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="48"/>
       <c r="B54" s="16"/>
-      <c r="C54" s="191" t="s">
+      <c r="C54" s="177" t="s">
         <v>131</v>
       </c>
-      <c r="D54" s="191"/>
-      <c r="E54" s="191"/>
-      <c r="F54" s="191"/>
-      <c r="G54" s="191"/>
-      <c r="H54" s="191"/>
-      <c r="I54" s="191"/>
-      <c r="J54" s="192">
+      <c r="D54" s="177"/>
+      <c r="E54" s="177"/>
+      <c r="F54" s="177"/>
+      <c r="G54" s="177"/>
+      <c r="H54" s="177"/>
+      <c r="I54" s="177"/>
+      <c r="J54" s="178">
         <f ca="1">SUM(AI16:AI46)</f>
         <v>0</v>
       </c>
-      <c r="K54" s="193"/>
+      <c r="K54" s="179"/>
       <c r="L54" s="19"/>
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
@@ -9122,6 +9028,54 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="64">
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="B1:AG1"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="B16:B47"/>
+    <mergeCell ref="B4:AH5"/>
+    <mergeCell ref="C41:AB41"/>
+    <mergeCell ref="C35:V35"/>
+    <mergeCell ref="C24:K24"/>
+    <mergeCell ref="C25:L25"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="C30:Q30"/>
+    <mergeCell ref="C31:R31"/>
+    <mergeCell ref="C32:S32"/>
+    <mergeCell ref="C33:T33"/>
+    <mergeCell ref="C34:U34"/>
+    <mergeCell ref="AJ5:AJ6"/>
+    <mergeCell ref="AK5:AK6"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C23:J23"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="C21:H21"/>
+    <mergeCell ref="C22:I22"/>
+    <mergeCell ref="AI7:AI9"/>
+    <mergeCell ref="C54:I54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="C49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="C50:I50"/>
+    <mergeCell ref="J50:K50"/>
+    <mergeCell ref="C51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="C52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="C53:I53"/>
+    <mergeCell ref="J53:K53"/>
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="M47:AH47"/>
     <mergeCell ref="C36:W36"/>
@@ -9138,54 +9092,6 @@
     <mergeCell ref="C26:M26"/>
     <mergeCell ref="C27:N27"/>
     <mergeCell ref="C28:O28"/>
-    <mergeCell ref="C54:I54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="C49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="C50:I50"/>
-    <mergeCell ref="J50:K50"/>
-    <mergeCell ref="C51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="C52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="C53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="AJ5:AJ6"/>
-    <mergeCell ref="AK5:AK6"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:I22"/>
-    <mergeCell ref="AI7:AI9"/>
-    <mergeCell ref="B16:B47"/>
-    <mergeCell ref="B4:AH5"/>
-    <mergeCell ref="C41:AB41"/>
-    <mergeCell ref="C35:V35"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C25:L25"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="C30:Q30"/>
-    <mergeCell ref="C31:R31"/>
-    <mergeCell ref="C32:S32"/>
-    <mergeCell ref="C33:T33"/>
-    <mergeCell ref="C34:U34"/>
-    <mergeCell ref="A7:A11"/>
-    <mergeCell ref="B1:AG1"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="D3:H3"/>
   </mergeCells>
   <conditionalFormatting sqref="D16">
     <cfRule type="expression" dxfId="185" priority="97">
@@ -9692,146 +9598,146 @@
     </row>
     <row r="3" spans="1:37" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="47"/>
-      <c r="B3" s="168" t="s">
+      <c r="B3" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="169" t="s">
+      <c r="C3" s="205"/>
+      <c r="D3" s="210" t="s">
         <v>111</v>
       </c>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="164" t="s">
+      <c r="E3" s="210"/>
+      <c r="F3" s="210"/>
+      <c r="G3" s="210"/>
+      <c r="H3" s="210"/>
+      <c r="I3" s="205" t="s">
         <v>109</v>
       </c>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="167" t="s">
+      <c r="J3" s="205"/>
+      <c r="K3" s="205"/>
+      <c r="L3" s="208" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="167"/>
-      <c r="Q3" s="167"/>
-      <c r="R3" s="167"/>
-      <c r="S3" s="164" t="s">
+      <c r="M3" s="208"/>
+      <c r="N3" s="208"/>
+      <c r="O3" s="208"/>
+      <c r="P3" s="208"/>
+      <c r="Q3" s="208"/>
+      <c r="R3" s="208"/>
+      <c r="S3" s="205" t="s">
         <v>110</v>
       </c>
-      <c r="T3" s="164"/>
-      <c r="U3" s="166">
+      <c r="T3" s="205"/>
+      <c r="U3" s="207">
         <v>15288</v>
       </c>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
+      <c r="V3" s="207"/>
+      <c r="W3" s="207"/>
       <c r="X3" s="39"/>
-      <c r="Y3" s="164" t="s">
+      <c r="Y3" s="205" t="s">
         <v>116</v>
       </c>
-      <c r="Z3" s="164"/>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="166">
+      <c r="Z3" s="205"/>
+      <c r="AA3" s="205"/>
+      <c r="AB3" s="207">
         <v>2021</v>
       </c>
-      <c r="AC3" s="166"/>
-      <c r="AD3" s="164" t="s">
+      <c r="AC3" s="207"/>
+      <c r="AD3" s="205" t="s">
         <v>118</v>
       </c>
-      <c r="AE3" s="164"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="165" t="s">
+      <c r="AE3" s="205"/>
+      <c r="AF3" s="205"/>
+      <c r="AG3" s="206" t="s">
         <v>119</v>
       </c>
-      <c r="AH3" s="165"/>
+      <c r="AH3" s="206"/>
       <c r="AI3" s="40"/>
       <c r="AJ3" s="40"/>
       <c r="AK3" s="36"/>
     </row>
     <row r="4" spans="1:37" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="200" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="173"/>
-      <c r="D4" s="173"/>
-      <c r="E4" s="173"/>
-      <c r="F4" s="173"/>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="173"/>
-      <c r="K4" s="173"/>
-      <c r="L4" s="173"/>
-      <c r="M4" s="173"/>
-      <c r="N4" s="173"/>
-      <c r="O4" s="173"/>
-      <c r="P4" s="173"/>
-      <c r="Q4" s="173"/>
-      <c r="R4" s="173"/>
-      <c r="S4" s="173"/>
-      <c r="T4" s="173"/>
-      <c r="U4" s="173"/>
-      <c r="V4" s="173"/>
-      <c r="W4" s="173"/>
-      <c r="X4" s="173"/>
-      <c r="Y4" s="173"/>
-      <c r="Z4" s="173"/>
-      <c r="AA4" s="173"/>
-      <c r="AB4" s="173"/>
-      <c r="AC4" s="173"/>
-      <c r="AD4" s="173"/>
-      <c r="AE4" s="173"/>
-      <c r="AF4" s="173"/>
-      <c r="AG4" s="173"/>
-      <c r="AH4" s="173"/>
-      <c r="AI4" s="185" t="s">
+      <c r="C4" s="201"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="201"/>
+      <c r="H4" s="201"/>
+      <c r="I4" s="201"/>
+      <c r="J4" s="201"/>
+      <c r="K4" s="201"/>
+      <c r="L4" s="201"/>
+      <c r="M4" s="201"/>
+      <c r="N4" s="201"/>
+      <c r="O4" s="201"/>
+      <c r="P4" s="201"/>
+      <c r="Q4" s="201"/>
+      <c r="R4" s="201"/>
+      <c r="S4" s="201"/>
+      <c r="T4" s="201"/>
+      <c r="U4" s="201"/>
+      <c r="V4" s="201"/>
+      <c r="W4" s="201"/>
+      <c r="X4" s="201"/>
+      <c r="Y4" s="201"/>
+      <c r="Z4" s="201"/>
+      <c r="AA4" s="201"/>
+      <c r="AB4" s="201"/>
+      <c r="AC4" s="201"/>
+      <c r="AD4" s="201"/>
+      <c r="AE4" s="201"/>
+      <c r="AF4" s="201"/>
+      <c r="AG4" s="201"/>
+      <c r="AH4" s="201"/>
+      <c r="AI4" s="192" t="s">
         <v>115</v>
       </c>
-      <c r="AJ4" s="182" t="s">
+      <c r="AJ4" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="AK4" s="183"/>
+      <c r="AK4" s="190"/>
     </row>
     <row r="5" spans="1:37" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="172"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
-      <c r="E5" s="173"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="173"/>
-      <c r="H5" s="173"/>
-      <c r="I5" s="173"/>
-      <c r="J5" s="173"/>
-      <c r="K5" s="173"/>
-      <c r="L5" s="173"/>
-      <c r="M5" s="173"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="173"/>
-      <c r="P5" s="173"/>
-      <c r="Q5" s="173"/>
-      <c r="R5" s="173"/>
-      <c r="S5" s="173"/>
-      <c r="T5" s="173"/>
-      <c r="U5" s="173"/>
-      <c r="V5" s="173"/>
-      <c r="W5" s="173"/>
-      <c r="X5" s="173"/>
-      <c r="Y5" s="173"/>
-      <c r="Z5" s="173"/>
-      <c r="AA5" s="173"/>
-      <c r="AB5" s="173"/>
-      <c r="AC5" s="173"/>
-      <c r="AD5" s="173"/>
-      <c r="AE5" s="173"/>
-      <c r="AF5" s="173"/>
-      <c r="AG5" s="173"/>
-      <c r="AH5" s="173"/>
-      <c r="AI5" s="186"/>
-      <c r="AJ5" s="178" t="s">
+      <c r="B5" s="200"/>
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="201"/>
+      <c r="F5" s="201"/>
+      <c r="G5" s="201"/>
+      <c r="H5" s="201"/>
+      <c r="I5" s="201"/>
+      <c r="J5" s="201"/>
+      <c r="K5" s="201"/>
+      <c r="L5" s="201"/>
+      <c r="M5" s="201"/>
+      <c r="N5" s="201"/>
+      <c r="O5" s="201"/>
+      <c r="P5" s="201"/>
+      <c r="Q5" s="201"/>
+      <c r="R5" s="201"/>
+      <c r="S5" s="201"/>
+      <c r="T5" s="201"/>
+      <c r="U5" s="201"/>
+      <c r="V5" s="201"/>
+      <c r="W5" s="201"/>
+      <c r="X5" s="201"/>
+      <c r="Y5" s="201"/>
+      <c r="Z5" s="201"/>
+      <c r="AA5" s="201"/>
+      <c r="AB5" s="201"/>
+      <c r="AC5" s="201"/>
+      <c r="AD5" s="201"/>
+      <c r="AE5" s="201"/>
+      <c r="AF5" s="201"/>
+      <c r="AG5" s="201"/>
+      <c r="AH5" s="201"/>
+      <c r="AI5" s="193"/>
+      <c r="AJ5" s="185" t="s">
         <v>10</v>
       </c>
-      <c r="AK5" s="180" t="s">
+      <c r="AK5" s="187" t="s">
         <v>11</v>
       </c>
     </row>
@@ -9936,9 +9842,9 @@
       <c r="AH6" s="49">
         <v>31</v>
       </c>
-      <c r="AI6" s="187"/>
-      <c r="AJ6" s="179"/>
-      <c r="AK6" s="181"/>
+      <c r="AI6" s="194"/>
+      <c r="AJ6" s="186"/>
+      <c r="AK6" s="188"/>
     </row>
     <row r="7" spans="1:37" ht="37.5" x14ac:dyDescent="0.25">
       <c r="A7" s="46">
@@ -9979,7 +9885,7 @@
       <c r="AF7" s="25"/>
       <c r="AG7" s="25"/>
       <c r="AH7" s="28"/>
-      <c r="AI7" s="188"/>
+      <c r="AI7" s="195"/>
       <c r="AJ7" s="33"/>
       <c r="AK7" s="34"/>
     </row>
@@ -10022,7 +9928,7 @@
       <c r="AF8" s="23"/>
       <c r="AG8" s="23"/>
       <c r="AH8" s="27"/>
-      <c r="AI8" s="214"/>
+      <c r="AI8" s="211"/>
       <c r="AJ8" s="31"/>
       <c r="AK8" s="30"/>
     </row>
@@ -10030,7 +9936,7 @@
       <c r="A9" s="46">
         <v>4</v>
       </c>
-      <c r="B9" s="213" t="s">
+      <c r="B9" s="212" t="s">
         <v>114</v>
       </c>
       <c r="C9" s="26" t="s">
@@ -10078,11 +9984,11 @@
       <c r="A10" s="46">
         <v>5</v>
       </c>
-      <c r="B10" s="170"/>
-      <c r="C10" s="174" t="s">
+      <c r="B10" s="198"/>
+      <c r="C10" s="166" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="176"/>
+      <c r="D10" s="174"/>
       <c r="E10" s="72"/>
       <c r="F10" s="98"/>
       <c r="G10" s="98"/>
@@ -10124,12 +10030,12 @@
       <c r="A11" s="46">
         <v>6</v>
       </c>
-      <c r="B11" s="170"/>
-      <c r="C11" s="174" t="s">
+      <c r="B11" s="198"/>
+      <c r="C11" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="175"/>
-      <c r="E11" s="176"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="174"/>
       <c r="F11" s="72"/>
       <c r="G11" s="98"/>
       <c r="H11" s="98"/>
@@ -10170,13 +10076,13 @@
       <c r="A12" s="46">
         <v>7</v>
       </c>
-      <c r="B12" s="170"/>
-      <c r="C12" s="174" t="s">
+      <c r="B12" s="198"/>
+      <c r="C12" s="166" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="175"/>
-      <c r="E12" s="175"/>
-      <c r="F12" s="176"/>
+      <c r="D12" s="167"/>
+      <c r="E12" s="167"/>
+      <c r="F12" s="174"/>
       <c r="G12" s="72"/>
       <c r="H12" s="98"/>
       <c r="I12" s="98"/>
@@ -10216,14 +10122,14 @@
       <c r="A13" s="46">
         <v>8</v>
       </c>
-      <c r="B13" s="170"/>
-      <c r="C13" s="174" t="s">
+      <c r="B13" s="198"/>
+      <c r="C13" s="166" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="175"/>
-      <c r="E13" s="175"/>
-      <c r="F13" s="175"/>
-      <c r="G13" s="176"/>
+      <c r="D13" s="167"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="167"/>
+      <c r="G13" s="174"/>
       <c r="H13" s="72"/>
       <c r="I13" s="98"/>
       <c r="J13" s="98"/>
@@ -10262,15 +10168,15 @@
       <c r="A14" s="46">
         <v>9</v>
       </c>
-      <c r="B14" s="170"/>
-      <c r="C14" s="174" t="s">
+      <c r="B14" s="198"/>
+      <c r="C14" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="175"/>
-      <c r="E14" s="175"/>
-      <c r="F14" s="175"/>
-      <c r="G14" s="175"/>
-      <c r="H14" s="176"/>
+      <c r="D14" s="167"/>
+      <c r="E14" s="167"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="167"/>
+      <c r="H14" s="174"/>
       <c r="I14" s="72"/>
       <c r="J14" s="98"/>
       <c r="K14" s="98"/>
@@ -10308,16 +10214,16 @@
       <c r="A15" s="46">
         <v>10</v>
       </c>
-      <c r="B15" s="170"/>
-      <c r="C15" s="174" t="s">
+      <c r="B15" s="198"/>
+      <c r="C15" s="166" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="175"/>
-      <c r="E15" s="175"/>
-      <c r="F15" s="175"/>
-      <c r="G15" s="175"/>
-      <c r="H15" s="175"/>
-      <c r="I15" s="176"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="174"/>
       <c r="J15" s="72"/>
       <c r="K15" s="98"/>
       <c r="L15" s="98"/>
@@ -10354,17 +10260,17 @@
       <c r="A16" s="46">
         <v>11</v>
       </c>
-      <c r="B16" s="170"/>
-      <c r="C16" s="174" t="s">
+      <c r="B16" s="198"/>
+      <c r="C16" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="176"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="174"/>
       <c r="K16" s="72"/>
       <c r="L16" s="98"/>
       <c r="M16" s="98"/>
@@ -10400,18 +10306,18 @@
       <c r="A17" s="46">
         <v>12</v>
       </c>
-      <c r="B17" s="170"/>
-      <c r="C17" s="174" t="s">
+      <c r="B17" s="198"/>
+      <c r="C17" s="166" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="175"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="175"/>
-      <c r="G17" s="175"/>
-      <c r="H17" s="175"/>
-      <c r="I17" s="175"/>
-      <c r="J17" s="175"/>
-      <c r="K17" s="176"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="174"/>
       <c r="L17" s="72"/>
       <c r="M17" s="98"/>
       <c r="N17" s="98"/>
@@ -10446,19 +10352,19 @@
       <c r="A18" s="46">
         <v>13</v>
       </c>
-      <c r="B18" s="170"/>
-      <c r="C18" s="174" t="s">
+      <c r="B18" s="198"/>
+      <c r="C18" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="175"/>
-      <c r="E18" s="175"/>
-      <c r="F18" s="175"/>
-      <c r="G18" s="175"/>
-      <c r="H18" s="175"/>
-      <c r="I18" s="175"/>
-      <c r="J18" s="175"/>
-      <c r="K18" s="175"/>
-      <c r="L18" s="176"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
+      <c r="L18" s="174"/>
       <c r="M18" s="72"/>
       <c r="N18" s="98"/>
       <c r="O18" s="98"/>
@@ -10492,20 +10398,20 @@
       <c r="A19" s="46">
         <v>14</v>
       </c>
-      <c r="B19" s="170"/>
-      <c r="C19" s="174" t="s">
+      <c r="B19" s="198"/>
+      <c r="C19" s="166" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="175"/>
-      <c r="E19" s="175"/>
-      <c r="F19" s="175"/>
-      <c r="G19" s="175"/>
-      <c r="H19" s="175"/>
-      <c r="I19" s="175"/>
-      <c r="J19" s="175"/>
-      <c r="K19" s="175"/>
-      <c r="L19" s="175"/>
-      <c r="M19" s="176"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="167"/>
+      <c r="K19" s="167"/>
+      <c r="L19" s="167"/>
+      <c r="M19" s="174"/>
       <c r="N19" s="72"/>
       <c r="O19" s="98"/>
       <c r="P19" s="98"/>
@@ -10538,21 +10444,21 @@
       <c r="A20" s="46">
         <v>15</v>
       </c>
-      <c r="B20" s="170"/>
-      <c r="C20" s="174" t="s">
+      <c r="B20" s="198"/>
+      <c r="C20" s="166" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="175"/>
-      <c r="L20" s="175"/>
-      <c r="M20" s="175"/>
-      <c r="N20" s="177"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="167"/>
+      <c r="L20" s="167"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="175"/>
       <c r="O20" s="72"/>
       <c r="P20" s="98"/>
       <c r="Q20" s="98"/>
@@ -10584,22 +10490,22 @@
       <c r="A21" s="46">
         <v>16</v>
       </c>
-      <c r="B21" s="170"/>
-      <c r="C21" s="174" t="s">
+      <c r="B21" s="198"/>
+      <c r="C21" s="166" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="175"/>
-      <c r="E21" s="175"/>
-      <c r="F21" s="175"/>
-      <c r="G21" s="175"/>
-      <c r="H21" s="175"/>
-      <c r="I21" s="175"/>
-      <c r="J21" s="175"/>
-      <c r="K21" s="175"/>
-      <c r="L21" s="175"/>
-      <c r="M21" s="175"/>
-      <c r="N21" s="175"/>
-      <c r="O21" s="210"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="167"/>
+      <c r="K21" s="167"/>
+      <c r="L21" s="167"/>
+      <c r="M21" s="167"/>
+      <c r="N21" s="167"/>
+      <c r="O21" s="176"/>
       <c r="P21" s="72"/>
       <c r="Q21" s="98"/>
       <c r="R21" s="98"/>
@@ -10630,23 +10536,23 @@
       <c r="A22" s="46">
         <v>17</v>
       </c>
-      <c r="B22" s="170"/>
-      <c r="C22" s="174" t="s">
+      <c r="B22" s="198"/>
+      <c r="C22" s="166" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="175"/>
-      <c r="E22" s="175"/>
-      <c r="F22" s="175"/>
-      <c r="G22" s="175"/>
-      <c r="H22" s="175"/>
-      <c r="I22" s="175"/>
-      <c r="J22" s="175"/>
-      <c r="K22" s="175"/>
-      <c r="L22" s="175"/>
-      <c r="M22" s="175"/>
-      <c r="N22" s="175"/>
-      <c r="O22" s="175"/>
-      <c r="P22" s="177"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="167"/>
+      <c r="O22" s="167"/>
+      <c r="P22" s="175"/>
       <c r="Q22" s="72"/>
       <c r="R22" s="98"/>
       <c r="S22" s="98"/>
@@ -10676,24 +10582,24 @@
       <c r="A23" s="46">
         <v>18</v>
       </c>
-      <c r="B23" s="170"/>
-      <c r="C23" s="174" t="s">
+      <c r="B23" s="198"/>
+      <c r="C23" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="175"/>
-      <c r="E23" s="175"/>
-      <c r="F23" s="175"/>
-      <c r="G23" s="175"/>
-      <c r="H23" s="175"/>
-      <c r="I23" s="175"/>
-      <c r="J23" s="175"/>
-      <c r="K23" s="175"/>
-      <c r="L23" s="175"/>
-      <c r="M23" s="175"/>
-      <c r="N23" s="175"/>
-      <c r="O23" s="175"/>
-      <c r="P23" s="175"/>
-      <c r="Q23" s="175"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="167"/>
+      <c r="Q23" s="167"/>
       <c r="R23" s="72"/>
       <c r="S23" s="98"/>
       <c r="T23" s="98"/>
@@ -10722,25 +10628,25 @@
       <c r="A24" s="46">
         <v>19</v>
       </c>
-      <c r="B24" s="170"/>
-      <c r="C24" s="174" t="s">
+      <c r="B24" s="198"/>
+      <c r="C24" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="175"/>
-      <c r="E24" s="175"/>
-      <c r="F24" s="175"/>
-      <c r="G24" s="175"/>
-      <c r="H24" s="175"/>
-      <c r="I24" s="175"/>
-      <c r="J24" s="175"/>
-      <c r="K24" s="175"/>
-      <c r="L24" s="175"/>
-      <c r="M24" s="175"/>
-      <c r="N24" s="175"/>
-      <c r="O24" s="175"/>
-      <c r="P24" s="175"/>
-      <c r="Q24" s="175"/>
-      <c r="R24" s="175"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="167"/>
+      <c r="K24" s="167"/>
+      <c r="L24" s="167"/>
+      <c r="M24" s="167"/>
+      <c r="N24" s="167"/>
+      <c r="O24" s="167"/>
+      <c r="P24" s="167"/>
+      <c r="Q24" s="167"/>
+      <c r="R24" s="167"/>
       <c r="S24" s="72"/>
       <c r="T24" s="98"/>
       <c r="U24" s="98"/>
@@ -10768,26 +10674,26 @@
       <c r="A25" s="46">
         <v>20</v>
       </c>
-      <c r="B25" s="170"/>
-      <c r="C25" s="174" t="s">
+      <c r="B25" s="198"/>
+      <c r="C25" s="166" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="175"/>
-      <c r="E25" s="175"/>
-      <c r="F25" s="175"/>
-      <c r="G25" s="175"/>
-      <c r="H25" s="175"/>
-      <c r="I25" s="175"/>
-      <c r="J25" s="175"/>
-      <c r="K25" s="175"/>
-      <c r="L25" s="175"/>
-      <c r="M25" s="175"/>
-      <c r="N25" s="175"/>
-      <c r="O25" s="175"/>
-      <c r="P25" s="175"/>
-      <c r="Q25" s="175"/>
-      <c r="R25" s="175"/>
-      <c r="S25" s="175"/>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="167"/>
+      <c r="K25" s="167"/>
+      <c r="L25" s="167"/>
+      <c r="M25" s="167"/>
+      <c r="N25" s="167"/>
+      <c r="O25" s="167"/>
+      <c r="P25" s="167"/>
+      <c r="Q25" s="167"/>
+      <c r="R25" s="167"/>
+      <c r="S25" s="167"/>
       <c r="T25" s="72"/>
       <c r="U25" s="98"/>
       <c r="V25" s="98"/>
@@ -10814,27 +10720,27 @@
       <c r="A26" s="46">
         <v>21</v>
       </c>
-      <c r="B26" s="170"/>
-      <c r="C26" s="174" t="s">
+      <c r="B26" s="198"/>
+      <c r="C26" s="166" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="175"/>
-      <c r="E26" s="175"/>
-      <c r="F26" s="175"/>
-      <c r="G26" s="175"/>
-      <c r="H26" s="175"/>
-      <c r="I26" s="175"/>
-      <c r="J26" s="175"/>
-      <c r="K26" s="175"/>
-      <c r="L26" s="175"/>
-      <c r="M26" s="175"/>
-      <c r="N26" s="175"/>
-      <c r="O26" s="175"/>
-      <c r="P26" s="175"/>
-      <c r="Q26" s="175"/>
-      <c r="R26" s="175"/>
-      <c r="S26" s="175"/>
-      <c r="T26" s="175"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="167"/>
+      <c r="L26" s="167"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="167"/>
+      <c r="O26" s="167"/>
+      <c r="P26" s="167"/>
+      <c r="Q26" s="167"/>
+      <c r="R26" s="167"/>
+      <c r="S26" s="167"/>
+      <c r="T26" s="167"/>
       <c r="U26" s="72"/>
       <c r="V26" s="98"/>
       <c r="W26" s="98"/>
@@ -10860,28 +10766,28 @@
       <c r="A27" s="46">
         <v>22</v>
       </c>
-      <c r="B27" s="170"/>
-      <c r="C27" s="174" t="s">
+      <c r="B27" s="198"/>
+      <c r="C27" s="166" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="175"/>
-      <c r="E27" s="175"/>
-      <c r="F27" s="175"/>
-      <c r="G27" s="175"/>
-      <c r="H27" s="175"/>
-      <c r="I27" s="175"/>
-      <c r="J27" s="175"/>
-      <c r="K27" s="175"/>
-      <c r="L27" s="175"/>
-      <c r="M27" s="175"/>
-      <c r="N27" s="175"/>
-      <c r="O27" s="175"/>
-      <c r="P27" s="175"/>
-      <c r="Q27" s="175"/>
-      <c r="R27" s="175"/>
-      <c r="S27" s="175"/>
-      <c r="T27" s="175"/>
-      <c r="U27" s="175"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="167"/>
+      <c r="K27" s="167"/>
+      <c r="L27" s="167"/>
+      <c r="M27" s="167"/>
+      <c r="N27" s="167"/>
+      <c r="O27" s="167"/>
+      <c r="P27" s="167"/>
+      <c r="Q27" s="167"/>
+      <c r="R27" s="167"/>
+      <c r="S27" s="167"/>
+      <c r="T27" s="167"/>
+      <c r="U27" s="167"/>
       <c r="V27" s="72"/>
       <c r="W27" s="98"/>
       <c r="X27" s="98"/>
@@ -10906,29 +10812,29 @@
       <c r="A28" s="46">
         <v>23</v>
       </c>
-      <c r="B28" s="170"/>
-      <c r="C28" s="174" t="s">
+      <c r="B28" s="198"/>
+      <c r="C28" s="166" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="175"/>
-      <c r="E28" s="175"/>
-      <c r="F28" s="175"/>
-      <c r="G28" s="175"/>
-      <c r="H28" s="175"/>
-      <c r="I28" s="175"/>
-      <c r="J28" s="175"/>
-      <c r="K28" s="175"/>
-      <c r="L28" s="175"/>
-      <c r="M28" s="175"/>
-      <c r="N28" s="175"/>
-      <c r="O28" s="175"/>
-      <c r="P28" s="175"/>
-      <c r="Q28" s="175"/>
-      <c r="R28" s="175"/>
-      <c r="S28" s="175"/>
-      <c r="T28" s="175"/>
-      <c r="U28" s="175"/>
-      <c r="V28" s="175"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="167"/>
+      <c r="L28" s="167"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="167"/>
+      <c r="Q28" s="167"/>
+      <c r="R28" s="167"/>
+      <c r="S28" s="167"/>
+      <c r="T28" s="167"/>
+      <c r="U28" s="167"/>
+      <c r="V28" s="167"/>
       <c r="W28" s="72"/>
       <c r="X28" s="98"/>
       <c r="Y28" s="98"/>
@@ -10952,30 +10858,30 @@
       <c r="A29" s="46">
         <v>24</v>
       </c>
-      <c r="B29" s="170"/>
-      <c r="C29" s="174" t="s">
+      <c r="B29" s="198"/>
+      <c r="C29" s="166" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="175"/>
-      <c r="E29" s="175"/>
-      <c r="F29" s="175"/>
-      <c r="G29" s="175"/>
-      <c r="H29" s="175"/>
-      <c r="I29" s="175"/>
-      <c r="J29" s="175"/>
-      <c r="K29" s="175"/>
-      <c r="L29" s="175"/>
-      <c r="M29" s="175"/>
-      <c r="N29" s="175"/>
-      <c r="O29" s="175"/>
-      <c r="P29" s="175"/>
-      <c r="Q29" s="175"/>
-      <c r="R29" s="175"/>
-      <c r="S29" s="175"/>
-      <c r="T29" s="175"/>
-      <c r="U29" s="175"/>
-      <c r="V29" s="175"/>
-      <c r="W29" s="175"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="167"/>
+      <c r="Q29" s="167"/>
+      <c r="R29" s="167"/>
+      <c r="S29" s="167"/>
+      <c r="T29" s="167"/>
+      <c r="U29" s="167"/>
+      <c r="V29" s="167"/>
+      <c r="W29" s="167"/>
       <c r="X29" s="72"/>
       <c r="Y29" s="98"/>
       <c r="Z29" s="98"/>
@@ -10998,31 +10904,31 @@
       <c r="A30" s="46">
         <v>25</v>
       </c>
-      <c r="B30" s="170"/>
-      <c r="C30" s="174" t="s">
+      <c r="B30" s="198"/>
+      <c r="C30" s="166" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="175"/>
-      <c r="E30" s="175"/>
-      <c r="F30" s="175"/>
-      <c r="G30" s="175"/>
-      <c r="H30" s="175"/>
-      <c r="I30" s="175"/>
-      <c r="J30" s="175"/>
-      <c r="K30" s="175"/>
-      <c r="L30" s="175"/>
-      <c r="M30" s="175"/>
-      <c r="N30" s="175"/>
-      <c r="O30" s="175"/>
-      <c r="P30" s="175"/>
-      <c r="Q30" s="175"/>
-      <c r="R30" s="175"/>
-      <c r="S30" s="175"/>
-      <c r="T30" s="175"/>
-      <c r="U30" s="175"/>
-      <c r="V30" s="175"/>
-      <c r="W30" s="175"/>
-      <c r="X30" s="175"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
+      <c r="K30" s="167"/>
+      <c r="L30" s="167"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="167"/>
+      <c r="O30" s="167"/>
+      <c r="P30" s="167"/>
+      <c r="Q30" s="167"/>
+      <c r="R30" s="167"/>
+      <c r="S30" s="167"/>
+      <c r="T30" s="167"/>
+      <c r="U30" s="167"/>
+      <c r="V30" s="167"/>
+      <c r="W30" s="167"/>
+      <c r="X30" s="167"/>
       <c r="Y30" s="72"/>
       <c r="Z30" s="98"/>
       <c r="AA30" s="98"/>
@@ -11044,32 +10950,32 @@
       <c r="A31" s="46">
         <v>26</v>
       </c>
-      <c r="B31" s="170"/>
-      <c r="C31" s="174" t="s">
+      <c r="B31" s="198"/>
+      <c r="C31" s="166" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="175"/>
-      <c r="E31" s="175"/>
-      <c r="F31" s="175"/>
-      <c r="G31" s="175"/>
-      <c r="H31" s="175"/>
-      <c r="I31" s="175"/>
-      <c r="J31" s="175"/>
-      <c r="K31" s="175"/>
-      <c r="L31" s="175"/>
-      <c r="M31" s="175"/>
-      <c r="N31" s="175"/>
-      <c r="O31" s="175"/>
-      <c r="P31" s="175"/>
-      <c r="Q31" s="175"/>
-      <c r="R31" s="175"/>
-      <c r="S31" s="175"/>
-      <c r="T31" s="175"/>
-      <c r="U31" s="175"/>
-      <c r="V31" s="175"/>
-      <c r="W31" s="175"/>
-      <c r="X31" s="175"/>
-      <c r="Y31" s="175"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167"/>
+      <c r="F31" s="167"/>
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="167"/>
+      <c r="K31" s="167"/>
+      <c r="L31" s="167"/>
+      <c r="M31" s="167"/>
+      <c r="N31" s="167"/>
+      <c r="O31" s="167"/>
+      <c r="P31" s="167"/>
+      <c r="Q31" s="167"/>
+      <c r="R31" s="167"/>
+      <c r="S31" s="167"/>
+      <c r="T31" s="167"/>
+      <c r="U31" s="167"/>
+      <c r="V31" s="167"/>
+      <c r="W31" s="167"/>
+      <c r="X31" s="167"/>
+      <c r="Y31" s="167"/>
       <c r="Z31" s="72"/>
       <c r="AA31" s="98"/>
       <c r="AB31" s="98"/>
@@ -11090,33 +10996,33 @@
       <c r="A32" s="46">
         <v>27</v>
       </c>
-      <c r="B32" s="170"/>
-      <c r="C32" s="174" t="s">
+      <c r="B32" s="198"/>
+      <c r="C32" s="166" t="s">
         <v>47</v>
       </c>
-      <c r="D32" s="175"/>
-      <c r="E32" s="175"/>
-      <c r="F32" s="175"/>
-      <c r="G32" s="175"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="175"/>
-      <c r="J32" s="175"/>
-      <c r="K32" s="175"/>
-      <c r="L32" s="175"/>
-      <c r="M32" s="175"/>
-      <c r="N32" s="175"/>
-      <c r="O32" s="175"/>
-      <c r="P32" s="175"/>
-      <c r="Q32" s="175"/>
-      <c r="R32" s="175"/>
-      <c r="S32" s="175"/>
-      <c r="T32" s="175"/>
-      <c r="U32" s="175"/>
-      <c r="V32" s="175"/>
-      <c r="W32" s="175"/>
-      <c r="X32" s="175"/>
-      <c r="Y32" s="175"/>
-      <c r="Z32" s="175"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="167"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="167"/>
+      <c r="O32" s="167"/>
+      <c r="P32" s="167"/>
+      <c r="Q32" s="167"/>
+      <c r="R32" s="167"/>
+      <c r="S32" s="167"/>
+      <c r="T32" s="167"/>
+      <c r="U32" s="167"/>
+      <c r="V32" s="167"/>
+      <c r="W32" s="167"/>
+      <c r="X32" s="167"/>
+      <c r="Y32" s="167"/>
+      <c r="Z32" s="167"/>
       <c r="AA32" s="72"/>
       <c r="AB32" s="98"/>
       <c r="AC32" s="98"/>
@@ -11136,34 +11042,34 @@
       <c r="A33" s="46">
         <v>28</v>
       </c>
-      <c r="B33" s="170"/>
-      <c r="C33" s="174" t="s">
+      <c r="B33" s="198"/>
+      <c r="C33" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="175"/>
-      <c r="E33" s="175"/>
-      <c r="F33" s="175"/>
-      <c r="G33" s="175"/>
-      <c r="H33" s="175"/>
-      <c r="I33" s="175"/>
-      <c r="J33" s="175"/>
-      <c r="K33" s="175"/>
-      <c r="L33" s="175"/>
-      <c r="M33" s="175"/>
-      <c r="N33" s="175"/>
-      <c r="O33" s="175"/>
-      <c r="P33" s="175"/>
-      <c r="Q33" s="175"/>
-      <c r="R33" s="175"/>
-      <c r="S33" s="175"/>
-      <c r="T33" s="175"/>
-      <c r="U33" s="175"/>
-      <c r="V33" s="175"/>
-      <c r="W33" s="175"/>
-      <c r="X33" s="175"/>
-      <c r="Y33" s="175"/>
-      <c r="Z33" s="175"/>
-      <c r="AA33" s="175"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="167"/>
+      <c r="L33" s="167"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="167"/>
+      <c r="O33" s="167"/>
+      <c r="P33" s="167"/>
+      <c r="Q33" s="167"/>
+      <c r="R33" s="167"/>
+      <c r="S33" s="167"/>
+      <c r="T33" s="167"/>
+      <c r="U33" s="167"/>
+      <c r="V33" s="167"/>
+      <c r="W33" s="167"/>
+      <c r="X33" s="167"/>
+      <c r="Y33" s="167"/>
+      <c r="Z33" s="167"/>
+      <c r="AA33" s="167"/>
       <c r="AB33" s="72"/>
       <c r="AC33" s="98"/>
       <c r="AD33" s="98"/>
@@ -11182,35 +11088,35 @@
       <c r="A34" s="46">
         <v>29</v>
       </c>
-      <c r="B34" s="170"/>
-      <c r="C34" s="174" t="s">
+      <c r="B34" s="198"/>
+      <c r="C34" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="175"/>
-      <c r="E34" s="175"/>
-      <c r="F34" s="175"/>
-      <c r="G34" s="175"/>
-      <c r="H34" s="175"/>
-      <c r="I34" s="175"/>
-      <c r="J34" s="175"/>
-      <c r="K34" s="175"/>
-      <c r="L34" s="175"/>
-      <c r="M34" s="175"/>
-      <c r="N34" s="175"/>
-      <c r="O34" s="175"/>
-      <c r="P34" s="175"/>
-      <c r="Q34" s="175"/>
-      <c r="R34" s="175"/>
-      <c r="S34" s="175"/>
-      <c r="T34" s="175"/>
-      <c r="U34" s="175"/>
-      <c r="V34" s="175"/>
-      <c r="W34" s="175"/>
-      <c r="X34" s="175"/>
-      <c r="Y34" s="175"/>
-      <c r="Z34" s="175"/>
-      <c r="AA34" s="175"/>
-      <c r="AB34" s="175"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="167"/>
+      <c r="K34" s="167"/>
+      <c r="L34" s="167"/>
+      <c r="M34" s="167"/>
+      <c r="N34" s="167"/>
+      <c r="O34" s="167"/>
+      <c r="P34" s="167"/>
+      <c r="Q34" s="167"/>
+      <c r="R34" s="167"/>
+      <c r="S34" s="167"/>
+      <c r="T34" s="167"/>
+      <c r="U34" s="167"/>
+      <c r="V34" s="167"/>
+      <c r="W34" s="167"/>
+      <c r="X34" s="167"/>
+      <c r="Y34" s="167"/>
+      <c r="Z34" s="167"/>
+      <c r="AA34" s="167"/>
+      <c r="AB34" s="167"/>
       <c r="AC34" s="72"/>
       <c r="AD34" s="98"/>
       <c r="AE34" s="98"/>
@@ -11228,36 +11134,36 @@
       <c r="A35" s="46">
         <v>30</v>
       </c>
-      <c r="B35" s="170"/>
-      <c r="C35" s="174" t="s">
+      <c r="B35" s="198"/>
+      <c r="C35" s="166" t="s">
         <v>50</v>
       </c>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="175"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="175"/>
-      <c r="L35" s="175"/>
-      <c r="M35" s="175"/>
-      <c r="N35" s="175"/>
-      <c r="O35" s="175"/>
-      <c r="P35" s="175"/>
-      <c r="Q35" s="175"/>
-      <c r="R35" s="175"/>
-      <c r="S35" s="175"/>
-      <c r="T35" s="175"/>
-      <c r="U35" s="175"/>
-      <c r="V35" s="175"/>
-      <c r="W35" s="175"/>
-      <c r="X35" s="175"/>
-      <c r="Y35" s="175"/>
-      <c r="Z35" s="175"/>
-      <c r="AA35" s="175"/>
-      <c r="AB35" s="175"/>
-      <c r="AC35" s="175"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="167"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="167"/>
+      <c r="K35" s="167"/>
+      <c r="L35" s="167"/>
+      <c r="M35" s="167"/>
+      <c r="N35" s="167"/>
+      <c r="O35" s="167"/>
+      <c r="P35" s="167"/>
+      <c r="Q35" s="167"/>
+      <c r="R35" s="167"/>
+      <c r="S35" s="167"/>
+      <c r="T35" s="167"/>
+      <c r="U35" s="167"/>
+      <c r="V35" s="167"/>
+      <c r="W35" s="167"/>
+      <c r="X35" s="167"/>
+      <c r="Y35" s="167"/>
+      <c r="Z35" s="167"/>
+      <c r="AA35" s="167"/>
+      <c r="AB35" s="167"/>
+      <c r="AC35" s="167"/>
       <c r="AD35" s="72"/>
       <c r="AE35" s="98"/>
       <c r="AF35" s="98"/>
@@ -11274,37 +11180,37 @@
       <c r="A36" s="46">
         <v>31</v>
       </c>
-      <c r="B36" s="170"/>
-      <c r="C36" s="174" t="s">
+      <c r="B36" s="198"/>
+      <c r="C36" s="166" t="s">
         <v>51</v>
       </c>
-      <c r="D36" s="175"/>
-      <c r="E36" s="175"/>
-      <c r="F36" s="175"/>
-      <c r="G36" s="175"/>
-      <c r="H36" s="175"/>
-      <c r="I36" s="175"/>
-      <c r="J36" s="175"/>
-      <c r="K36" s="175"/>
-      <c r="L36" s="175"/>
-      <c r="M36" s="175"/>
-      <c r="N36" s="175"/>
-      <c r="O36" s="175"/>
-      <c r="P36" s="175"/>
-      <c r="Q36" s="175"/>
-      <c r="R36" s="175"/>
-      <c r="S36" s="175"/>
-      <c r="T36" s="175"/>
-      <c r="U36" s="175"/>
-      <c r="V36" s="175"/>
-      <c r="W36" s="175"/>
-      <c r="X36" s="175"/>
-      <c r="Y36" s="175"/>
-      <c r="Z36" s="175"/>
-      <c r="AA36" s="175"/>
-      <c r="AB36" s="175"/>
-      <c r="AC36" s="175"/>
-      <c r="AD36" s="175"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="167"/>
+      <c r="K36" s="167"/>
+      <c r="L36" s="167"/>
+      <c r="M36" s="167"/>
+      <c r="N36" s="167"/>
+      <c r="O36" s="167"/>
+      <c r="P36" s="167"/>
+      <c r="Q36" s="167"/>
+      <c r="R36" s="167"/>
+      <c r="S36" s="167"/>
+      <c r="T36" s="167"/>
+      <c r="U36" s="167"/>
+      <c r="V36" s="167"/>
+      <c r="W36" s="167"/>
+      <c r="X36" s="167"/>
+      <c r="Y36" s="167"/>
+      <c r="Z36" s="167"/>
+      <c r="AA36" s="167"/>
+      <c r="AB36" s="167"/>
+      <c r="AC36" s="167"/>
+      <c r="AD36" s="167"/>
       <c r="AE36" s="72"/>
       <c r="AF36" s="98"/>
       <c r="AG36" s="98"/>
@@ -11320,38 +11226,38 @@
       <c r="A37" s="46">
         <v>32</v>
       </c>
-      <c r="B37" s="170"/>
-      <c r="C37" s="204" t="s">
+      <c r="B37" s="198"/>
+      <c r="C37" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="D37" s="205"/>
-      <c r="E37" s="205"/>
-      <c r="F37" s="205"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="205"/>
-      <c r="K37" s="205"/>
-      <c r="L37" s="205"/>
-      <c r="M37" s="205"/>
-      <c r="N37" s="205"/>
-      <c r="O37" s="205"/>
-      <c r="P37" s="205"/>
-      <c r="Q37" s="205"/>
-      <c r="R37" s="205"/>
-      <c r="S37" s="205"/>
-      <c r="T37" s="205"/>
-      <c r="U37" s="205"/>
-      <c r="V37" s="205"/>
-      <c r="W37" s="205"/>
-      <c r="X37" s="205"/>
-      <c r="Y37" s="205"/>
-      <c r="Z37" s="205"/>
-      <c r="AA37" s="205"/>
-      <c r="AB37" s="205"/>
-      <c r="AC37" s="205"/>
-      <c r="AD37" s="205"/>
-      <c r="AE37" s="205"/>
+      <c r="D37" s="169"/>
+      <c r="E37" s="169"/>
+      <c r="F37" s="169"/>
+      <c r="G37" s="169"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="169"/>
+      <c r="K37" s="169"/>
+      <c r="L37" s="169"/>
+      <c r="M37" s="169"/>
+      <c r="N37" s="169"/>
+      <c r="O37" s="169"/>
+      <c r="P37" s="169"/>
+      <c r="Q37" s="169"/>
+      <c r="R37" s="169"/>
+      <c r="S37" s="169"/>
+      <c r="T37" s="169"/>
+      <c r="U37" s="169"/>
+      <c r="V37" s="169"/>
+      <c r="W37" s="169"/>
+      <c r="X37" s="169"/>
+      <c r="Y37" s="169"/>
+      <c r="Z37" s="169"/>
+      <c r="AA37" s="169"/>
+      <c r="AB37" s="169"/>
+      <c r="AC37" s="169"/>
+      <c r="AD37" s="169"/>
+      <c r="AE37" s="169"/>
       <c r="AF37" s="72"/>
       <c r="AG37" s="98"/>
       <c r="AH37" s="28"/>
@@ -11366,39 +11272,39 @@
       <c r="A38" s="46">
         <v>33</v>
       </c>
-      <c r="B38" s="170"/>
-      <c r="C38" s="204" t="s">
+      <c r="B38" s="198"/>
+      <c r="C38" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="205"/>
-      <c r="E38" s="205"/>
-      <c r="F38" s="205"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="205"/>
-      <c r="K38" s="205"/>
-      <c r="L38" s="205"/>
-      <c r="M38" s="205"/>
-      <c r="N38" s="205"/>
-      <c r="O38" s="205"/>
-      <c r="P38" s="205"/>
-      <c r="Q38" s="205"/>
-      <c r="R38" s="205"/>
-      <c r="S38" s="205"/>
-      <c r="T38" s="205"/>
-      <c r="U38" s="205"/>
-      <c r="V38" s="205"/>
-      <c r="W38" s="205"/>
-      <c r="X38" s="205"/>
-      <c r="Y38" s="205"/>
-      <c r="Z38" s="205"/>
-      <c r="AA38" s="205"/>
-      <c r="AB38" s="205"/>
-      <c r="AC38" s="205"/>
-      <c r="AD38" s="205"/>
-      <c r="AE38" s="205"/>
-      <c r="AF38" s="205"/>
+      <c r="D38" s="169"/>
+      <c r="E38" s="169"/>
+      <c r="F38" s="169"/>
+      <c r="G38" s="169"/>
+      <c r="H38" s="169"/>
+      <c r="I38" s="169"/>
+      <c r="J38" s="169"/>
+      <c r="K38" s="169"/>
+      <c r="L38" s="169"/>
+      <c r="M38" s="169"/>
+      <c r="N38" s="169"/>
+      <c r="O38" s="169"/>
+      <c r="P38" s="169"/>
+      <c r="Q38" s="169"/>
+      <c r="R38" s="169"/>
+      <c r="S38" s="169"/>
+      <c r="T38" s="169"/>
+      <c r="U38" s="169"/>
+      <c r="V38" s="169"/>
+      <c r="W38" s="169"/>
+      <c r="X38" s="169"/>
+      <c r="Y38" s="169"/>
+      <c r="Z38" s="169"/>
+      <c r="AA38" s="169"/>
+      <c r="AB38" s="169"/>
+      <c r="AC38" s="169"/>
+      <c r="AD38" s="169"/>
+      <c r="AE38" s="169"/>
+      <c r="AF38" s="169"/>
       <c r="AG38" s="72"/>
       <c r="AH38" s="28"/>
       <c r="AI38" s="29" t="str">
@@ -11412,40 +11318,40 @@
       <c r="A39" s="46">
         <v>34</v>
       </c>
-      <c r="B39" s="170"/>
-      <c r="C39" s="206" t="s">
+      <c r="B39" s="198"/>
+      <c r="C39" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="207"/>
-      <c r="E39" s="207"/>
-      <c r="F39" s="207"/>
-      <c r="G39" s="207"/>
-      <c r="H39" s="207"/>
-      <c r="I39" s="207"/>
-      <c r="J39" s="207"/>
-      <c r="K39" s="207"/>
-      <c r="L39" s="207"/>
-      <c r="M39" s="207"/>
-      <c r="N39" s="207"/>
-      <c r="O39" s="207"/>
-      <c r="P39" s="207"/>
-      <c r="Q39" s="207"/>
-      <c r="R39" s="207"/>
-      <c r="S39" s="207"/>
-      <c r="T39" s="207"/>
-      <c r="U39" s="207"/>
-      <c r="V39" s="207"/>
-      <c r="W39" s="207"/>
-      <c r="X39" s="207"/>
-      <c r="Y39" s="207"/>
-      <c r="Z39" s="207"/>
-      <c r="AA39" s="207"/>
-      <c r="AB39" s="207"/>
-      <c r="AC39" s="207"/>
-      <c r="AD39" s="207"/>
-      <c r="AE39" s="207"/>
-      <c r="AF39" s="207"/>
-      <c r="AG39" s="207"/>
+      <c r="D39" s="171"/>
+      <c r="E39" s="171"/>
+      <c r="F39" s="171"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
+      <c r="K39" s="171"/>
+      <c r="L39" s="171"/>
+      <c r="M39" s="171"/>
+      <c r="N39" s="171"/>
+      <c r="O39" s="171"/>
+      <c r="P39" s="171"/>
+      <c r="Q39" s="171"/>
+      <c r="R39" s="171"/>
+      <c r="S39" s="171"/>
+      <c r="T39" s="171"/>
+      <c r="U39" s="171"/>
+      <c r="V39" s="171"/>
+      <c r="W39" s="171"/>
+      <c r="X39" s="171"/>
+      <c r="Y39" s="171"/>
+      <c r="Z39" s="171"/>
+      <c r="AA39" s="171"/>
+      <c r="AB39" s="171"/>
+      <c r="AC39" s="171"/>
+      <c r="AD39" s="171"/>
+      <c r="AE39" s="171"/>
+      <c r="AF39" s="171"/>
+      <c r="AG39" s="171"/>
       <c r="AH39" s="72"/>
       <c r="AI39" s="29" t="str">
         <f ca="1">IFERROR(INDIRECT(ADDRESS(ROW(),SUMPRODUCT(MAX((AH39&lt;&gt;"")*COLUMN(AH39))))),"")</f>
@@ -11458,41 +11364,41 @@
       <c r="A40" s="46">
         <v>35</v>
       </c>
-      <c r="B40" s="171"/>
-      <c r="C40" s="208" t="s">
+      <c r="B40" s="199"/>
+      <c r="C40" s="172" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="209"/>
-      <c r="E40" s="209"/>
-      <c r="F40" s="209"/>
-      <c r="G40" s="209"/>
-      <c r="H40" s="209"/>
-      <c r="I40" s="209"/>
-      <c r="J40" s="209"/>
-      <c r="K40" s="209"/>
-      <c r="L40" s="209"/>
-      <c r="M40" s="202"/>
-      <c r="N40" s="202"/>
-      <c r="O40" s="202"/>
-      <c r="P40" s="202"/>
-      <c r="Q40" s="202"/>
-      <c r="R40" s="202"/>
-      <c r="S40" s="202"/>
-      <c r="T40" s="202"/>
-      <c r="U40" s="202"/>
-      <c r="V40" s="202"/>
-      <c r="W40" s="202"/>
-      <c r="X40" s="202"/>
-      <c r="Y40" s="202"/>
-      <c r="Z40" s="202"/>
-      <c r="AA40" s="202"/>
-      <c r="AB40" s="202"/>
-      <c r="AC40" s="202"/>
-      <c r="AD40" s="202"/>
-      <c r="AE40" s="202"/>
-      <c r="AF40" s="202"/>
-      <c r="AG40" s="202"/>
-      <c r="AH40" s="203"/>
+      <c r="D40" s="173"/>
+      <c r="E40" s="173"/>
+      <c r="F40" s="173"/>
+      <c r="G40" s="173"/>
+      <c r="H40" s="173"/>
+      <c r="I40" s="173"/>
+      <c r="J40" s="173"/>
+      <c r="K40" s="173"/>
+      <c r="L40" s="173"/>
+      <c r="M40" s="164"/>
+      <c r="N40" s="164"/>
+      <c r="O40" s="164"/>
+      <c r="P40" s="164"/>
+      <c r="Q40" s="164"/>
+      <c r="R40" s="164"/>
+      <c r="S40" s="164"/>
+      <c r="T40" s="164"/>
+      <c r="U40" s="164"/>
+      <c r="V40" s="164"/>
+      <c r="W40" s="164"/>
+      <c r="X40" s="164"/>
+      <c r="Y40" s="164"/>
+      <c r="Z40" s="164"/>
+      <c r="AA40" s="164"/>
+      <c r="AB40" s="164"/>
+      <c r="AC40" s="164"/>
+      <c r="AD40" s="164"/>
+      <c r="AE40" s="164"/>
+      <c r="AF40" s="164"/>
+      <c r="AG40" s="164"/>
+      <c r="AH40" s="165"/>
       <c r="AI40" s="52" t="str">
         <f ca="1">IF(SUM(AI9:AI39)=0,"",SUM(AI9:AI39))</f>
         <v/>
@@ -11548,19 +11454,19 @@
     <row r="42" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="48"/>
       <c r="B42" s="66"/>
-      <c r="C42" s="194" t="s">
+      <c r="C42" s="180" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="194"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="194"/>
-      <c r="G42" s="194"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="194"/>
-      <c r="J42" s="195" t="s">
+      <c r="D42" s="180"/>
+      <c r="E42" s="180"/>
+      <c r="F42" s="180"/>
+      <c r="G42" s="180"/>
+      <c r="H42" s="180"/>
+      <c r="I42" s="180"/>
+      <c r="J42" s="181" t="s">
         <v>4</v>
       </c>
-      <c r="K42" s="195"/>
+      <c r="K42" s="181"/>
       <c r="L42" s="19"/>
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
@@ -11591,17 +11497,17 @@
     <row r="43" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="48"/>
       <c r="B43" s="66"/>
-      <c r="C43" s="191" t="s">
+      <c r="C43" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="D43" s="191"/>
-      <c r="E43" s="191"/>
-      <c r="F43" s="191"/>
-      <c r="G43" s="191"/>
-      <c r="H43" s="191"/>
-      <c r="I43" s="191"/>
-      <c r="J43" s="211"/>
-      <c r="K43" s="211"/>
+      <c r="D43" s="177"/>
+      <c r="E43" s="177"/>
+      <c r="F43" s="177"/>
+      <c r="G43" s="177"/>
+      <c r="H43" s="177"/>
+      <c r="I43" s="177"/>
+      <c r="J43" s="213"/>
+      <c r="K43" s="213"/>
       <c r="L43" s="19"/>
       <c r="M43" s="19"/>
       <c r="N43" s="19"/>
@@ -11632,17 +11538,17 @@
     <row r="44" spans="1:37" s="15" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="48"/>
       <c r="B44" s="66"/>
-      <c r="C44" s="191" t="s">
+      <c r="C44" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="191"/>
-      <c r="E44" s="191"/>
-      <c r="F44" s="191"/>
-      <c r="G44" s="191"/>
-      <c r="H44" s="191"/>
-      <c r="I44" s="191"/>
-      <c r="J44" s="212"/>
-      <c r="K44" s="212"/>
+      <c r="D44" s="177"/>
+      <c r="E44" s="177"/>
+      <c r="F44" s="177"/>
+      <c r="G44" s="177"/>
+      <c r="H44" s="177"/>
+      <c r="I44" s="177"/>
+      <c r="J44" s="214"/>
+      <c r="K44" s="214"/>
       <c r="L44" s="19"/>
       <c r="M44" s="19"/>
       <c r="N44" s="19"/>
@@ -11673,17 +11579,17 @@
     <row r="45" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="48"/>
       <c r="B45" s="66"/>
-      <c r="C45" s="191" t="s">
+      <c r="C45" s="177" t="s">
         <v>59</v>
       </c>
-      <c r="D45" s="191"/>
-      <c r="E45" s="191"/>
-      <c r="F45" s="191"/>
-      <c r="G45" s="191"/>
-      <c r="H45" s="191"/>
-      <c r="I45" s="191"/>
-      <c r="J45" s="211"/>
-      <c r="K45" s="211"/>
+      <c r="D45" s="177"/>
+      <c r="E45" s="177"/>
+      <c r="F45" s="177"/>
+      <c r="G45" s="177"/>
+      <c r="H45" s="177"/>
+      <c r="I45" s="177"/>
+      <c r="J45" s="213"/>
+      <c r="K45" s="213"/>
       <c r="L45" s="19"/>
       <c r="M45" s="19"/>
       <c r="N45" s="19"/>
@@ -11714,17 +11620,17 @@
     <row r="46" spans="1:37" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="48"/>
       <c r="B46" s="67"/>
-      <c r="C46" s="198" t="s">
+      <c r="C46" s="184" t="s">
         <v>60</v>
       </c>
-      <c r="D46" s="198"/>
-      <c r="E46" s="198"/>
-      <c r="F46" s="198"/>
-      <c r="G46" s="198"/>
-      <c r="H46" s="198"/>
-      <c r="I46" s="198"/>
-      <c r="J46" s="211"/>
-      <c r="K46" s="211"/>
+      <c r="D46" s="184"/>
+      <c r="E46" s="184"/>
+      <c r="F46" s="184"/>
+      <c r="G46" s="184"/>
+      <c r="H46" s="184"/>
+      <c r="I46" s="184"/>
+      <c r="J46" s="213"/>
+      <c r="K46" s="213"/>
       <c r="L46" s="19"/>
       <c r="M46" s="19"/>
       <c r="N46" s="19"/>
@@ -12591,16 +12497,39 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="28TFat6YJBegy0WmpFFDPG8QNxXmE0gViFODKK9E3NMxjpopKPeLIw0JZvXMMUYfZYiINOqdL4YJvKko63NMjA==" saltValue="DEF05UHC+J/FOIx7FYMdHg==" spinCount="100000" sheet="1" selectLockedCells="1"/>
   <mergeCells count="59">
-    <mergeCell ref="AI7:AI8"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="U3:W3"/>
-    <mergeCell ref="Y3:AA3"/>
-    <mergeCell ref="B4:AH5"/>
-    <mergeCell ref="AI4:AI6"/>
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="AD3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="C46:I46"/>
+    <mergeCell ref="J46:K46"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="C43:I43"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="C44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="J45:K45"/>
+    <mergeCell ref="C37:AE37"/>
+    <mergeCell ref="C38:AF38"/>
+    <mergeCell ref="M40:AH40"/>
+    <mergeCell ref="C40:L40"/>
+    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="C31:Y31"/>
+    <mergeCell ref="C32:Z32"/>
+    <mergeCell ref="C33:AA33"/>
+    <mergeCell ref="C34:AB34"/>
+    <mergeCell ref="C35:AC35"/>
+    <mergeCell ref="C36:AD36"/>
+    <mergeCell ref="C26:T26"/>
+    <mergeCell ref="C27:U27"/>
+    <mergeCell ref="C28:V28"/>
+    <mergeCell ref="C29:W29"/>
+    <mergeCell ref="C39:AG39"/>
+    <mergeCell ref="C21:O21"/>
+    <mergeCell ref="C22:P22"/>
+    <mergeCell ref="C23:Q23"/>
+    <mergeCell ref="C24:R24"/>
+    <mergeCell ref="C25:S25"/>
     <mergeCell ref="AJ4:AK4"/>
     <mergeCell ref="AJ5:AJ6"/>
     <mergeCell ref="AK5:AK6"/>
@@ -12617,39 +12546,16 @@
     <mergeCell ref="C30:X30"/>
     <mergeCell ref="C19:M19"/>
     <mergeCell ref="C20:N20"/>
-    <mergeCell ref="C21:O21"/>
-    <mergeCell ref="C22:P22"/>
-    <mergeCell ref="C23:Q23"/>
-    <mergeCell ref="C24:R24"/>
-    <mergeCell ref="C25:S25"/>
-    <mergeCell ref="C26:T26"/>
-    <mergeCell ref="C27:U27"/>
-    <mergeCell ref="C28:V28"/>
-    <mergeCell ref="C29:W29"/>
-    <mergeCell ref="C39:AG39"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="C31:Y31"/>
-    <mergeCell ref="C32:Z32"/>
-    <mergeCell ref="C33:AA33"/>
-    <mergeCell ref="C34:AB34"/>
-    <mergeCell ref="C35:AC35"/>
-    <mergeCell ref="C36:AD36"/>
-    <mergeCell ref="C46:I46"/>
-    <mergeCell ref="J46:K46"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="C43:I43"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="C44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="C45:I45"/>
-    <mergeCell ref="J45:K45"/>
-    <mergeCell ref="C37:AE37"/>
-    <mergeCell ref="C38:AF38"/>
-    <mergeCell ref="M40:AH40"/>
-    <mergeCell ref="C40:L40"/>
-    <mergeCell ref="C42:I42"/>
+    <mergeCell ref="AI7:AI8"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:W3"/>
+    <mergeCell ref="Y3:AA3"/>
+    <mergeCell ref="B4:AH5"/>
+    <mergeCell ref="AI4:AI6"/>
+    <mergeCell ref="AB3:AC3"/>
+    <mergeCell ref="AD3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
   </mergeCells>
   <conditionalFormatting sqref="D9">
     <cfRule type="expression" dxfId="89" priority="90">
